--- a/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
+++ b/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACULDADE\Repositorio Praticas\M64-Bela-Adormecida-\2 - Requisitos\2.5 - Planilha_de_Contagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Pratica Profissional\M64-Bela-Adormecida-\2 - Requisitos\2.5 - Planilha_de_Contagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sumário" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CF">Funções!$K$8:$K$99</definedName>
+    <definedName name="CF">Funções!$K$8:$K$107</definedName>
     <definedName name="Data">Contagem!$X$7</definedName>
     <definedName name="Projeto">Contagem!$F$6</definedName>
     <definedName name="Responsável">Contagem!$F$7</definedName>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="159">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -695,6 +695,27 @@
   </si>
   <si>
     <t>Cambio  do dólar/guarani/peso</t>
+  </si>
+  <si>
+    <t>Finanças</t>
+  </si>
+  <si>
+    <t>Inserir lançamento</t>
+  </si>
+  <si>
+    <t>Alterar lançamento</t>
+  </si>
+  <si>
+    <t>Cancelar lançamento</t>
+  </si>
+  <si>
+    <t>Visualizar detalhes de lançamento</t>
+  </si>
+  <si>
+    <t>Relatório de lançamento</t>
+  </si>
+  <si>
+    <t>Consultar lançamento</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,24 +1490,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1496,18 +1510,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1515,11 +1525,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1530,10 +1554,43 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,46 +1608,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,7 +1615,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1613,11 +1637,68 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="165">
+    <dxf>
+      <font>
+        <color rgb="FFDD0806"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006411"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFDD0806"/>
@@ -4923,36 +5004,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="92"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="87"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -4961,34 +5042,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="95"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="90"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -4998,34 +5079,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="98"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="93"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -5035,47 +5116,47 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="105" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="84" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="83"/>
+      <c r="S4" s="96"/>
       <c r="T4" s="2">
         <v>500</v>
       </c>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="104">
+      <c r="V4" s="96"/>
+      <c r="W4" s="99">
         <f>W5*T4</f>
-        <v>191500</v>
-      </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="83"/>
+        <v>206500</v>
+      </c>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="96"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -5085,41 +5166,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="84" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="83"/>
-      <c r="W5" s="86">
+      <c r="V5" s="96"/>
+      <c r="W5" s="101">
         <f>SUM(Y11:Y14)</f>
-        <v>383</v>
-      </c>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="83"/>
+        <v>413</v>
+      </c>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="96"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -5129,36 +5210,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="83"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -5168,40 +5249,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="89" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="82" t="s">
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="85"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="83"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="96"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -5211,38 +5292,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="82" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="85"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="83"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="96"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -5288,46 +5369,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="83"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="100" t="s">
+      <c r="O10" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="84" t="s">
+      <c r="P10" s="86"/>
+      <c r="Q10" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84" t="s">
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="84" t="s">
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="83"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="96"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -5337,46 +5418,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="102" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="83"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="82" t="s">
+      <c r="O11" s="88"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="86">
+      <c r="R11" s="96"/>
+      <c r="S11" s="101">
         <f>Sumário!E55</f>
-        <v>383</v>
-      </c>
-      <c r="T11" s="83"/>
-      <c r="U11" s="87">
+        <v>413</v>
+      </c>
+      <c r="T11" s="96"/>
+      <c r="U11" s="105">
         <v>1</v>
       </c>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="86">
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="101">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>383</v>
-      </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83"/>
+        <v>413</v>
+      </c>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="96"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -5386,46 +5467,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="93"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="102" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="83"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="82" t="s">
+      <c r="O12" s="88"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="85"/>
-      <c r="S12" s="86">
+      <c r="R12" s="95"/>
+      <c r="S12" s="101">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="87">
+      <c r="T12" s="96"/>
+      <c r="U12" s="105">
         <v>1</v>
       </c>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="86">
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="83"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="96"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -5435,46 +5516,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="102" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="83"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="82" t="s">
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="85"/>
-      <c r="S13" s="86">
+      <c r="R13" s="95"/>
+      <c r="S13" s="101">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="83"/>
-      <c r="U13" s="87">
+      <c r="T13" s="96"/>
+      <c r="U13" s="105">
         <v>1</v>
       </c>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="86">
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="83"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="96"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -5484,8 +5565,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5498,26 +5579,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="86">
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="101">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="83"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="86">
+      <c r="T14" s="96"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="83"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="96"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -5577,17 +5658,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="101" t="s">
+      <c r="K16" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -5606,34 +5687,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="92"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="87"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -5643,34 +5724,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="95"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="90"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -5680,34 +5761,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="95"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="90"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -5717,34 +5798,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="95"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="90"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -5754,34 +5835,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="93"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="95"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="90"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -5791,34 +5872,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="95"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="90"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -5828,34 +5909,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="95"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="90"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -5865,34 +5946,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="95"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="90"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -5902,34 +5983,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="93"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="95"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="90"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -5939,34 +6020,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="95"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="90"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -5976,34 +6057,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="95"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="90"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -6013,34 +6094,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="93"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="95"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="90"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -6050,34 +6131,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="93"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="95"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="90"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -6087,34 +6168,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="93"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="95"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="90"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -6124,34 +6205,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="95"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="90"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -6161,34 +6242,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="95"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="90"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -6198,34 +6279,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="95"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="90"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -6235,34 +6316,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="95"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="89"/>
+      <c r="AB34" s="90"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -6272,34 +6353,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="95"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="90"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -6309,34 +6390,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="95"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="89"/>
+      <c r="AB36" s="90"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -6346,34 +6427,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94"/>
-      <c r="Y37" s="94"/>
-      <c r="Z37" s="94"/>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="95"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="90"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6383,34 +6464,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="97"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="98"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="92"/>
+      <c r="X38" s="92"/>
+      <c r="Y38" s="92"/>
+      <c r="Z38" s="92"/>
+      <c r="AA38" s="92"/>
+      <c r="AB38" s="93"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6467,17 +6548,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="101" t="s">
+      <c r="K40" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="97"/>
-      <c r="S40" s="97"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -6496,34 +6577,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="90"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="91"/>
-      <c r="Z41" s="91"/>
-      <c r="AA41" s="91"/>
-      <c r="AB41" s="92"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="87"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -6533,34 +6614,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="93"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="95"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="89"/>
+      <c r="AB42" s="90"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6570,34 +6651,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="94"/>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="94"/>
-      <c r="AA43" s="94"/>
-      <c r="AB43" s="95"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="89"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="89"/>
+      <c r="Z43" s="89"/>
+      <c r="AA43" s="89"/>
+      <c r="AB43" s="90"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -6607,34 +6688,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="93"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="94"/>
-      <c r="AA44" s="94"/>
-      <c r="AB44" s="95"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="90"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6644,34 +6725,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="93"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="94"/>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="95"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="89"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="89"/>
+      <c r="W45" s="89"/>
+      <c r="X45" s="89"/>
+      <c r="Y45" s="89"/>
+      <c r="Z45" s="89"/>
+      <c r="AA45" s="89"/>
+      <c r="AB45" s="90"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -6681,34 +6762,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="93"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
-      <c r="AB46" s="95"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="89"/>
+      <c r="Z46" s="89"/>
+      <c r="AA46" s="89"/>
+      <c r="AB46" s="90"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -6718,34 +6799,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="93"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-      <c r="Z47" s="94"/>
-      <c r="AA47" s="94"/>
-      <c r="AB47" s="95"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="89"/>
+      <c r="Z47" s="89"/>
+      <c r="AA47" s="89"/>
+      <c r="AB47" s="90"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -6755,34 +6836,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="93"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="94"/>
-      <c r="X48" s="94"/>
-      <c r="Y48" s="94"/>
-      <c r="Z48" s="94"/>
-      <c r="AA48" s="94"/>
-      <c r="AB48" s="95"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="89"/>
+      <c r="Z48" s="89"/>
+      <c r="AA48" s="89"/>
+      <c r="AB48" s="90"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -6792,34 +6873,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="93"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="94"/>
-      <c r="Q49" s="94"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="94"/>
-      <c r="T49" s="94"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="94"/>
-      <c r="W49" s="94"/>
-      <c r="X49" s="94"/>
-      <c r="Y49" s="94"/>
-      <c r="Z49" s="94"/>
-      <c r="AA49" s="94"/>
-      <c r="AB49" s="95"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="89"/>
+      <c r="AB49" s="90"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -6829,34 +6910,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="94"/>
-      <c r="T50" s="94"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="94"/>
-      <c r="W50" s="94"/>
-      <c r="X50" s="94"/>
-      <c r="Y50" s="94"/>
-      <c r="Z50" s="94"/>
-      <c r="AA50" s="94"/>
-      <c r="AB50" s="95"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="89"/>
+      <c r="AA50" s="89"/>
+      <c r="AB50" s="90"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -6866,34 +6947,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="93"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-      <c r="Z51" s="94"/>
-      <c r="AA51" s="94"/>
-      <c r="AB51" s="95"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
+      <c r="Z51" s="89"/>
+      <c r="AA51" s="89"/>
+      <c r="AB51" s="90"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -6903,34 +6984,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="93"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="95"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="89"/>
+      <c r="AA52" s="89"/>
+      <c r="AB52" s="90"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -6940,34 +7021,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="93"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="94"/>
-      <c r="T53" s="94"/>
-      <c r="U53" s="94"/>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="94"/>
-      <c r="AA53" s="94"/>
-      <c r="AB53" s="95"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="89"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="89"/>
+      <c r="Y53" s="89"/>
+      <c r="Z53" s="89"/>
+      <c r="AA53" s="89"/>
+      <c r="AB53" s="90"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -6977,34 +7058,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="93"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="94"/>
-      <c r="AB54" s="95"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
+      <c r="AB54" s="90"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7014,34 +7095,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="93"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="94"/>
-      <c r="T55" s="94"/>
-      <c r="U55" s="94"/>
-      <c r="V55" s="94"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="94"/>
-      <c r="Y55" s="94"/>
-      <c r="Z55" s="94"/>
-      <c r="AA55" s="94"/>
-      <c r="AB55" s="95"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="89"/>
+      <c r="AA55" s="89"/>
+      <c r="AB55" s="90"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -7051,34 +7132,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="93"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="94"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
-      <c r="W56" s="94"/>
-      <c r="X56" s="94"/>
-      <c r="Y56" s="94"/>
-      <c r="Z56" s="94"/>
-      <c r="AA56" s="94"/>
-      <c r="AB56" s="95"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="89"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="89"/>
+      <c r="Z56" s="89"/>
+      <c r="AA56" s="89"/>
+      <c r="AB56" s="90"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -7088,34 +7169,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="93"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
-      <c r="X57" s="94"/>
-      <c r="Y57" s="94"/>
-      <c r="Z57" s="94"/>
-      <c r="AA57" s="94"/>
-      <c r="AB57" s="95"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="89"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
+      <c r="X57" s="89"/>
+      <c r="Y57" s="89"/>
+      <c r="Z57" s="89"/>
+      <c r="AA57" s="89"/>
+      <c r="AB57" s="90"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -7125,34 +7206,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="93"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="94"/>
-      <c r="T58" s="94"/>
-      <c r="U58" s="94"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
-      <c r="X58" s="94"/>
-      <c r="Y58" s="94"/>
-      <c r="Z58" s="94"/>
-      <c r="AA58" s="94"/>
-      <c r="AB58" s="95"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="89"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="89"/>
+      <c r="AA58" s="89"/>
+      <c r="AB58" s="90"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -7162,34 +7243,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="93"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="94"/>
-      <c r="T59" s="94"/>
-      <c r="U59" s="94"/>
-      <c r="V59" s="94"/>
-      <c r="W59" s="94"/>
-      <c r="X59" s="94"/>
-      <c r="Y59" s="94"/>
-      <c r="Z59" s="94"/>
-      <c r="AA59" s="94"/>
-      <c r="AB59" s="95"/>
+      <c r="A59" s="88"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="89"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="89"/>
+      <c r="S59" s="89"/>
+      <c r="T59" s="89"/>
+      <c r="U59" s="89"/>
+      <c r="V59" s="89"/>
+      <c r="W59" s="89"/>
+      <c r="X59" s="89"/>
+      <c r="Y59" s="89"/>
+      <c r="Z59" s="89"/>
+      <c r="AA59" s="89"/>
+      <c r="AB59" s="90"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -7199,34 +7280,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="96"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="97"/>
-      <c r="S60" s="97"/>
-      <c r="T60" s="97"/>
-      <c r="U60" s="97"/>
-      <c r="V60" s="97"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
-      <c r="Y60" s="97"/>
-      <c r="Z60" s="97"/>
-      <c r="AA60" s="97"/>
-      <c r="AB60" s="98"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="92"/>
+      <c r="T60" s="92"/>
+      <c r="U60" s="92"/>
+      <c r="V60" s="92"/>
+      <c r="W60" s="92"/>
+      <c r="X60" s="92"/>
+      <c r="Y60" s="92"/>
+      <c r="Z60" s="92"/>
+      <c r="AA60" s="92"/>
+      <c r="AB60" s="93"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -7274,16 +7355,29 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="A41:AB60"/>
     <mergeCell ref="K40:S40"/>
     <mergeCell ref="K16:S16"/>
@@ -7300,29 +7394,16 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="F7:T7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W5:AB5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -7335,11 +7416,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104:F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -7362,23 +7443,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -7386,21 +7467,21 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -7408,21 +7489,21 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -7430,89 +7511,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="113" t="str">
+      <c r="A4" s="127" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="111" t="str">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="119" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="83"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="120" t="str">
+      <c r="A5" s="116" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="111" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="119" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="83"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="96"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="120" t="str">
+      <c r="A6" s="116" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Souza Car</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="111" t="str">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="123" t="str">
+      <c r="G6" s="96"/>
+      <c r="H6" s="115" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 191.500,00</v>
-      </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="117" t="str">
+        <v xml:space="preserve"> Custo= R$206.500,00</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="131" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 383</v>
-      </c>
-      <c r="O6" s="118"/>
+        <v>PF  = 413</v>
+      </c>
+      <c r="O6" s="132"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -7520,14 +7601,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -7555,23 +7636,23 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="126" t="s">
+      <c r="P7" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
       <c r="A8" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="16" t="s">
         <v>35</v>
       </c>
@@ -7604,21 +7685,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="16" t="s">
         <v>37</v>
       </c>
@@ -7649,21 +7730,21 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="16" t="s">
         <v>37</v>
       </c>
@@ -7694,21 +7775,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -7739,21 +7820,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="16" t="s">
         <v>39</v>
       </c>
@@ -7784,21 +7865,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="18" t="s">
         <v>39</v>
       </c>
@@ -7829,21 +7910,21 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="18" t="s">
         <v>57</v>
       </c>
@@ -7883,14 +7964,14 @@
       <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="18" t="s">
         <v>52</v>
       </c>
@@ -7928,14 +8009,14 @@
       <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="18" t="s">
         <v>52</v>
       </c>
@@ -7973,14 +8054,14 @@
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="18" t="s">
         <v>52</v>
       </c>
@@ -8011,11 +8092,11 @@
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
       <c r="A18" s="68"/>
@@ -8048,21 +8129,21 @@
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
       <c r="A19" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
@@ -8091,11 +8172,11 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
       <c r="A20" s="60" t="s">
@@ -8134,11 +8215,11 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
       <c r="A21" s="60" t="s">
@@ -8177,11 +8258,11 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
       <c r="A22" s="60" t="s">
@@ -8220,11 +8301,11 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
       <c r="A23" s="60" t="s">
@@ -8263,21 +8344,21 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
@@ -8306,11 +8387,11 @@
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
       <c r="A25" s="63" t="s">
@@ -8349,19 +8430,19 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
       <c r="G26" s="18"/>
       <c r="H26" s="25"/>
       <c r="I26" s="18"/>
@@ -8386,21 +8467,21 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="123"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
       <c r="A27" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
       <c r="G27" s="18" t="s">
         <v>35</v>
       </c>
@@ -8429,21 +8510,21 @@
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="123"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
       <c r="G28" s="18" t="s">
         <v>37</v>
       </c>
@@ -8472,21 +8553,21 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="123"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="18" t="s">
         <v>37</v>
       </c>
@@ -8515,21 +8596,21 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="18" t="s">
         <v>37</v>
       </c>
@@ -8558,21 +8639,21 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="18" t="s">
         <v>39</v>
       </c>
@@ -8601,21 +8682,21 @@
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="18" t="s">
         <v>37</v>
       </c>
@@ -8644,21 +8725,21 @@
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="18" t="s">
         <v>52</v>
       </c>
@@ -8687,19 +8768,19 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="18"/>
       <c r="H34" s="25"/>
       <c r="I34" s="18"/>
@@ -8724,21 +8805,21 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="123"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="A35" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="18" t="s">
         <v>35</v>
       </c>
@@ -8767,21 +8848,21 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
       <c r="G36" s="18" t="s">
         <v>37</v>
       </c>
@@ -8810,21 +8891,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="123"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="110"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="18" t="s">
         <v>37</v>
       </c>
@@ -8853,21 +8934,21 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="110"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="18" t="s">
         <v>37</v>
       </c>
@@ -8896,21 +8977,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="123"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="110"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="18" t="s">
         <v>39</v>
       </c>
@@ -8939,21 +9020,21 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="123"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="110"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="18" t="s">
         <v>52</v>
       </c>
@@ -8982,21 +9063,21 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="123"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="110"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="18" t="s">
         <v>37</v>
       </c>
@@ -9025,19 +9106,19 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="107"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="108"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="110"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="18"/>
       <c r="H42" s="25"/>
       <c r="I42" s="18"/>
@@ -9062,21 +9143,21 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="123"/>
+      <c r="R42" s="123"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="123"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="110"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="111"/>
       <c r="G43" s="18" t="s">
         <v>35</v>
       </c>
@@ -9105,21 +9186,21 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="107"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="123"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="123"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="18" t="s">
         <v>37</v>
       </c>
@@ -9148,21 +9229,21 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="107"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="107"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="123"/>
+      <c r="R44" s="123"/>
+      <c r="S44" s="123"/>
+      <c r="T44" s="123"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="110"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="111"/>
       <c r="G45" s="18" t="s">
         <v>37</v>
       </c>
@@ -9191,21 +9272,21 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="107"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="123"/>
+      <c r="S45" s="123"/>
+      <c r="T45" s="123"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="18" t="s">
         <v>37</v>
       </c>
@@ -9234,21 +9315,21 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="107"/>
-      <c r="R46" s="107"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="107"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="123"/>
+      <c r="S46" s="123"/>
+      <c r="T46" s="123"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="110"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="18" t="s">
         <v>39</v>
       </c>
@@ -9277,21 +9358,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
+      <c r="P47" s="122"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="123"/>
+      <c r="S47" s="123"/>
+      <c r="T47" s="123"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="110"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="111"/>
       <c r="G48" s="18" t="s">
         <v>52</v>
       </c>
@@ -9320,21 +9401,21 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="107"/>
-      <c r="R48" s="107"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="107"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="123"/>
+      <c r="R48" s="123"/>
+      <c r="S48" s="123"/>
+      <c r="T48" s="123"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="110"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="111"/>
       <c r="G49" s="18" t="s">
         <v>37</v>
       </c>
@@ -9363,19 +9444,19 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="107"/>
-      <c r="R49" s="107"/>
-      <c r="S49" s="107"/>
-      <c r="T49" s="107"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="123"/>
+      <c r="R49" s="123"/>
+      <c r="S49" s="123"/>
+      <c r="T49" s="123"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="108"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
       <c r="G50" s="18"/>
       <c r="H50" s="25"/>
       <c r="I50" s="18"/>
@@ -9400,21 +9481,21 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="107"/>
-      <c r="R50" s="107"/>
-      <c r="S50" s="107"/>
-      <c r="T50" s="107"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="123"/>
+      <c r="S50" s="123"/>
+      <c r="T50" s="123"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
       <c r="A51" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="122"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="114"/>
       <c r="G51" s="18" t="s">
         <v>35</v>
       </c>
@@ -9443,21 +9524,21 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="107"/>
-      <c r="R51" s="107"/>
-      <c r="S51" s="107"/>
-      <c r="T51" s="107"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="123"/>
+      <c r="S51" s="123"/>
+      <c r="T51" s="123"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="18" t="s">
         <v>37</v>
       </c>
@@ -9486,21 +9567,21 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="107"/>
-      <c r="R52" s="107"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="107"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="123"/>
+      <c r="R52" s="123"/>
+      <c r="S52" s="123"/>
+      <c r="T52" s="123"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="110"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="18" t="s">
         <v>37</v>
       </c>
@@ -9529,21 +9610,21 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="107"/>
-      <c r="R53" s="107"/>
-      <c r="S53" s="107"/>
-      <c r="T53" s="107"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="123"/>
+      <c r="R53" s="123"/>
+      <c r="S53" s="123"/>
+      <c r="T53" s="123"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="111"/>
       <c r="G54" s="18" t="s">
         <v>37</v>
       </c>
@@ -9572,21 +9653,21 @@
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="107"/>
-      <c r="R54" s="107"/>
-      <c r="S54" s="107"/>
-      <c r="T54" s="107"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="123"/>
+      <c r="R54" s="123"/>
+      <c r="S54" s="123"/>
+      <c r="T54" s="123"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="108" t="s">
+      <c r="A55" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="110"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="111"/>
       <c r="G55" s="18" t="s">
         <v>39</v>
       </c>
@@ -9615,21 +9696,21 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="107"/>
-      <c r="R55" s="107"/>
-      <c r="S55" s="107"/>
-      <c r="T55" s="107"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="123"/>
+      <c r="T55" s="123"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="108" t="s">
+      <c r="A56" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="110"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="18" t="s">
         <v>57</v>
       </c>
@@ -9658,21 +9739,21 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P56" s="106"/>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="107"/>
-      <c r="S56" s="107"/>
-      <c r="T56" s="107"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="123"/>
+      <c r="R56" s="123"/>
+      <c r="S56" s="123"/>
+      <c r="T56" s="123"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="109"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="110"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="18" t="s">
         <v>37</v>
       </c>
@@ -9701,21 +9782,21 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="107"/>
-      <c r="S57" s="107"/>
-      <c r="T57" s="107"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="123"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="123"/>
+      <c r="T57" s="123"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="18" t="s">
         <v>52</v>
       </c>
@@ -9744,19 +9825,19 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="107"/>
-      <c r="R58" s="107"/>
-      <c r="S58" s="107"/>
-      <c r="T58" s="107"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="108"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="110"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="18"/>
       <c r="H59" s="25"/>
       <c r="I59" s="18"/>
@@ -9781,21 +9862,21 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="107"/>
-      <c r="R59" s="107"/>
-      <c r="S59" s="107"/>
-      <c r="T59" s="107"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
+      <c r="T59" s="123"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="122"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="114"/>
       <c r="G60" s="18" t="s">
         <v>35</v>
       </c>
@@ -9824,21 +9905,21 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="107"/>
-      <c r="R60" s="107"/>
-      <c r="S60" s="107"/>
-      <c r="T60" s="107"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="123"/>
+      <c r="R60" s="123"/>
+      <c r="S60" s="123"/>
+      <c r="T60" s="123"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="110"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="111"/>
       <c r="G61" s="18" t="s">
         <v>37</v>
       </c>
@@ -9867,21 +9948,21 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P61" s="106"/>
-      <c r="Q61" s="107"/>
-      <c r="R61" s="107"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="107"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="108" t="s">
+      <c r="A62" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="109"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="110"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="111"/>
       <c r="G62" s="18" t="s">
         <v>37</v>
       </c>
@@ -9910,21 +9991,21 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P62" s="106"/>
-      <c r="Q62" s="107"/>
-      <c r="R62" s="107"/>
-      <c r="S62" s="107"/>
-      <c r="T62" s="107"/>
+      <c r="P62" s="122"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
+      <c r="T62" s="123"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="110"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="111"/>
       <c r="G63" s="18" t="s">
         <v>37</v>
       </c>
@@ -9953,21 +10034,21 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P63" s="106"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="107"/>
+      <c r="P63" s="122"/>
+      <c r="Q63" s="123"/>
+      <c r="R63" s="123"/>
+      <c r="S63" s="123"/>
+      <c r="T63" s="123"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="108" t="s">
+      <c r="A64" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="110"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="18" t="s">
         <v>39</v>
       </c>
@@ -9996,21 +10077,21 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P64" s="106"/>
-      <c r="Q64" s="107"/>
-      <c r="R64" s="107"/>
-      <c r="S64" s="107"/>
-      <c r="T64" s="107"/>
+      <c r="P64" s="122"/>
+      <c r="Q64" s="123"/>
+      <c r="R64" s="123"/>
+      <c r="S64" s="123"/>
+      <c r="T64" s="123"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="110"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="18" t="s">
         <v>39</v>
       </c>
@@ -10039,21 +10120,21 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P65" s="106"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="107"/>
+      <c r="P65" s="122"/>
+      <c r="Q65" s="123"/>
+      <c r="R65" s="123"/>
+      <c r="S65" s="123"/>
+      <c r="T65" s="123"/>
     </row>
     <row r="66" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A66" s="108" t="s">
+      <c r="A66" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="110"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="111"/>
       <c r="G66" s="18" t="s">
         <v>52</v>
       </c>
@@ -10089,12 +10170,12 @@
       <c r="T66" s="73"/>
     </row>
     <row r="67" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="108"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="110"/>
+      <c r="A67" s="109"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="111"/>
       <c r="G67" s="18"/>
       <c r="H67" s="25"/>
       <c r="I67" s="18"/>
@@ -10129,11 +10210,11 @@
       <c r="A68" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="110"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="111"/>
       <c r="G68" s="18" t="s">
         <v>35</v>
       </c>
@@ -10169,14 +10250,14 @@
       <c r="T68" s="73"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="110"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="111"/>
       <c r="G69" s="18" t="s">
         <v>37</v>
       </c>
@@ -10205,21 +10286,21 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="107"/>
-      <c r="R69" s="107"/>
-      <c r="S69" s="107"/>
-      <c r="T69" s="107"/>
+      <c r="P69" s="122"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="123"/>
+      <c r="T69" s="123"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="110"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="111"/>
       <c r="G70" s="18" t="s">
         <v>37</v>
       </c>
@@ -10248,21 +10329,21 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P70" s="106"/>
-      <c r="Q70" s="107"/>
-      <c r="R70" s="107"/>
-      <c r="S70" s="107"/>
-      <c r="T70" s="107"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="123"/>
+      <c r="R70" s="123"/>
+      <c r="S70" s="123"/>
+      <c r="T70" s="123"/>
     </row>
     <row r="71" spans="1:20" ht="15" customHeight="1">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="109"/>
-      <c r="C71" s="109"/>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="110"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="111"/>
       <c r="G71" s="18" t="s">
         <v>37</v>
       </c>
@@ -10293,14 +10374,14 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="15" customHeight="1">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="109"/>
-      <c r="C72" s="109"/>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="110"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="111"/>
       <c r="G72" s="18" t="s">
         <v>39</v>
       </c>
@@ -10331,14 +10412,14 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="15" customHeight="1">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="110"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="111"/>
       <c r="G73" s="18" t="s">
         <v>39</v>
       </c>
@@ -10369,14 +10450,14 @@
       </c>
     </row>
     <row r="74" spans="1:20" ht="15" customHeight="1">
-      <c r="A74" s="108" t="s">
+      <c r="A74" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="109"/>
-      <c r="C74" s="109"/>
-      <c r="D74" s="109"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="110"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="111"/>
       <c r="G74" s="18" t="s">
         <v>52</v>
       </c>
@@ -10407,12 +10488,12 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="15" customHeight="1">
-      <c r="A75" s="108"/>
-      <c r="B75" s="109"/>
-      <c r="C75" s="109"/>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="110"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="111"/>
       <c r="G75" s="18"/>
       <c r="H75" s="25"/>
       <c r="I75" s="18"/>
@@ -10442,11 +10523,11 @@
       <c r="A76" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="110"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="110"/>
+      <c r="F76" s="111"/>
       <c r="G76" s="18" t="s">
         <v>35</v>
       </c>
@@ -10477,14 +10558,14 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="15" customHeight="1">
-      <c r="A77" s="108" t="s">
+      <c r="A77" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="109"/>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="110"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="111"/>
       <c r="G77" s="18" t="s">
         <v>37</v>
       </c>
@@ -10515,14 +10596,14 @@
       </c>
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="109"/>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="109"/>
-      <c r="F78" s="110"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="111"/>
       <c r="G78" s="18" t="s">
         <v>37</v>
       </c>
@@ -10553,14 +10634,14 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1">
-      <c r="A79" s="108" t="s">
+      <c r="A79" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="109"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="109"/>
-      <c r="F79" s="110"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="111"/>
       <c r="G79" s="18" t="s">
         <v>39</v>
       </c>
@@ -10591,14 +10672,14 @@
       </c>
     </row>
     <row r="80" spans="1:20" s="74" customFormat="1" ht="15" customHeight="1">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="109"/>
-      <c r="F80" s="110"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="111"/>
       <c r="G80" s="18" t="s">
         <v>37</v>
       </c>
@@ -10629,14 +10710,14 @@
       </c>
     </row>
     <row r="81" spans="1:15" ht="15" customHeight="1">
-      <c r="A81" s="108" t="s">
+      <c r="A81" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="109"/>
-      <c r="C81" s="109"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="109"/>
-      <c r="F81" s="110"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
+      <c r="F81" s="111"/>
       <c r="G81" s="18" t="s">
         <v>39</v>
       </c>
@@ -10667,14 +10748,14 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="110"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="111"/>
       <c r="G82" s="18" t="s">
         <v>37</v>
       </c>
@@ -10705,14 +10786,14 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="109"/>
-      <c r="F83" s="110"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="111"/>
       <c r="G83" s="18" t="s">
         <v>52</v>
       </c>
@@ -10743,14 +10824,14 @@
       </c>
     </row>
     <row r="84" spans="1:15" s="78" customFormat="1" ht="15" customHeight="1">
-      <c r="A84" s="108" t="s">
+      <c r="A84" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="110"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="110"/>
+      <c r="F84" s="111"/>
       <c r="G84" s="18" t="s">
         <v>52</v>
       </c>
@@ -10810,11 +10891,11 @@
       <c r="A86" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="109"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
-      <c r="F86" s="110"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="111"/>
       <c r="G86" s="18" t="s">
         <v>35</v>
       </c>
@@ -10845,14 +10926,14 @@
       </c>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1">
-      <c r="A87" s="108" t="s">
+      <c r="A87" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="109"/>
-      <c r="C87" s="109"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="110"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="111"/>
       <c r="G87" s="18" t="s">
         <v>37</v>
       </c>
@@ -10862,19 +10943,19 @@
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="K87" s="18" t="str">
-        <f t="shared" ref="K87:K93" si="58">CONCATENATE(G87,L87)</f>
+        <f t="shared" ref="K87:K101" si="58">CONCATENATE(G87,L87)</f>
         <v>EEA</v>
       </c>
       <c r="L87" s="19" t="str">
-        <f t="shared" ref="L87:L93" si="59">IF(OR(ISBLANK(I87),ISBLANK(J87)),IF(OR(G87="ALI",G87="AIE"),"L",IF(ISBLANK(G87),"","A")),IF(G87="EE",IF(J87&gt;=3,IF(I87&gt;=5,"H","A"),IF(J87&gt;=2,IF(I87&gt;=16,"H",IF(I87&lt;=4,"L","A")),IF(I87&lt;=15,"L","A"))),IF(OR(G87="SE",G87="CE"),IF(J87&gt;=4,IF(I87&gt;=6,"H","A"),IF(J87&gt;=2,IF(I87&gt;=20,"H",IF(I87&lt;=5,"L","A")),IF(I87&lt;=19,"L","A"))),IF(OR(G87="ALI",G87="AIE"),IF(J87&gt;=6,IF(I87&gt;=20,"H","A"),IF(J87&gt;=2,IF(I87&gt;=51,"H",IF(I87&lt;=19,"L","A")),IF(I87&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L87:L101" si="59">IF(OR(ISBLANK(I87),ISBLANK(J87)),IF(OR(G87="ALI",G87="AIE"),"L",IF(ISBLANK(G87),"","A")),IF(G87="EE",IF(J87&gt;=3,IF(I87&gt;=5,"H","A"),IF(J87&gt;=2,IF(I87&gt;=16,"H",IF(I87&lt;=4,"L","A")),IF(I87&lt;=15,"L","A"))),IF(OR(G87="SE",G87="CE"),IF(J87&gt;=4,IF(I87&gt;=6,"H","A"),IF(J87&gt;=2,IF(I87&gt;=20,"H",IF(I87&lt;=5,"L","A")),IF(I87&lt;=19,"L","A"))),IF(OR(G87="ALI",G87="AIE"),IF(J87&gt;=6,IF(I87&gt;=20,"H","A"),IF(J87&gt;=2,IF(I87&gt;=51,"H",IF(I87&lt;=19,"L","A")),IF(I87&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
       <c r="M87" s="20" t="str">
-        <f t="shared" ref="M87:M93" si="60">IF(L87="L","Baixa",IF(L87="A","Média",IF(L87="","","Alta")))</f>
+        <f t="shared" ref="M87:M101" si="60">IF(L87="L","Baixa",IF(L87="A","Média",IF(L87="","","Alta")))</f>
         <v>Média</v>
       </c>
       <c r="N87" s="21">
-        <f t="shared" ref="N87:N93" si="61">IF(ISBLANK(G87),"",IF(G87="ALI",IF(L87="L",7,IF(L87="A",10,15)),IF(G87="AIE",IF(L87="L",5,IF(L87="A",7,10)),IF(G87="SE",IF(L87="L",4,IF(L87="A",5,7)),IF(OR(G87="EE",G87="CE"),IF(L87="L",3,IF(L87="A",4,6)))))))</f>
+        <f t="shared" ref="N87:N101" si="61">IF(ISBLANK(G87),"",IF(G87="ALI",IF(L87="L",7,IF(L87="A",10,15)),IF(G87="AIE",IF(L87="L",5,IF(L87="A",7,10)),IF(G87="SE",IF(L87="L",4,IF(L87="A",5,7)),IF(OR(G87="EE",G87="CE"),IF(L87="L",3,IF(L87="A",4,6)))))))</f>
         <v>4</v>
       </c>
       <c r="O87" s="22">
@@ -10883,14 +10964,14 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="109"/>
-      <c r="F88" s="110"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="111"/>
       <c r="G88" s="18" t="s">
         <v>37</v>
       </c>
@@ -10921,14 +11002,14 @@
       </c>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1">
-      <c r="A89" s="108" t="s">
+      <c r="A89" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="109"/>
-      <c r="C89" s="109"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="109"/>
-      <c r="F89" s="110"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="111"/>
       <c r="G89" s="18" t="s">
         <v>39</v>
       </c>
@@ -10959,14 +11040,14 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="110"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="111"/>
       <c r="G90" s="18" t="s">
         <v>37</v>
       </c>
@@ -10997,14 +11078,14 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15" customHeight="1">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="110"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="111"/>
       <c r="G91" s="18" t="s">
         <v>39</v>
       </c>
@@ -11035,14 +11116,14 @@
       </c>
     </row>
     <row r="92" spans="1:15" s="78" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="108" t="s">
+      <c r="A92" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="110"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="111"/>
       <c r="G92" s="18" t="s">
         <v>52</v>
       </c>
@@ -11072,69 +11153,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" customHeight="1">
-      <c r="A93" s="108"/>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="110"/>
+    <row r="93" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A93" s="82"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="84"/>
       <c r="G93" s="18"/>
       <c r="H93" s="25"/>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
-      <c r="K93" s="18" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="L93" s="19" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="M93" s="20" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="N93" s="21" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-      <c r="O93" s="22" t="str">
-        <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="15" customHeight="1">
+      <c r="K93" s="18"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="22"/>
+    </row>
+    <row r="94" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="121"/>
-      <c r="C94" s="121"/>
-      <c r="D94" s="121"/>
-      <c r="E94" s="121"/>
-      <c r="F94" s="122"/>
+        <v>152</v>
+      </c>
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="111"/>
       <c r="G94" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I94" s="18"/>
       <c r="J94" s="18"/>
       <c r="K94" s="18" t="str">
-        <f t="shared" ref="K94:K97" si="66">CONCATENATE(G94,L94)</f>
+        <f t="shared" ref="K94:K100" si="66">CONCATENATE(G94,L94)</f>
         <v>ALIL</v>
       </c>
       <c r="L94" s="19" t="str">
-        <f t="shared" ref="L94:L97" si="67">IF(OR(ISBLANK(I94),ISBLANK(J94)),IF(OR(G94="ALI",G94="AIE"),"L",IF(ISBLANK(G94),"","A")),IF(G94="EE",IF(J94&gt;=3,IF(I94&gt;=5,"H","A"),IF(J94&gt;=2,IF(I94&gt;=16,"H",IF(I94&lt;=4,"L","A")),IF(I94&lt;=15,"L","A"))),IF(OR(G94="SE",G94="CE"),IF(J94&gt;=4,IF(I94&gt;=6,"H","A"),IF(J94&gt;=2,IF(I94&gt;=20,"H",IF(I94&lt;=5,"L","A")),IF(I94&lt;=19,"L","A"))),IF(OR(G94="ALI",G94="AIE"),IF(J94&gt;=6,IF(I94&gt;=20,"H","A"),IF(J94&gt;=2,IF(I94&gt;=51,"H",IF(I94&lt;=19,"L","A")),IF(I94&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L94:L100" si="67">IF(OR(ISBLANK(I94),ISBLANK(J94)),IF(OR(G94="ALI",G94="AIE"),"L",IF(ISBLANK(G94),"","A")),IF(G94="EE",IF(J94&gt;=3,IF(I94&gt;=5,"H","A"),IF(J94&gt;=2,IF(I94&gt;=16,"H",IF(I94&lt;=4,"L","A")),IF(I94&lt;=15,"L","A"))),IF(OR(G94="SE",G94="CE"),IF(J94&gt;=4,IF(I94&gt;=6,"H","A"),IF(J94&gt;=2,IF(I94&gt;=20,"H",IF(I94&lt;=5,"L","A")),IF(I94&lt;=19,"L","A"))),IF(OR(G94="ALI",G94="AIE"),IF(J94&gt;=6,IF(I94&gt;=20,"H","A"),IF(J94&gt;=2,IF(I94&gt;=51,"H",IF(I94&lt;=19,"L","A")),IF(I94&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M94" s="20" t="str">
-        <f t="shared" ref="M94:M97" si="68">IF(L94="L","Baixa",IF(L94="A","Média",IF(L94="","","Alta")))</f>
+        <f t="shared" ref="M94:M100" si="68">IF(L94="L","Baixa",IF(L94="A","Média",IF(L94="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N94" s="21">
-        <f t="shared" ref="N94:N97" si="69">IF(ISBLANK(G94),"",IF(G94="ALI",IF(L94="L",7,IF(L94="A",10,15)),IF(G94="AIE",IF(L94="L",5,IF(L94="A",7,10)),IF(G94="SE",IF(L94="L",4,IF(L94="A",5,7)),IF(OR(G94="EE",G94="CE"),IF(L94="L",3,IF(L94="A",4,6)))))))</f>
+        <f t="shared" ref="N94:N100" si="69">IF(ISBLANK(G94),"",IF(G94="ALI",IF(L94="L",7,IF(L94="A",10,15)),IF(G94="AIE",IF(L94="L",5,IF(L94="A",7,10)),IF(G94="SE",IF(L94="L",4,IF(L94="A",5,7)),IF(OR(G94="EE",G94="CE"),IF(L94="L",3,IF(L94="A",4,6)))))))</f>
         <v>7</v>
       </c>
       <c r="O94" s="22">
@@ -11142,17 +11208,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A95" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" s="109"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="110"/>
+    <row r="95" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A95" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="110"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="111"/>
       <c r="G95" s="18" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H95" s="25" t="s">
         <v>38</v>
@@ -11160,37 +11226,37 @@
       <c r="I95" s="18"/>
       <c r="J95" s="18"/>
       <c r="K95" s="18" t="str">
-        <f t="shared" ref="K95:K96" si="70">CONCATENATE(G95,L95)</f>
-        <v>SEA</v>
+        <f t="shared" si="66"/>
+        <v>EEA</v>
       </c>
       <c r="L95" s="19" t="str">
-        <f t="shared" ref="L95:L96" si="71">IF(OR(ISBLANK(I95),ISBLANK(J95)),IF(OR(G95="ALI",G95="AIE"),"L",IF(ISBLANK(G95),"","A")),IF(G95="EE",IF(J95&gt;=3,IF(I95&gt;=5,"H","A"),IF(J95&gt;=2,IF(I95&gt;=16,"H",IF(I95&lt;=4,"L","A")),IF(I95&lt;=15,"L","A"))),IF(OR(G95="SE",G95="CE"),IF(J95&gt;=4,IF(I95&gt;=6,"H","A"),IF(J95&gt;=2,IF(I95&gt;=20,"H",IF(I95&lt;=5,"L","A")),IF(I95&lt;=19,"L","A"))),IF(OR(G95="ALI",G95="AIE"),IF(J95&gt;=6,IF(I95&gt;=20,"H","A"),IF(J95&gt;=2,IF(I95&gt;=51,"H",IF(I95&lt;=19,"L","A")),IF(I95&lt;=50,"L","A")))))))</f>
+        <f t="shared" si="67"/>
         <v>A</v>
       </c>
       <c r="M95" s="20" t="str">
-        <f t="shared" ref="M95:M96" si="72">IF(L95="L","Baixa",IF(L95="A","Média",IF(L95="","","Alta")))</f>
+        <f t="shared" si="68"/>
         <v>Média</v>
       </c>
       <c r="N95" s="21">
-        <f t="shared" ref="N95:N96" si="73">IF(ISBLANK(G95),"",IF(G95="ALI",IF(L95="L",7,IF(L95="A",10,15)),IF(G95="AIE",IF(L95="L",5,IF(L95="A",7,10)),IF(G95="SE",IF(L95="L",4,IF(L95="A",5,7)),IF(OR(G95="EE",G95="CE"),IF(L95="L",3,IF(L95="A",4,6)))))))</f>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>4</v>
       </c>
       <c r="O95" s="22">
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" s="109"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="109"/>
-      <c r="F96" s="110"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A96" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="110"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="111"/>
       <c r="G96" s="18" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H96" s="25" t="s">
         <v>38</v>
@@ -11198,37 +11264,37 @@
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
       <c r="K96" s="18" t="str">
-        <f t="shared" si="70"/>
-        <v>SEA</v>
+        <f t="shared" si="66"/>
+        <v>EEA</v>
       </c>
       <c r="L96" s="19" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>A</v>
       </c>
       <c r="M96" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>Média</v>
       </c>
       <c r="N96" s="21">
-        <f t="shared" si="73"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>4</v>
       </c>
       <c r="O96" s="22">
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A97" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="109"/>
-      <c r="C97" s="109"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="109"/>
-      <c r="F97" s="110"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A97" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="110"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="111"/>
       <c r="G97" s="18" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H97" s="25" t="s">
         <v>38</v>
@@ -11237,7 +11303,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="18" t="str">
         <f t="shared" si="66"/>
-        <v>SEA</v>
+        <v>EEA</v>
       </c>
       <c r="L97" s="19" t="str">
         <f t="shared" si="67"/>
@@ -11249,56 +11315,62 @@
       </c>
       <c r="N97" s="21">
         <f t="shared" si="69"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O97" s="22">
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A98" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="109"/>
-      <c r="C98" s="109"/>
-      <c r="D98" s="109"/>
-      <c r="E98" s="109"/>
-      <c r="F98" s="110"/>
+      <c r="A98" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="110"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="111"/>
       <c r="G98" s="18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H98" s="25" t="s">
         <v>38</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="19"/>
+      <c r="K98" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v>CEA</v>
+      </c>
+      <c r="L98" s="19" t="str">
+        <f t="shared" si="67"/>
+        <v>A</v>
+      </c>
       <c r="M98" s="20" t="str">
-        <f>IF(L98="L","Baixa",IF(L98="A","Média",IF(L98="","","Alta")))</f>
-        <v/>
+        <f t="shared" si="68"/>
+        <v>Média</v>
       </c>
       <c r="N98" s="21">
-        <f t="shared" ref="N98" si="74">IF(ISBLANK(G98),"",IF(G98="ALI",IF(L98="L",7,IF(L98="A",10,15)),IF(G98="AIE",IF(L98="L",5,IF(L98="A",7,10)),IF(G98="SE",IF(L98="L",4,IF(L98="A",5,7)),IF(OR(G98="EE",G98="CE"),IF(L98="L",3,IF(L98="A",4,6)))))))</f>
-        <v>7</v>
+        <f t="shared" si="69"/>
+        <v>4</v>
       </c>
       <c r="O98" s="22">
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1">
-      <c r="A99" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="B99" s="109"/>
-      <c r="C99" s="109"/>
-      <c r="D99" s="109"/>
-      <c r="E99" s="109"/>
-      <c r="F99" s="110"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A99" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" s="83"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="84"/>
       <c r="G99" s="18" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H99" s="25" t="s">
         <v>38</v>
@@ -11306,28 +11378,460 @@
       <c r="I99" s="18"/>
       <c r="J99" s="18"/>
       <c r="K99" s="18" t="str">
-        <f t="shared" ref="K99" si="75">CONCATENATE(G99,L99)</f>
-        <v>AIEL</v>
+        <f t="shared" ref="K99" si="70">CONCATENATE(G99,L99)</f>
+        <v>CEA</v>
       </c>
       <c r="L99" s="19" t="str">
-        <f t="shared" ref="L99" si="76">IF(OR(ISBLANK(I99),ISBLANK(J99)),IF(OR(G99="ALI",G99="AIE"),"L",IF(ISBLANK(G99),"","A")),IF(G99="EE",IF(J99&gt;=3,IF(I99&gt;=5,"H","A"),IF(J99&gt;=2,IF(I99&gt;=16,"H",IF(I99&lt;=4,"L","A")),IF(I99&lt;=15,"L","A"))),IF(OR(G99="SE",G99="CE"),IF(J99&gt;=4,IF(I99&gt;=6,"H","A"),IF(J99&gt;=2,IF(I99&gt;=20,"H",IF(I99&lt;=5,"L","A")),IF(I99&lt;=19,"L","A"))),IF(OR(G99="ALI",G99="AIE"),IF(J99&gt;=6,IF(I99&gt;=20,"H","A"),IF(J99&gt;=2,IF(I99&gt;=51,"H",IF(I99&lt;=19,"L","A")),IF(I99&lt;=50,"L","A")))))))</f>
-        <v>L</v>
+        <f t="shared" ref="L99" si="71">IF(OR(ISBLANK(I99),ISBLANK(J99)),IF(OR(G99="ALI",G99="AIE"),"L",IF(ISBLANK(G99),"","A")),IF(G99="EE",IF(J99&gt;=3,IF(I99&gt;=5,"H","A"),IF(J99&gt;=2,IF(I99&gt;=16,"H",IF(I99&lt;=4,"L","A")),IF(I99&lt;=15,"L","A"))),IF(OR(G99="SE",G99="CE"),IF(J99&gt;=4,IF(I99&gt;=6,"H","A"),IF(J99&gt;=2,IF(I99&gt;=20,"H",IF(I99&lt;=5,"L","A")),IF(I99&lt;=19,"L","A"))),IF(OR(G99="ALI",G99="AIE"),IF(J99&gt;=6,IF(I99&gt;=20,"H","A"),IF(J99&gt;=2,IF(I99&gt;=51,"H",IF(I99&lt;=19,"L","A")),IF(I99&lt;=50,"L","A")))))))</f>
+        <v>A</v>
       </c>
       <c r="M99" s="20" t="str">
-        <f>IF(L99="L","Baixa",IF(L99="A","Média",IF(L99="","","Alta")))</f>
-        <v>Baixa</v>
+        <f t="shared" ref="M99" si="72">IF(L99="L","Baixa",IF(L99="A","Média",IF(L99="","","Alta")))</f>
+        <v>Média</v>
       </c>
       <c r="N99" s="21">
-        <f t="shared" ref="N99" si="77">IF(ISBLANK(G99),"",IF(G99="ALI",IF(L99="L",7,IF(L99="A",10,15)),IF(G99="AIE",IF(L99="L",5,IF(L99="A",7,10)),IF(G99="SE",IF(L99="L",4,IF(L99="A",5,7)),IF(OR(G99="EE",G99="CE"),IF(L99="L",3,IF(L99="A",4,6)))))))</f>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>4</v>
       </c>
       <c r="O99" s="22">
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A100" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="110"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="111"/>
+      <c r="G100" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v>SEA</v>
+      </c>
+      <c r="L100" s="19" t="str">
+        <f t="shared" si="67"/>
+        <v>A</v>
+      </c>
+      <c r="M100" s="20" t="str">
+        <f t="shared" si="68"/>
+        <v>Média</v>
+      </c>
+      <c r="N100" s="21">
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
+      <c r="O100" s="22">
+        <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15" customHeight="1">
+      <c r="A101" s="109"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="L101" s="19" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="M101" s="20" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="N101" s="21" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="O101" s="22" t="str">
+        <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15" customHeight="1">
+      <c r="A102" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="114"/>
+      <c r="G102" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18" t="str">
+        <f t="shared" ref="K102:K106" si="73">CONCATENATE(G102,L102)</f>
+        <v>ALIL</v>
+      </c>
+      <c r="L102" s="19" t="str">
+        <f t="shared" ref="L102:L106" si="74">IF(OR(ISBLANK(I102),ISBLANK(J102)),IF(OR(G102="ALI",G102="AIE"),"L",IF(ISBLANK(G102),"","A")),IF(G102="EE",IF(J102&gt;=3,IF(I102&gt;=5,"H","A"),IF(J102&gt;=2,IF(I102&gt;=16,"H",IF(I102&lt;=4,"L","A")),IF(I102&lt;=15,"L","A"))),IF(OR(G102="SE",G102="CE"),IF(J102&gt;=4,IF(I102&gt;=6,"H","A"),IF(J102&gt;=2,IF(I102&gt;=20,"H",IF(I102&lt;=5,"L","A")),IF(I102&lt;=19,"L","A"))),IF(OR(G102="ALI",G102="AIE"),IF(J102&gt;=6,IF(I102&gt;=20,"H","A"),IF(J102&gt;=2,IF(I102&gt;=51,"H",IF(I102&lt;=19,"L","A")),IF(I102&lt;=50,"L","A")))))))</f>
+        <v>L</v>
+      </c>
+      <c r="M102" s="20" t="str">
+        <f t="shared" ref="M102:M106" si="75">IF(L102="L","Baixa",IF(L102="A","Média",IF(L102="","","Alta")))</f>
+        <v>Baixa</v>
+      </c>
+      <c r="N102" s="21">
+        <f t="shared" ref="N102:N106" si="76">IF(ISBLANK(G102),"",IF(G102="ALI",IF(L102="L",7,IF(L102="A",10,15)),IF(G102="AIE",IF(L102="L",5,IF(L102="A",7,10)),IF(G102="SE",IF(L102="L",4,IF(L102="A",5,7)),IF(OR(G102="EE",G102="CE"),IF(L102="L",3,IF(L102="A",4,6)))))))</f>
+        <v>7</v>
+      </c>
+      <c r="O102" s="22">
+        <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A103" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="110"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="110"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18" t="str">
+        <f t="shared" ref="K103:K105" si="77">CONCATENATE(G103,L103)</f>
+        <v>SEA</v>
+      </c>
+      <c r="L103" s="19" t="str">
+        <f t="shared" ref="L103:L105" si="78">IF(OR(ISBLANK(I103),ISBLANK(J103)),IF(OR(G103="ALI",G103="AIE"),"L",IF(ISBLANK(G103),"","A")),IF(G103="EE",IF(J103&gt;=3,IF(I103&gt;=5,"H","A"),IF(J103&gt;=2,IF(I103&gt;=16,"H",IF(I103&lt;=4,"L","A")),IF(I103&lt;=15,"L","A"))),IF(OR(G103="SE",G103="CE"),IF(J103&gt;=4,IF(I103&gt;=6,"H","A"),IF(J103&gt;=2,IF(I103&gt;=20,"H",IF(I103&lt;=5,"L","A")),IF(I103&lt;=19,"L","A"))),IF(OR(G103="ALI",G103="AIE"),IF(J103&gt;=6,IF(I103&gt;=20,"H","A"),IF(J103&gt;=2,IF(I103&gt;=51,"H",IF(I103&lt;=19,"L","A")),IF(I103&lt;=50,"L","A")))))))</f>
+        <v>A</v>
+      </c>
+      <c r="M103" s="20" t="str">
+        <f t="shared" ref="M103:M105" si="79">IF(L103="L","Baixa",IF(L103="A","Média",IF(L103="","","Alta")))</f>
+        <v>Média</v>
+      </c>
+      <c r="N103" s="21">
+        <f t="shared" ref="N103:N105" si="80">IF(ISBLANK(G103),"",IF(G103="ALI",IF(L103="L",7,IF(L103="A",10,15)),IF(G103="AIE",IF(L103="L",5,IF(L103="A",7,10)),IF(G103="SE",IF(L103="L",4,IF(L103="A",5,7)),IF(OR(G103="EE",G103="CE"),IF(L103="L",3,IF(L103="A",4,6)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="O103" s="22">
+        <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A104" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="110"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="110"/>
+      <c r="F104" s="111"/>
+      <c r="G104" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18" t="str">
+        <f t="shared" si="77"/>
+        <v>SEA</v>
+      </c>
+      <c r="L104" s="19" t="str">
+        <f t="shared" si="78"/>
+        <v>A</v>
+      </c>
+      <c r="M104" s="20" t="str">
+        <f t="shared" si="79"/>
+        <v>Média</v>
+      </c>
+      <c r="N104" s="21">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="O104" s="22">
+        <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A105" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18" t="str">
+        <f t="shared" si="77"/>
+        <v>SEA</v>
+      </c>
+      <c r="L105" s="19" t="str">
+        <f t="shared" si="78"/>
+        <v>A</v>
+      </c>
+      <c r="M105" s="20" t="str">
+        <f t="shared" si="79"/>
+        <v>Média</v>
+      </c>
+      <c r="N105" s="21">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="O105" s="22">
+        <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A106" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" s="110"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="111"/>
+      <c r="G106" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18" t="str">
+        <f t="shared" si="73"/>
+        <v>SEA</v>
+      </c>
+      <c r="L106" s="19" t="str">
+        <f t="shared" si="74"/>
+        <v>A</v>
+      </c>
+      <c r="M106" s="20" t="str">
+        <f t="shared" si="75"/>
+        <v>Média</v>
+      </c>
+      <c r="N106" s="21">
+        <f t="shared" si="76"/>
+        <v>5</v>
+      </c>
+      <c r="O106" s="22">
+        <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15" customHeight="1">
+      <c r="A107" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="110"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18" t="str">
+        <f t="shared" ref="K107" si="81">CONCATENATE(G107,L107)</f>
+        <v>AIEL</v>
+      </c>
+      <c r="L107" s="19" t="str">
+        <f t="shared" ref="L107" si="82">IF(OR(ISBLANK(I107),ISBLANK(J107)),IF(OR(G107="ALI",G107="AIE"),"L",IF(ISBLANK(G107),"","A")),IF(G107="EE",IF(J107&gt;=3,IF(I107&gt;=5,"H","A"),IF(J107&gt;=2,IF(I107&gt;=16,"H",IF(I107&lt;=4,"L","A")),IF(I107&lt;=15,"L","A"))),IF(OR(G107="SE",G107="CE"),IF(J107&gt;=4,IF(I107&gt;=6,"H","A"),IF(J107&gt;=2,IF(I107&gt;=20,"H",IF(I107&lt;=5,"L","A")),IF(I107&lt;=19,"L","A"))),IF(OR(G107="ALI",G107="AIE"),IF(J107&gt;=6,IF(I107&gt;=20,"H","A"),IF(J107&gt;=2,IF(I107&gt;=51,"H",IF(I107&lt;=19,"L","A")),IF(I107&lt;=50,"L","A")))))))</f>
+        <v>L</v>
+      </c>
+      <c r="M107" s="20" t="str">
+        <f>IF(L107="L","Baixa",IF(L107="A","Média",IF(L107="","","Alta")))</f>
+        <v>Baixa</v>
+      </c>
+      <c r="N107" s="21">
+        <f t="shared" ref="N107" si="83">IF(ISBLANK(G107),"",IF(G107="ALI",IF(L107="L",7,IF(L107="A",10,15)),IF(G107="AIE",IF(L107="L",5,IF(L107="A",7,10)),IF(G107="SE",IF(L107="L",4,IF(L107="A",5,7)),IF(OR(G107="EE",G107="CE"),IF(L107="L",3,IF(L107="A",4,6)))))))</f>
+        <v>5</v>
+      </c>
+      <c r="O107" s="22">
+        <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="158">
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A15:F15"/>
@@ -11348,827 +11852,788 @@
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H13 H17 H66:H67 H24:H39 H41:H47 H57 H59:H64 H49:H55">
-    <cfRule type="cellIs" dxfId="161" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="268" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H13 H17 H66:H67 H24:H39 H41:H47 H57 H59:H64 H49:H55">
-    <cfRule type="cellIs" dxfId="160" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="269" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H13 H17 H66:H67 H24:H39 H41:H47 H57 H59:H64 H49:H55">
-    <cfRule type="cellIs" dxfId="159" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="270" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="158" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="259" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="157" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="260" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="156" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="261" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="155" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="202" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="154" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="214" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="153" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="215" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="152" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="216" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="151" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="211" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="150" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="212" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="149" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="213" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="148" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="208" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="147" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="209" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="146" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="210" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="145" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="205" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="206" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="143" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="207" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="142" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="203" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="141" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="204" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="139" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="161" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="162" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="178" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="179" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="135" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="180" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="134" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="175" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="133" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="176" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="132" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="177" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="169" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="170" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="129" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="171" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="128" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="172" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="127" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="173" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="126" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="174" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="166" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="167" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="168" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="157" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="158" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="159" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="118" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="117" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="148" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="115" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="149" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="114" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="150" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="113" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="136" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="112" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="137" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="111" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="138" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="142" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="109" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="143" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="108" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="144" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="133" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="134" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="135" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="130" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="131" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="132" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="124" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="125" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="126" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83 H85">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="121" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83 H85">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="122" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83 H85">
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="123" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="119" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="115" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="116" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="117" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="112" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="113" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="109" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="110" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="111" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="103" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="104" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="105" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="98" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="99" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="95" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+  <conditionalFormatting sqref="H101">
+    <cfRule type="cellIs" dxfId="74" priority="91" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+  <conditionalFormatting sqref="H101">
+    <cfRule type="cellIs" dxfId="73" priority="92" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+  <conditionalFormatting sqref="H101">
+    <cfRule type="cellIs" dxfId="72" priority="93" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="87" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="82" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="84" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+  <conditionalFormatting sqref="H92:H93">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+  <conditionalFormatting sqref="H92:H93">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+  <conditionalFormatting sqref="H92:H93">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104:H105">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104:H105">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104:H105">
+    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12204,88 +12669,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="140"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="141"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="140"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="134" t="str">
+      <c r="A4" s="142" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="144" t="str">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="145" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="145"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="146"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="134" t="str">
+      <c r="A5" s="142" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="144" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="145" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="145"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -12296,58 +12761,58 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="147" t="str">
+      <c r="F6" s="148" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="147" t="str">
+      <c r="G6" s="96"/>
+      <c r="H6" s="148" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 191.500,00</v>
-      </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="146" t="str">
+        <v xml:space="preserve"> Custo= R$206.500,00</v>
+      </c>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="147" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 383</v>
-      </c>
-      <c r="L6" s="145"/>
+        <v>PF  = 413</v>
+      </c>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="133" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="142" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142" t="s">
+      <c r="H7" s="143"/>
+      <c r="I7" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="141"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="140"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -12394,7 +12859,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="33">
         <f>COUNTIF(CF,"EEA")</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="34" t="s">
@@ -12405,7 +12870,7 @@
       </c>
       <c r="G11" s="35">
         <f>C11*4</f>
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="36"/>
@@ -12458,7 +12923,7 @@
       </c>
       <c r="C14" s="35">
         <f>SUM(C10:C12)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -12467,12 +12932,12 @@
       </c>
       <c r="G14" s="35">
         <f>SUM(G10:G12)</f>
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="40">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.37234042553191488</v>
+        <v>0.36803874092009686</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -12537,7 +13002,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="33">
         <f>COUNTIF(CF,"SEA")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="34" t="s">
@@ -12548,7 +13013,7 @@
       </c>
       <c r="G18" s="35">
         <f>C18*5</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -12601,7 +13066,7 @@
       </c>
       <c r="C21" s="35">
         <f>SUM(C17:C19)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -12610,12 +13075,12 @@
       </c>
       <c r="G21" s="35">
         <f>SUM(G17:G19)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="43">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.21276595744680851</v>
+        <v>0.21791767554479419</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -12680,7 +13145,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="33">
         <f>COUNTIF(CF,"CEA")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="34" t="s">
@@ -12691,7 +13156,7 @@
       </c>
       <c r="G25" s="35">
         <f>C25*4</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -12744,7 +13209,7 @@
       </c>
       <c r="C28" s="35">
         <f>SUM(C24:C26)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -12753,12 +13218,12 @@
       </c>
       <c r="G28" s="35">
         <f>SUM(G24:G26)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="44">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.1702127659574468</v>
+        <v>0.17433414043583534</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -12799,7 +13264,7 @@
       </c>
       <c r="C31" s="33">
         <f>COUNTIF(CF,"ALIL")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
@@ -12810,7 +13275,7 @@
       </c>
       <c r="G31" s="35">
         <f>C31*7</f>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -12887,7 +13352,7 @@
       </c>
       <c r="C35" s="35">
         <f>SUM(C31:C33)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -12896,12 +13361,12 @@
       </c>
       <c r="G35" s="35">
         <f>SUM(G31:G33)</f>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="45">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.2047872340425532</v>
+        <v>0.20338983050847459</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -13044,7 +13509,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="46">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v>3.9893617021276598E-2</v>
+        <v>3.6319612590799029E-2</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -13089,7 +13554,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="35">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -13108,7 +13573,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="35">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -13127,7 +13592,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="35">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -13243,14 +13708,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="135" t="s">
+      <c r="B55" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="48">
-        <f>SUMIF(Funções!$H$8:$H$99,"I",Funções!$N$8:$N$99)</f>
-        <v>383</v>
+        <f>SUMIF(Funções!$H$8:$H$107,"I",Funções!$N$8:$N$107)</f>
+        <v>413</v>
       </c>
       <c r="F55" s="48">
         <f>Contagem!U11</f>
@@ -13258,7 +13723,7 @@
       </c>
       <c r="G55" s="48">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
@@ -13270,13 +13735,13 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="135" t="s">
+      <c r="B56" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="96"/>
       <c r="E56" s="48">
-        <f>SUMIF(Funções!$H$8:$H$99,"A",Funções!$N$8:$N$99)</f>
+        <f>SUMIF(Funções!$H$8:$H$107,"A",Funções!$N$8:$N$107)</f>
         <v>0</v>
       </c>
       <c r="F56" s="48">
@@ -13292,19 +13757,19 @@
       <c r="J56" s="49"/>
       <c r="K56" s="51">
         <f>Contagem!W5</f>
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="135" t="s">
+      <c r="B57" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="83"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="48">
-        <f>SUMIF(Funções!$H$8:$H$99,"E",Funções!$N$8:$N$99)</f>
+        <f>SUMIF(Funções!$H$8:$H$107,"E",Funções!$N$8:$N$107)</f>
         <v>0</v>
       </c>
       <c r="F57" s="48">
@@ -13323,13 +13788,13 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="83"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="48">
-        <f>SUMIF(Funções!$H$8:$H$99,"T",Funções!$N$8:$N$99)</f>
+        <f>SUMIF(Funções!$H$8:$H$107,"T",Funções!$N$8:$N$107)</f>
         <v>0</v>
       </c>
       <c r="F58" s="48">
@@ -13362,6 +13827,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B57:D57"/>
@@ -13378,8 +13845,6 @@
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
+++ b/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
@@ -1552,24 +1552,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1579,24 +1564,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1607,19 +1617,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1652,18 +1662,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1671,7 +1681,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1685,18 +1694,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8118,36 +8118,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="111"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="104"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -8156,34 +8156,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="114"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="107"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -8193,34 +8193,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="117"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="110"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -8230,47 +8230,47 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="124" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="103" t="s">
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="102"/>
+      <c r="S4" s="113"/>
       <c r="T4" s="2">
         <v>500</v>
       </c>
-      <c r="U4" s="103" t="s">
+      <c r="U4" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="102"/>
-      <c r="W4" s="123">
+      <c r="V4" s="113"/>
+      <c r="W4" s="116">
         <f>W5*T4</f>
-        <v>253000</v>
-      </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="102"/>
+        <v>257500</v>
+      </c>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="113"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -8280,41 +8280,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="103" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="102"/>
-      <c r="W5" s="105">
+      <c r="V5" s="113"/>
+      <c r="W5" s="118">
         <f>SUM(Y11:Y14)</f>
-        <v>506</v>
-      </c>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="102"/>
+        <v>515</v>
+      </c>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="113"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -8324,36 +8324,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="102"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="112"/>
+      <c r="AB6" s="113"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -8363,40 +8363,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="108" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="101" t="s">
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="104"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="102"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="113"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -8406,38 +8406,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="101" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="104"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="102"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="113"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -8483,46 +8483,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="121" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="102"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="119" t="s">
+      <c r="O10" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="103" t="s">
+      <c r="P10" s="103"/>
+      <c r="Q10" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="103" t="s">
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="103" t="s">
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="102"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="113"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -8532,46 +8532,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="112"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="121" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="102"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="101" t="s">
+      <c r="O11" s="105"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="102"/>
-      <c r="S11" s="105">
+      <c r="R11" s="113"/>
+      <c r="S11" s="118">
         <f>Sumário!E55</f>
-        <v>506</v>
-      </c>
-      <c r="T11" s="102"/>
-      <c r="U11" s="106">
+        <v>515</v>
+      </c>
+      <c r="T11" s="113"/>
+      <c r="U11" s="122">
         <v>1</v>
       </c>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="105">
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="118">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>506</v>
-      </c>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="102"/>
+        <v>515</v>
+      </c>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="113"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -8581,46 +8581,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="121" t="s">
+      <c r="A12" s="105"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="102"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="101" t="s">
+      <c r="O12" s="105"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="104"/>
-      <c r="S12" s="105">
+      <c r="R12" s="112"/>
+      <c r="S12" s="118">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="102"/>
-      <c r="U12" s="106">
+      <c r="T12" s="113"/>
+      <c r="U12" s="122">
         <v>1</v>
       </c>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="105">
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="102"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="113"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -8630,46 +8630,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="112"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="121" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="102"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="101" t="s">
+      <c r="O13" s="105"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="104"/>
-      <c r="S13" s="105">
+      <c r="R13" s="112"/>
+      <c r="S13" s="118">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="102"/>
-      <c r="U13" s="106">
+      <c r="T13" s="113"/>
+      <c r="U13" s="122">
         <v>1</v>
       </c>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="105">
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="102"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="113"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -8679,8 +8679,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="115"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -8693,26 +8693,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="105">
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="118">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="102"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="105">
+      <c r="T14" s="113"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="102"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="113"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -8775,14 +8775,14 @@
       <c r="K16" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -8801,34 +8801,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="111"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="104"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -8838,34 +8838,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="112"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="114"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="107"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -8875,34 +8875,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="114"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="107"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -8912,34 +8912,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="112"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="114"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="107"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -8949,34 +8949,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="112"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="114"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="107"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -8986,34 +8986,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="114"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="107"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -9023,34 +9023,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="114"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="107"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -9060,34 +9060,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="114"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="107"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -9097,34 +9097,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="112"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="114"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="107"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -9134,34 +9134,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="112"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="114"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="107"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -9171,34 +9171,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AB27" s="114"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="107"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -9208,34 +9208,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="113"/>
-      <c r="W28" s="113"/>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="113"/>
-      <c r="AB28" s="114"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="107"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -9245,34 +9245,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="112"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="114"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="107"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -9282,34 +9282,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="114"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="107"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -9319,34 +9319,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="114"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="107"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -9356,34 +9356,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="114"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="106"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="106"/>
+      <c r="AA32" s="106"/>
+      <c r="AB32" s="107"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -9393,34 +9393,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="114"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="106"/>
+      <c r="Y33" s="106"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="106"/>
+      <c r="AB33" s="107"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -9430,34 +9430,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="114"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="107"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -9467,34 +9467,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="112"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="113"/>
-      <c r="AB35" s="114"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="107"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -9504,34 +9504,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="114"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="107"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -9541,34 +9541,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="112"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="113"/>
-      <c r="AB37" s="114"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="106"/>
+      <c r="W37" s="106"/>
+      <c r="X37" s="106"/>
+      <c r="Y37" s="106"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="107"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -9578,34 +9578,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="116"/>
-      <c r="AB38" s="117"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="109"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="110"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -9665,14 +9665,14 @@
       <c r="K40" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -9691,34 +9691,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="109"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="110"/>
-      <c r="X41" s="110"/>
-      <c r="Y41" s="110"/>
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="110"/>
-      <c r="AB41" s="111"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="103"/>
+      <c r="V41" s="103"/>
+      <c r="W41" s="103"/>
+      <c r="X41" s="103"/>
+      <c r="Y41" s="103"/>
+      <c r="Z41" s="103"/>
+      <c r="AA41" s="103"/>
+      <c r="AB41" s="104"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -9728,34 +9728,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="112"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="114"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="106"/>
+      <c r="AB42" s="107"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -9765,34 +9765,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="112"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="114"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
+      <c r="AB43" s="107"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -9802,34 +9802,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="112"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="114"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="107"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -9839,34 +9839,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="112"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="113"/>
-      <c r="AA45" s="113"/>
-      <c r="AB45" s="114"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
+      <c r="S45" s="106"/>
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="106"/>
+      <c r="Y45" s="106"/>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="106"/>
+      <c r="AB45" s="107"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -9876,34 +9876,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="112"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="113"/>
-      <c r="T46" s="113"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="113"/>
-      <c r="W46" s="113"/>
-      <c r="X46" s="113"/>
-      <c r="Y46" s="113"/>
-      <c r="Z46" s="113"/>
-      <c r="AA46" s="113"/>
-      <c r="AB46" s="114"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="106"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="106"/>
+      <c r="T46" s="106"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="106"/>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="107"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -9913,34 +9913,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="113"/>
-      <c r="T47" s="113"/>
-      <c r="U47" s="113"/>
-      <c r="V47" s="113"/>
-      <c r="W47" s="113"/>
-      <c r="X47" s="113"/>
-      <c r="Y47" s="113"/>
-      <c r="Z47" s="113"/>
-      <c r="AA47" s="113"/>
-      <c r="AB47" s="114"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="106"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="106"/>
+      <c r="Y47" s="106"/>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+      <c r="AB47" s="107"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -9950,34 +9950,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="112"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="113"/>
-      <c r="T48" s="113"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="113"/>
-      <c r="W48" s="113"/>
-      <c r="X48" s="113"/>
-      <c r="Y48" s="113"/>
-      <c r="Z48" s="113"/>
-      <c r="AA48" s="113"/>
-      <c r="AB48" s="114"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="106"/>
+      <c r="T48" s="106"/>
+      <c r="U48" s="106"/>
+      <c r="V48" s="106"/>
+      <c r="W48" s="106"/>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="106"/>
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="106"/>
+      <c r="AB48" s="107"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -9987,34 +9987,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="112"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="113"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="113"/>
-      <c r="S49" s="113"/>
-      <c r="T49" s="113"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="113"/>
-      <c r="W49" s="113"/>
-      <c r="X49" s="113"/>
-      <c r="Y49" s="113"/>
-      <c r="Z49" s="113"/>
-      <c r="AA49" s="113"/>
-      <c r="AB49" s="114"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="106"/>
+      <c r="S49" s="106"/>
+      <c r="T49" s="106"/>
+      <c r="U49" s="106"/>
+      <c r="V49" s="106"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="106"/>
+      <c r="Y49" s="106"/>
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="106"/>
+      <c r="AB49" s="107"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -10024,34 +10024,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="112"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
-      <c r="O50" s="113"/>
-      <c r="P50" s="113"/>
-      <c r="Q50" s="113"/>
-      <c r="R50" s="113"/>
-      <c r="S50" s="113"/>
-      <c r="T50" s="113"/>
-      <c r="U50" s="113"/>
-      <c r="V50" s="113"/>
-      <c r="W50" s="113"/>
-      <c r="X50" s="113"/>
-      <c r="Y50" s="113"/>
-      <c r="Z50" s="113"/>
-      <c r="AA50" s="113"/>
-      <c r="AB50" s="114"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="106"/>
+      <c r="R50" s="106"/>
+      <c r="S50" s="106"/>
+      <c r="T50" s="106"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="106"/>
+      <c r="W50" s="106"/>
+      <c r="X50" s="106"/>
+      <c r="Y50" s="106"/>
+      <c r="Z50" s="106"/>
+      <c r="AA50" s="106"/>
+      <c r="AB50" s="107"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -10061,34 +10061,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="112"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="113"/>
-      <c r="Q51" s="113"/>
-      <c r="R51" s="113"/>
-      <c r="S51" s="113"/>
-      <c r="T51" s="113"/>
-      <c r="U51" s="113"/>
-      <c r="V51" s="113"/>
-      <c r="W51" s="113"/>
-      <c r="X51" s="113"/>
-      <c r="Y51" s="113"/>
-      <c r="Z51" s="113"/>
-      <c r="AA51" s="113"/>
-      <c r="AB51" s="114"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="106"/>
+      <c r="O51" s="106"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="106"/>
+      <c r="T51" s="106"/>
+      <c r="U51" s="106"/>
+      <c r="V51" s="106"/>
+      <c r="W51" s="106"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="106"/>
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="106"/>
+      <c r="AB51" s="107"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -10098,34 +10098,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="112"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="113"/>
-      <c r="N52" s="113"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="113"/>
-      <c r="R52" s="113"/>
-      <c r="S52" s="113"/>
-      <c r="T52" s="113"/>
-      <c r="U52" s="113"/>
-      <c r="V52" s="113"/>
-      <c r="W52" s="113"/>
-      <c r="X52" s="113"/>
-      <c r="Y52" s="113"/>
-      <c r="Z52" s="113"/>
-      <c r="AA52" s="113"/>
-      <c r="AB52" s="114"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="106"/>
+      <c r="U52" s="106"/>
+      <c r="V52" s="106"/>
+      <c r="W52" s="106"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="106"/>
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="106"/>
+      <c r="AB52" s="107"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -10135,34 +10135,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="112"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="113"/>
-      <c r="S53" s="113"/>
-      <c r="T53" s="113"/>
-      <c r="U53" s="113"/>
-      <c r="V53" s="113"/>
-      <c r="W53" s="113"/>
-      <c r="X53" s="113"/>
-      <c r="Y53" s="113"/>
-      <c r="Z53" s="113"/>
-      <c r="AA53" s="113"/>
-      <c r="AB53" s="114"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="106"/>
+      <c r="R53" s="106"/>
+      <c r="S53" s="106"/>
+      <c r="T53" s="106"/>
+      <c r="U53" s="106"/>
+      <c r="V53" s="106"/>
+      <c r="W53" s="106"/>
+      <c r="X53" s="106"/>
+      <c r="Y53" s="106"/>
+      <c r="Z53" s="106"/>
+      <c r="AA53" s="106"/>
+      <c r="AB53" s="107"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -10172,34 +10172,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="112"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="113"/>
-      <c r="R54" s="113"/>
-      <c r="S54" s="113"/>
-      <c r="T54" s="113"/>
-      <c r="U54" s="113"/>
-      <c r="V54" s="113"/>
-      <c r="W54" s="113"/>
-      <c r="X54" s="113"/>
-      <c r="Y54" s="113"/>
-      <c r="Z54" s="113"/>
-      <c r="AA54" s="113"/>
-      <c r="AB54" s="114"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="106"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="106"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
+      <c r="AB54" s="107"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -10209,34 +10209,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="112"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="113"/>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="113"/>
-      <c r="Q55" s="113"/>
-      <c r="R55" s="113"/>
-      <c r="S55" s="113"/>
-      <c r="T55" s="113"/>
-      <c r="U55" s="113"/>
-      <c r="V55" s="113"/>
-      <c r="W55" s="113"/>
-      <c r="X55" s="113"/>
-      <c r="Y55" s="113"/>
-      <c r="Z55" s="113"/>
-      <c r="AA55" s="113"/>
-      <c r="AB55" s="114"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106"/>
+      <c r="S55" s="106"/>
+      <c r="T55" s="106"/>
+      <c r="U55" s="106"/>
+      <c r="V55" s="106"/>
+      <c r="W55" s="106"/>
+      <c r="X55" s="106"/>
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106"/>
+      <c r="AA55" s="106"/>
+      <c r="AB55" s="107"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -10246,34 +10246,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="112"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="113"/>
-      <c r="L56" s="113"/>
-      <c r="M56" s="113"/>
-      <c r="N56" s="113"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="113"/>
-      <c r="Q56" s="113"/>
-      <c r="R56" s="113"/>
-      <c r="S56" s="113"/>
-      <c r="T56" s="113"/>
-      <c r="U56" s="113"/>
-      <c r="V56" s="113"/>
-      <c r="W56" s="113"/>
-      <c r="X56" s="113"/>
-      <c r="Y56" s="113"/>
-      <c r="Z56" s="113"/>
-      <c r="AA56" s="113"/>
-      <c r="AB56" s="114"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="106"/>
+      <c r="O56" s="106"/>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="106"/>
+      <c r="S56" s="106"/>
+      <c r="T56" s="106"/>
+      <c r="U56" s="106"/>
+      <c r="V56" s="106"/>
+      <c r="W56" s="106"/>
+      <c r="X56" s="106"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="106"/>
+      <c r="AB56" s="107"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -10283,34 +10283,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="112"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="113"/>
-      <c r="N57" s="113"/>
-      <c r="O57" s="113"/>
-      <c r="P57" s="113"/>
-      <c r="Q57" s="113"/>
-      <c r="R57" s="113"/>
-      <c r="S57" s="113"/>
-      <c r="T57" s="113"/>
-      <c r="U57" s="113"/>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
-      <c r="X57" s="113"/>
-      <c r="Y57" s="113"/>
-      <c r="Z57" s="113"/>
-      <c r="AA57" s="113"/>
-      <c r="AB57" s="114"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="106"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="106"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="106"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="106"/>
+      <c r="Z57" s="106"/>
+      <c r="AA57" s="106"/>
+      <c r="AB57" s="107"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -10320,34 +10320,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="112"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="113"/>
-      <c r="Q58" s="113"/>
-      <c r="R58" s="113"/>
-      <c r="S58" s="113"/>
-      <c r="T58" s="113"/>
-      <c r="U58" s="113"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
-      <c r="X58" s="113"/>
-      <c r="Y58" s="113"/>
-      <c r="Z58" s="113"/>
-      <c r="AA58" s="113"/>
-      <c r="AB58" s="114"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="106"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="106"/>
+      <c r="AB58" s="107"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -10357,34 +10357,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="112"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="113"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="113"/>
-      <c r="T59" s="113"/>
-      <c r="U59" s="113"/>
-      <c r="V59" s="113"/>
-      <c r="W59" s="113"/>
-      <c r="X59" s="113"/>
-      <c r="Y59" s="113"/>
-      <c r="Z59" s="113"/>
-      <c r="AA59" s="113"/>
-      <c r="AB59" s="114"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="106"/>
+      <c r="S59" s="106"/>
+      <c r="T59" s="106"/>
+      <c r="U59" s="106"/>
+      <c r="V59" s="106"/>
+      <c r="W59" s="106"/>
+      <c r="X59" s="106"/>
+      <c r="Y59" s="106"/>
+      <c r="Z59" s="106"/>
+      <c r="AA59" s="106"/>
+      <c r="AB59" s="107"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -10394,34 +10394,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="115"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="116"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="116"/>
-      <c r="W60" s="116"/>
-      <c r="X60" s="116"/>
-      <c r="Y60" s="116"/>
-      <c r="Z60" s="116"/>
-      <c r="AA60" s="116"/>
-      <c r="AB60" s="117"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="109"/>
+      <c r="O60" s="109"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="109"/>
+      <c r="Y60" s="109"/>
+      <c r="Z60" s="109"/>
+      <c r="AA60" s="109"/>
+      <c r="AB60" s="110"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -10469,16 +10469,29 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="A41:AB60"/>
     <mergeCell ref="K40:S40"/>
     <mergeCell ref="K16:S16"/>
@@ -10495,29 +10508,16 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="F7:T7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W5:AB5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -10533,8 +10533,8 @@
   <dimension ref="A1:T131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117:F117"/>
+      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -10557,23 +10557,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -10581,21 +10581,21 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -10603,21 +10603,21 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -10625,89 +10625,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="133" t="str">
+      <c r="A4" s="137" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="137" t="str">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="141" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="102"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="113"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="141" t="str">
+      <c r="A5" s="145" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="137" t="str">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="141" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="102"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="113"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="141" t="str">
+      <c r="A6" s="145" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Souza Car</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="137" t="str">
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="141" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="142" t="str">
+      <c r="G6" s="113"/>
+      <c r="H6" s="146" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 253.000,00</v>
-      </c>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="138" t="str">
+        <v xml:space="preserve"> Custo= R$ 257.500,00</v>
+      </c>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="142" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 506</v>
-      </c>
-      <c r="O6" s="139"/>
+        <v>PF  = 515</v>
+      </c>
+      <c r="O6" s="143"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -10715,14 +10715,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="102"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -10750,23 +10750,23 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="145" t="s">
+      <c r="P7" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="16" t="s">
         <v>35</v>
       </c>
@@ -10797,21 +10797,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="16" t="s">
         <v>37</v>
       </c>
@@ -10844,21 +10844,21 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
       <c r="G10" s="16" t="s">
         <v>37</v>
       </c>
@@ -10891,21 +10891,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="128"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -10936,21 +10936,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="16" t="s">
         <v>38</v>
       </c>
@@ -10981,21 +10981,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="18" t="s">
         <v>38</v>
       </c>
@@ -11026,21 +11026,21 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="18" t="s">
         <v>56</v>
       </c>
@@ -11080,14 +11080,14 @@
       <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20" s="77" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="128"/>
       <c r="G15" s="18" t="s">
         <v>51</v>
       </c>
@@ -11125,14 +11125,14 @@
       <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" s="77" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="18" t="s">
         <v>51</v>
       </c>
@@ -11170,14 +11170,14 @@
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="130"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="18" t="s">
         <v>51</v>
       </c>
@@ -11208,11 +11208,11 @@
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
     </row>
     <row r="18" spans="1:20" s="82" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="91"/>
@@ -11237,41 +11237,45 @@
       <c r="T18" s="84"/>
     </row>
     <row r="19" spans="1:20" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
       <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="18">
+        <v>4</v>
+      </c>
+      <c r="J19" s="18">
+        <v>7</v>
+      </c>
       <c r="K19" s="18" t="str">
         <f t="shared" ref="K19:K24" si="12">CONCATENATE(G19,L19)</f>
-        <v>ALIL</v>
+        <v>ALIA</v>
       </c>
       <c r="L19" s="19" t="str">
         <f t="shared" ref="L19:L24" si="13">IF(OR(ISBLANK(I19),ISBLANK(J19)),IF(OR(G19="ALI",G19="AIE"),"L",IF(ISBLANK(G19),"","A")),IF(G19="EE",IF(J19&gt;=3,IF(I19&gt;=5,"H","A"),IF(J19&gt;=2,IF(I19&gt;=16,"H",IF(I19&lt;=4,"L","A")),IF(I19&lt;=15,"L","A"))),IF(OR(G19="SE",G19="CE"),IF(J19&gt;=4,IF(I19&gt;=6,"H","A"),IF(J19&gt;=2,IF(I19&gt;=20,"H",IF(I19&lt;=5,"L","A")),IF(I19&lt;=19,"L","A"))),IF(OR(G19="ALI",G19="AIE"),IF(J19&gt;=6,IF(I19&gt;=20,"H","A"),IF(J19&gt;=2,IF(I19&gt;=51,"H",IF(I19&lt;=19,"L","A")),IF(I19&lt;=50,"L","A")))))))</f>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M19" s="20" t="str">
         <f t="shared" ref="M19:M24" si="14">IF(L19="L","Baixa",IF(L19="A","Média",IF(L19="","","Alta")))</f>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N19" s="21">
         <f t="shared" ref="N19:N24" si="15">IF(ISBLANK(G19),"",IF(G19="ALI",IF(L19="L",7,IF(L19="A",10,15)),IF(G19="AIE",IF(L19="L",5,IF(L19="A",7,10)),IF(G19="SE",IF(L19="L",4,IF(L19="A",5,7)),IF(OR(G19="EE",G19="CE"),IF(L19="L",3,IF(L19="A",4,6)))))))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O19" s="22">
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P19" s="83"/>
       <c r="Q19" s="84"/>
@@ -11297,7 +11301,9 @@
       <c r="I20" s="18">
         <v>4</v>
       </c>
-      <c r="J20" s="66"/>
+      <c r="J20" s="18">
+        <v>7</v>
+      </c>
       <c r="K20" s="18" t="str">
         <f t="shared" si="12"/>
         <v>EEA</v>
@@ -11342,7 +11348,9 @@
       <c r="I21" s="18">
         <v>4</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="18">
+        <v>7</v>
+      </c>
       <c r="K21" s="18" t="str">
         <f t="shared" si="12"/>
         <v>EEA</v>
@@ -11385,28 +11393,30 @@
         <v>36</v>
       </c>
       <c r="I22" s="18">
-        <v>4</v>
-      </c>
-      <c r="J22" s="66"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <v>2</v>
+      </c>
       <c r="K22" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>CEA</v>
+        <v>CEL</v>
       </c>
       <c r="L22" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M22" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N22" s="21">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22" s="22">
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P22" s="83"/>
       <c r="Q22" s="84"/>
@@ -11430,28 +11440,30 @@
         <v>36</v>
       </c>
       <c r="I23" s="18">
-        <v>4</v>
-      </c>
-      <c r="J23" s="66"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>2</v>
+      </c>
       <c r="K23" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L23" s="19" t="str">
         <f t="shared" si="13"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M23" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N23" s="21">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23" s="22">
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P23" s="83"/>
       <c r="Q23" s="84"/>
@@ -11475,9 +11487,11 @@
         <v>36</v>
       </c>
       <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18">
         <v>4</v>
       </c>
-      <c r="J24" s="66"/>
       <c r="K24" s="18" t="str">
         <f t="shared" si="12"/>
         <v>SEA</v>
@@ -11535,54 +11549,58 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="133"/>
+      <c r="R25" s="133"/>
+      <c r="S25" s="133"/>
+      <c r="T25" s="133"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="18">
+        <v>6</v>
+      </c>
+      <c r="J26" s="18">
+        <v>18</v>
+      </c>
       <c r="K26" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIL</v>
+        <v>ALIA</v>
       </c>
       <c r="L26" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M26" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N26" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O26" s="22">
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
+        <v>10</v>
+      </c>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
       <c r="A27" s="60" t="s">
@@ -11600,36 +11618,36 @@
         <v>36</v>
       </c>
       <c r="I27" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J27" s="18">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K27" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L27" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M27" s="20" t="str">
         <f t="shared" ref="M27:M30" si="16">IF(L27="L","Baixa",IF(L27="A","Média",IF(L27="","","Alta")))</f>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" ref="N27:N30" si="17">IF(ISBLANK(G27),"",IF(G27="ALI",IF(L27="L",7,IF(L27="A",10,15)),IF(G27="AIE",IF(L27="L",5,IF(L27="A",7,10)),IF(G27="SE",IF(L27="L",4,IF(L27="A",5,7)),IF(OR(G27="EE",G27="CE"),IF(L27="L",3,IF(L27="A",4,6)))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O27" s="22">
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
+        <v>6</v>
+      </c>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="133"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
       <c r="A28" s="60" t="s">
@@ -11646,33 +11664,37 @@
       <c r="H28" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="66"/>
+      <c r="I28" s="18">
+        <v>6</v>
+      </c>
+      <c r="J28" s="18">
+        <v>18</v>
+      </c>
       <c r="K28" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L28" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M28" s="20" t="str">
         <f t="shared" si="16"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O28" s="22">
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
+        <v>6</v>
+      </c>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
       <c r="A29" s="60" t="s">
@@ -11689,33 +11711,37 @@
       <c r="H29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="66"/>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>2</v>
+      </c>
       <c r="K29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L29" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M29" s="20" t="str">
         <f t="shared" si="16"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N29" s="21">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29" s="22">
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
+        <v>3</v>
+      </c>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="133"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="60" t="s">
@@ -11732,76 +11758,84 @@
       <c r="H30" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="66"/>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18">
+        <v>3</v>
+      </c>
       <c r="K30" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>CEL</v>
       </c>
       <c r="L30" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M30" s="20" t="str">
         <f t="shared" si="16"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N30" s="21">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" s="22">
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
+        <v>3</v>
+      </c>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="133"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="I31" s="18">
+        <v>6</v>
+      </c>
+      <c r="J31" s="18">
+        <v>18</v>
+      </c>
       <c r="K31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>CEH</v>
       </c>
       <c r="L31" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M31" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N31" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O31" s="22">
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
+        <v>6</v>
+      </c>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="63" t="s">
@@ -11818,8 +11852,12 @@
       <c r="H32" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="I32" s="18">
+        <v>1</v>
+      </c>
+      <c r="J32" s="18">
+        <v>6</v>
+      </c>
       <c r="K32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>SEA</v>
@@ -11840,19 +11878,19 @@
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="133"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="149"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
       <c r="G33" s="18"/>
       <c r="H33" s="25"/>
       <c r="I33" s="18"/>
@@ -11877,73 +11915,79 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="127"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="131"/>
       <c r="G34" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="18">
+        <v>3</v>
+      </c>
+      <c r="J34" s="18">
+        <v>8</v>
+      </c>
       <c r="K34" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIL</v>
+        <v>ALIA</v>
       </c>
       <c r="L34" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M34" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N34" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O34" s="22">
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="132"/>
-      <c r="T34" s="132"/>
+        <v>10</v>
+      </c>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="133"/>
+      <c r="R34" s="133"/>
+      <c r="S34" s="133"/>
+      <c r="T34" s="133"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="128" t="s">
+      <c r="A35" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="130"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="128"/>
       <c r="G35" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="18">
+        <v>3</v>
+      </c>
       <c r="J35" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -11965,30 +12009,32 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="132"/>
-      <c r="S35" s="132"/>
-      <c r="T35" s="132"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="133"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="130"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="128"/>
       <c r="G36" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18">
+        <v>3</v>
+      </c>
       <c r="J36" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -12010,115 +12056,127 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="132"/>
-      <c r="S36" s="132"/>
-      <c r="T36" s="132"/>
+      <c r="P36" s="132"/>
+      <c r="Q36" s="133"/>
+      <c r="R36" s="133"/>
+      <c r="S36" s="133"/>
+      <c r="T36" s="133"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="130"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="128"/>
       <c r="G37" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>2</v>
+      </c>
       <c r="K37" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L37" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M37" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N37" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O37" s="22">
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P37" s="131"/>
-      <c r="Q37" s="132"/>
-      <c r="R37" s="132"/>
-      <c r="S37" s="132"/>
-      <c r="T37" s="132"/>
+        <v>3</v>
+      </c>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="133"/>
+      <c r="T37" s="133"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="130"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="128"/>
       <c r="G38" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18">
+        <v>2</v>
+      </c>
       <c r="K38" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>CEA</v>
+        <v>CEL</v>
       </c>
       <c r="L38" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M38" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N38" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O38" s="22">
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="132"/>
-      <c r="S38" s="132"/>
-      <c r="T38" s="132"/>
+        <v>3</v>
+      </c>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="133"/>
+      <c r="R38" s="133"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="133"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="128"/>
       <c r="G39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="18">
+        <v>3</v>
+      </c>
+      <c r="J39" s="18">
+        <v>8</v>
+      </c>
       <c r="K39" s="18" t="str">
         <f t="shared" si="0"/>
         <v>EEA</v>
@@ -12139,29 +12197,33 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="132"/>
-      <c r="T39" s="132"/>
+      <c r="P39" s="132"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="133"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="128" t="s">
+      <c r="A40" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="128"/>
       <c r="G40" s="18" t="s">
         <v>51</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="18">
+        <v>1</v>
+      </c>
+      <c r="J40" s="18">
+        <v>8</v>
+      </c>
       <c r="K40" s="18" t="str">
         <f t="shared" si="0"/>
         <v>SEA</v>
@@ -12182,19 +12244,19 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="132"/>
-      <c r="R40" s="132"/>
-      <c r="S40" s="132"/>
-      <c r="T40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133"/>
+      <c r="T40" s="133"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="128"/>
       <c r="G41" s="18"/>
       <c r="H41" s="25"/>
       <c r="I41" s="18"/>
@@ -12219,21 +12281,21 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="132"/>
-      <c r="S41" s="132"/>
-      <c r="T41" s="132"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="133"/>
+      <c r="R41" s="133"/>
+      <c r="S41" s="133"/>
+      <c r="T41" s="133"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="125" t="s">
+      <c r="A42" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="129"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="128"/>
       <c r="G42" s="18" t="s">
         <v>35</v>
       </c>
@@ -12262,21 +12324,21 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="132"/>
-      <c r="S42" s="132"/>
-      <c r="T42" s="132"/>
+      <c r="P42" s="132"/>
+      <c r="Q42" s="133"/>
+      <c r="R42" s="133"/>
+      <c r="S42" s="133"/>
+      <c r="T42" s="133"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="128" t="s">
+      <c r="A43" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="130"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="128"/>
       <c r="G43" s="18" t="s">
         <v>37</v>
       </c>
@@ -12305,21 +12367,21 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P43" s="131"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="132"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="132"/>
+      <c r="P43" s="132"/>
+      <c r="Q43" s="133"/>
+      <c r="R43" s="133"/>
+      <c r="S43" s="133"/>
+      <c r="T43" s="133"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="128" t="s">
+      <c r="A44" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="129"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="130"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="128"/>
       <c r="G44" s="18" t="s">
         <v>37</v>
       </c>
@@ -12348,21 +12410,21 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="131"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="132"/>
-      <c r="S44" s="132"/>
-      <c r="T44" s="132"/>
+      <c r="P44" s="132"/>
+      <c r="Q44" s="133"/>
+      <c r="R44" s="133"/>
+      <c r="S44" s="133"/>
+      <c r="T44" s="133"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="130"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128"/>
       <c r="G45" s="18" t="s">
         <v>37</v>
       </c>
@@ -12391,21 +12453,21 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P45" s="131"/>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="132"/>
-      <c r="S45" s="132"/>
-      <c r="T45" s="132"/>
+      <c r="P45" s="132"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="133"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="133"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="130"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="128"/>
       <c r="G46" s="18" t="s">
         <v>38</v>
       </c>
@@ -12434,21 +12496,21 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P46" s="131"/>
-      <c r="Q46" s="132"/>
-      <c r="R46" s="132"/>
-      <c r="S46" s="132"/>
-      <c r="T46" s="132"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="133"/>
+      <c r="S46" s="133"/>
+      <c r="T46" s="133"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="128" t="s">
+      <c r="A47" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="129"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="130"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
       <c r="G47" s="18" t="s">
         <v>51</v>
       </c>
@@ -12477,21 +12539,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P47" s="131"/>
-      <c r="Q47" s="132"/>
-      <c r="R47" s="132"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="133"/>
+      <c r="R47" s="133"/>
+      <c r="S47" s="133"/>
+      <c r="T47" s="133"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="128" t="s">
+      <c r="A48" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="129"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="130"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="128"/>
       <c r="G48" s="18" t="s">
         <v>37</v>
       </c>
@@ -12520,19 +12582,19 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P48" s="131"/>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
+      <c r="P48" s="132"/>
+      <c r="Q48" s="133"/>
+      <c r="R48" s="133"/>
+      <c r="S48" s="133"/>
+      <c r="T48" s="133"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="128"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="130"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="128"/>
       <c r="G49" s="18"/>
       <c r="H49" s="25"/>
       <c r="I49" s="18"/>
@@ -12557,21 +12619,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P49" s="131"/>
-      <c r="Q49" s="132"/>
-      <c r="R49" s="132"/>
-      <c r="S49" s="132"/>
-      <c r="T49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="133"/>
+      <c r="R49" s="133"/>
+      <c r="S49" s="133"/>
+      <c r="T49" s="133"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="125" t="s">
+      <c r="A50" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="129"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="130"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="128"/>
       <c r="G50" s="18" t="s">
         <v>35</v>
       </c>
@@ -12600,21 +12662,21 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P50" s="131"/>
-      <c r="Q50" s="132"/>
-      <c r="R50" s="132"/>
-      <c r="S50" s="132"/>
-      <c r="T50" s="132"/>
+      <c r="P50" s="132"/>
+      <c r="Q50" s="133"/>
+      <c r="R50" s="133"/>
+      <c r="S50" s="133"/>
+      <c r="T50" s="133"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="128" t="s">
+      <c r="A51" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="130"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="128"/>
       <c r="G51" s="18" t="s">
         <v>37</v>
       </c>
@@ -12643,21 +12705,21 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P51" s="131"/>
-      <c r="Q51" s="132"/>
-      <c r="R51" s="132"/>
-      <c r="S51" s="132"/>
-      <c r="T51" s="132"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="133"/>
+      <c r="R51" s="133"/>
+      <c r="S51" s="133"/>
+      <c r="T51" s="133"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="128" t="s">
+      <c r="A52" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="130"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="128"/>
       <c r="G52" s="18" t="s">
         <v>37</v>
       </c>
@@ -12686,21 +12748,21 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P52" s="131"/>
-      <c r="Q52" s="132"/>
-      <c r="R52" s="132"/>
-      <c r="S52" s="132"/>
-      <c r="T52" s="132"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="133"/>
+      <c r="S52" s="133"/>
+      <c r="T52" s="133"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="128" t="s">
+      <c r="A53" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="129"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="130"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="128"/>
       <c r="G53" s="18" t="s">
         <v>37</v>
       </c>
@@ -12729,21 +12791,21 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P53" s="131"/>
-      <c r="Q53" s="132"/>
-      <c r="R53" s="132"/>
-      <c r="S53" s="132"/>
-      <c r="T53" s="132"/>
+      <c r="P53" s="132"/>
+      <c r="Q53" s="133"/>
+      <c r="R53" s="133"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="133"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="128" t="s">
+      <c r="A54" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="130"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="128"/>
       <c r="G54" s="18" t="s">
         <v>38</v>
       </c>
@@ -12772,21 +12834,21 @@
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P54" s="131"/>
-      <c r="Q54" s="132"/>
-      <c r="R54" s="132"/>
-      <c r="S54" s="132"/>
-      <c r="T54" s="132"/>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="133"/>
+      <c r="R54" s="133"/>
+      <c r="S54" s="133"/>
+      <c r="T54" s="133"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="128" t="s">
+      <c r="A55" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="129"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="130"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="128"/>
       <c r="G55" s="18" t="s">
         <v>51</v>
       </c>
@@ -12815,21 +12877,21 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P55" s="131"/>
-      <c r="Q55" s="132"/>
-      <c r="R55" s="132"/>
-      <c r="S55" s="132"/>
-      <c r="T55" s="132"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="133"/>
+      <c r="R55" s="133"/>
+      <c r="S55" s="133"/>
+      <c r="T55" s="133"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="129"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="130"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="128"/>
       <c r="G56" s="18" t="s">
         <v>37</v>
       </c>
@@ -12858,19 +12920,19 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P56" s="131"/>
-      <c r="Q56" s="132"/>
-      <c r="R56" s="132"/>
-      <c r="S56" s="132"/>
-      <c r="T56" s="132"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="133"/>
+      <c r="R56" s="133"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="133"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="128"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="130"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="128"/>
       <c r="G57" s="18"/>
       <c r="H57" s="25"/>
       <c r="I57" s="18"/>
@@ -12895,21 +12957,21 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P57" s="131"/>
-      <c r="Q57" s="132"/>
-      <c r="R57" s="132"/>
-      <c r="S57" s="132"/>
-      <c r="T57" s="132"/>
+      <c r="P57" s="132"/>
+      <c r="Q57" s="133"/>
+      <c r="R57" s="133"/>
+      <c r="S57" s="133"/>
+      <c r="T57" s="133"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="127"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="131"/>
       <c r="G58" s="18" t="s">
         <v>35</v>
       </c>
@@ -12938,21 +13000,21 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P58" s="131"/>
-      <c r="Q58" s="132"/>
-      <c r="R58" s="132"/>
-      <c r="S58" s="132"/>
-      <c r="T58" s="132"/>
+      <c r="P58" s="132"/>
+      <c r="Q58" s="133"/>
+      <c r="R58" s="133"/>
+      <c r="S58" s="133"/>
+      <c r="T58" s="133"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="128" t="s">
+      <c r="A59" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="130"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="128"/>
       <c r="G59" s="18" t="s">
         <v>37</v>
       </c>
@@ -12981,21 +13043,21 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P59" s="131"/>
-      <c r="Q59" s="132"/>
-      <c r="R59" s="132"/>
-      <c r="S59" s="132"/>
-      <c r="T59" s="132"/>
+      <c r="P59" s="132"/>
+      <c r="Q59" s="133"/>
+      <c r="R59" s="133"/>
+      <c r="S59" s="133"/>
+      <c r="T59" s="133"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="128" t="s">
+      <c r="A60" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="129"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="130"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="128"/>
       <c r="G60" s="18" t="s">
         <v>37</v>
       </c>
@@ -13024,21 +13086,21 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P60" s="131"/>
-      <c r="Q60" s="132"/>
-      <c r="R60" s="132"/>
-      <c r="S60" s="132"/>
-      <c r="T60" s="132"/>
+      <c r="P60" s="132"/>
+      <c r="Q60" s="133"/>
+      <c r="R60" s="133"/>
+      <c r="S60" s="133"/>
+      <c r="T60" s="133"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="130"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="128"/>
       <c r="G61" s="18" t="s">
         <v>37</v>
       </c>
@@ -13067,21 +13129,21 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P61" s="131"/>
-      <c r="Q61" s="132"/>
-      <c r="R61" s="132"/>
-      <c r="S61" s="132"/>
-      <c r="T61" s="132"/>
+      <c r="P61" s="132"/>
+      <c r="Q61" s="133"/>
+      <c r="R61" s="133"/>
+      <c r="S61" s="133"/>
+      <c r="T61" s="133"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="130"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="128"/>
       <c r="G62" s="18" t="s">
         <v>38</v>
       </c>
@@ -13110,21 +13172,21 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P62" s="131"/>
-      <c r="Q62" s="132"/>
-      <c r="R62" s="132"/>
-      <c r="S62" s="132"/>
-      <c r="T62" s="132"/>
+      <c r="P62" s="132"/>
+      <c r="Q62" s="133"/>
+      <c r="R62" s="133"/>
+      <c r="S62" s="133"/>
+      <c r="T62" s="133"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="128" t="s">
+      <c r="A63" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="129"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="130"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="128"/>
       <c r="G63" s="18" t="s">
         <v>56</v>
       </c>
@@ -13153,21 +13215,21 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P63" s="131"/>
-      <c r="Q63" s="132"/>
-      <c r="R63" s="132"/>
-      <c r="S63" s="132"/>
-      <c r="T63" s="132"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="133"/>
+      <c r="R63" s="133"/>
+      <c r="S63" s="133"/>
+      <c r="T63" s="133"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="128" t="s">
+      <c r="A64" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="129"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="130"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="128"/>
       <c r="G64" s="18" t="s">
         <v>37</v>
       </c>
@@ -13196,21 +13258,21 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P64" s="131"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="132"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="132"/>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="133"/>
+      <c r="R64" s="133"/>
+      <c r="S64" s="133"/>
+      <c r="T64" s="133"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="128" t="s">
+      <c r="A65" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="129"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="130"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="128"/>
       <c r="G65" s="18" t="s">
         <v>51</v>
       </c>
@@ -13239,19 +13301,19 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P65" s="131"/>
-      <c r="Q65" s="132"/>
-      <c r="R65" s="132"/>
-      <c r="S65" s="132"/>
-      <c r="T65" s="132"/>
+      <c r="P65" s="132"/>
+      <c r="Q65" s="133"/>
+      <c r="R65" s="133"/>
+      <c r="S65" s="133"/>
+      <c r="T65" s="133"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="128"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="130"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="128"/>
       <c r="G66" s="18"/>
       <c r="H66" s="25"/>
       <c r="I66" s="18"/>
@@ -13276,21 +13338,21 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P66" s="131"/>
-      <c r="Q66" s="132"/>
-      <c r="R66" s="132"/>
-      <c r="S66" s="132"/>
-      <c r="T66" s="132"/>
+      <c r="P66" s="132"/>
+      <c r="Q66" s="133"/>
+      <c r="R66" s="133"/>
+      <c r="S66" s="133"/>
+      <c r="T66" s="133"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="125" t="s">
+      <c r="A67" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="126"/>
-      <c r="C67" s="126"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="127"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="131"/>
       <c r="G67" s="18" t="s">
         <v>35</v>
       </c>
@@ -13319,21 +13381,21 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P67" s="131"/>
-      <c r="Q67" s="132"/>
-      <c r="R67" s="132"/>
-      <c r="S67" s="132"/>
-      <c r="T67" s="132"/>
+      <c r="P67" s="132"/>
+      <c r="Q67" s="133"/>
+      <c r="R67" s="133"/>
+      <c r="S67" s="133"/>
+      <c r="T67" s="133"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="128" t="s">
+      <c r="A68" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="129"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="130"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="128"/>
       <c r="G68" s="18" t="s">
         <v>37</v>
       </c>
@@ -13362,21 +13424,21 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P68" s="131"/>
-      <c r="Q68" s="132"/>
-      <c r="R68" s="132"/>
-      <c r="S68" s="132"/>
-      <c r="T68" s="132"/>
+      <c r="P68" s="132"/>
+      <c r="Q68" s="133"/>
+      <c r="R68" s="133"/>
+      <c r="S68" s="133"/>
+      <c r="T68" s="133"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="128" t="s">
+      <c r="A69" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="129"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="130"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="127"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="128"/>
       <c r="G69" s="18" t="s">
         <v>37</v>
       </c>
@@ -13405,21 +13467,21 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P69" s="131"/>
-      <c r="Q69" s="132"/>
-      <c r="R69" s="132"/>
-      <c r="S69" s="132"/>
-      <c r="T69" s="132"/>
+      <c r="P69" s="132"/>
+      <c r="Q69" s="133"/>
+      <c r="R69" s="133"/>
+      <c r="S69" s="133"/>
+      <c r="T69" s="133"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="128" t="s">
+      <c r="A70" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="129"/>
-      <c r="C70" s="129"/>
-      <c r="D70" s="129"/>
-      <c r="E70" s="129"/>
-      <c r="F70" s="130"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="127"/>
+      <c r="D70" s="127"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="128"/>
       <c r="G70" s="18" t="s">
         <v>37</v>
       </c>
@@ -13448,21 +13510,21 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P70" s="131"/>
-      <c r="Q70" s="132"/>
-      <c r="R70" s="132"/>
-      <c r="S70" s="132"/>
-      <c r="T70" s="132"/>
+      <c r="P70" s="132"/>
+      <c r="Q70" s="133"/>
+      <c r="R70" s="133"/>
+      <c r="S70" s="133"/>
+      <c r="T70" s="133"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="128" t="s">
+      <c r="A71" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="129"/>
-      <c r="C71" s="129"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
-      <c r="F71" s="130"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="127"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="128"/>
       <c r="G71" s="18" t="s">
         <v>38</v>
       </c>
@@ -13491,21 +13553,21 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P71" s="131"/>
-      <c r="Q71" s="132"/>
-      <c r="R71" s="132"/>
-      <c r="S71" s="132"/>
-      <c r="T71" s="132"/>
+      <c r="P71" s="132"/>
+      <c r="Q71" s="133"/>
+      <c r="R71" s="133"/>
+      <c r="S71" s="133"/>
+      <c r="T71" s="133"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="128" t="s">
+      <c r="A72" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="129"/>
-      <c r="C72" s="129"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="130"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
       <c r="G72" s="18" t="s">
         <v>38</v>
       </c>
@@ -13534,21 +13596,21 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P72" s="131"/>
-      <c r="Q72" s="132"/>
-      <c r="R72" s="132"/>
-      <c r="S72" s="132"/>
-      <c r="T72" s="132"/>
+      <c r="P72" s="132"/>
+      <c r="Q72" s="133"/>
+      <c r="R72" s="133"/>
+      <c r="S72" s="133"/>
+      <c r="T72" s="133"/>
     </row>
     <row r="73" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="128" t="s">
+      <c r="A73" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="129"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="129"/>
-      <c r="E73" s="129"/>
-      <c r="F73" s="130"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="127"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="128"/>
       <c r="G73" s="18" t="s">
         <v>51</v>
       </c>
@@ -13584,12 +13646,12 @@
       <c r="T73" s="72"/>
     </row>
     <row r="74" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="128"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="129"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="130"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="128"/>
       <c r="G74" s="18"/>
       <c r="H74" s="25"/>
       <c r="I74" s="18"/>
@@ -13621,14 +13683,14 @@
       <c r="T74" s="72"/>
     </row>
     <row r="75" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="125" t="s">
+      <c r="A75" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="129"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="130"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="128"/>
       <c r="G75" s="18" t="s">
         <v>35</v>
       </c>
@@ -13664,14 +13726,14 @@
       <c r="T75" s="72"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="128" t="s">
+      <c r="A76" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="129"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="129"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="130"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="128"/>
       <c r="G76" s="18" t="s">
         <v>37</v>
       </c>
@@ -13700,21 +13762,21 @@
         <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P76" s="131"/>
-      <c r="Q76" s="132"/>
-      <c r="R76" s="132"/>
-      <c r="S76" s="132"/>
-      <c r="T76" s="132"/>
+      <c r="P76" s="132"/>
+      <c r="Q76" s="133"/>
+      <c r="R76" s="133"/>
+      <c r="S76" s="133"/>
+      <c r="T76" s="133"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="128" t="s">
+      <c r="A77" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="129"/>
-      <c r="C77" s="129"/>
-      <c r="D77" s="129"/>
-      <c r="E77" s="129"/>
-      <c r="F77" s="130"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="127"/>
+      <c r="D77" s="127"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="128"/>
       <c r="G77" s="18" t="s">
         <v>37</v>
       </c>
@@ -13743,21 +13805,21 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P77" s="131"/>
-      <c r="Q77" s="132"/>
-      <c r="R77" s="132"/>
-      <c r="S77" s="132"/>
-      <c r="T77" s="132"/>
+      <c r="P77" s="132"/>
+      <c r="Q77" s="133"/>
+      <c r="R77" s="133"/>
+      <c r="S77" s="133"/>
+      <c r="T77" s="133"/>
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1">
-      <c r="A78" s="128" t="s">
+      <c r="A78" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="129"/>
-      <c r="C78" s="129"/>
-      <c r="D78" s="129"/>
-      <c r="E78" s="129"/>
-      <c r="F78" s="130"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="127"/>
+      <c r="D78" s="127"/>
+      <c r="E78" s="127"/>
+      <c r="F78" s="128"/>
       <c r="G78" s="18" t="s">
         <v>37</v>
       </c>
@@ -13788,14 +13850,14 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1">
-      <c r="A79" s="128" t="s">
+      <c r="A79" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="129"/>
-      <c r="C79" s="129"/>
-      <c r="D79" s="129"/>
-      <c r="E79" s="129"/>
-      <c r="F79" s="130"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="127"/>
+      <c r="D79" s="127"/>
+      <c r="E79" s="127"/>
+      <c r="F79" s="128"/>
       <c r="G79" s="18" t="s">
         <v>38</v>
       </c>
@@ -13824,21 +13886,21 @@
         <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P79" s="131"/>
-      <c r="Q79" s="132"/>
-      <c r="R79" s="132"/>
-      <c r="S79" s="132"/>
-      <c r="T79" s="132"/>
+      <c r="P79" s="132"/>
+      <c r="Q79" s="133"/>
+      <c r="R79" s="133"/>
+      <c r="S79" s="133"/>
+      <c r="T79" s="133"/>
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1">
-      <c r="A80" s="128" t="s">
+      <c r="A80" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="129"/>
-      <c r="C80" s="129"/>
-      <c r="D80" s="129"/>
-      <c r="E80" s="129"/>
-      <c r="F80" s="130"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
+      <c r="F80" s="128"/>
       <c r="G80" s="18" t="s">
         <v>38</v>
       </c>
@@ -13867,21 +13929,21 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P80" s="131"/>
-      <c r="Q80" s="132"/>
-      <c r="R80" s="132"/>
-      <c r="S80" s="132"/>
-      <c r="T80" s="132"/>
+      <c r="P80" s="132"/>
+      <c r="Q80" s="133"/>
+      <c r="R80" s="133"/>
+      <c r="S80" s="133"/>
+      <c r="T80" s="133"/>
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1">
-      <c r="A81" s="128" t="s">
+      <c r="A81" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="129"/>
-      <c r="C81" s="129"/>
-      <c r="D81" s="129"/>
-      <c r="E81" s="129"/>
-      <c r="F81" s="130"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="128"/>
       <c r="G81" s="18" t="s">
         <v>51</v>
       </c>
@@ -13910,19 +13972,19 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P81" s="131"/>
-      <c r="Q81" s="132"/>
-      <c r="R81" s="132"/>
-      <c r="S81" s="132"/>
-      <c r="T81" s="132"/>
+      <c r="P81" s="132"/>
+      <c r="Q81" s="133"/>
+      <c r="R81" s="133"/>
+      <c r="S81" s="133"/>
+      <c r="T81" s="133"/>
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1">
-      <c r="A82" s="128"/>
-      <c r="B82" s="129"/>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="130"/>
+      <c r="A82" s="126"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="128"/>
       <c r="G82" s="18"/>
       <c r="H82" s="25"/>
       <c r="I82" s="18"/>
@@ -13947,21 +14009,21 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P82" s="131"/>
-      <c r="Q82" s="132"/>
-      <c r="R82" s="132"/>
-      <c r="S82" s="132"/>
-      <c r="T82" s="132"/>
+      <c r="P82" s="132"/>
+      <c r="Q82" s="133"/>
+      <c r="R82" s="133"/>
+      <c r="S82" s="133"/>
+      <c r="T82" s="133"/>
     </row>
     <row r="83" spans="1:20" ht="15" customHeight="1">
-      <c r="A83" s="125" t="s">
+      <c r="A83" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="130"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="128"/>
       <c r="G83" s="18" t="s">
         <v>35</v>
       </c>
@@ -13990,21 +14052,21 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P83" s="131"/>
-      <c r="Q83" s="132"/>
-      <c r="R83" s="132"/>
-      <c r="S83" s="132"/>
-      <c r="T83" s="132"/>
+      <c r="P83" s="132"/>
+      <c r="Q83" s="133"/>
+      <c r="R83" s="133"/>
+      <c r="S83" s="133"/>
+      <c r="T83" s="133"/>
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
-      <c r="A84" s="128" t="s">
+      <c r="A84" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="129"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="130"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="128"/>
       <c r="G84" s="18" t="s">
         <v>37</v>
       </c>
@@ -14033,21 +14095,21 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P84" s="131"/>
-      <c r="Q84" s="132"/>
-      <c r="R84" s="132"/>
-      <c r="S84" s="132"/>
-      <c r="T84" s="132"/>
+      <c r="P84" s="132"/>
+      <c r="Q84" s="133"/>
+      <c r="R84" s="133"/>
+      <c r="S84" s="133"/>
+      <c r="T84" s="133"/>
     </row>
     <row r="85" spans="1:20" ht="15" customHeight="1">
-      <c r="A85" s="128" t="s">
+      <c r="A85" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="129"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
-      <c r="F85" s="130"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="128"/>
       <c r="G85" s="18" t="s">
         <v>37</v>
       </c>
@@ -14076,21 +14138,21 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P85" s="131"/>
-      <c r="Q85" s="132"/>
-      <c r="R85" s="132"/>
-      <c r="S85" s="132"/>
-      <c r="T85" s="132"/>
+      <c r="P85" s="132"/>
+      <c r="Q85" s="133"/>
+      <c r="R85" s="133"/>
+      <c r="S85" s="133"/>
+      <c r="T85" s="133"/>
     </row>
     <row r="86" spans="1:20" ht="15" customHeight="1">
-      <c r="A86" s="128" t="s">
+      <c r="A86" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="129"/>
-      <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
-      <c r="E86" s="129"/>
-      <c r="F86" s="130"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="128"/>
       <c r="G86" s="18" t="s">
         <v>38</v>
       </c>
@@ -14119,21 +14181,21 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P86" s="131"/>
-      <c r="Q86" s="132"/>
-      <c r="R86" s="132"/>
-      <c r="S86" s="132"/>
-      <c r="T86" s="132"/>
+      <c r="P86" s="132"/>
+      <c r="Q86" s="133"/>
+      <c r="R86" s="133"/>
+      <c r="S86" s="133"/>
+      <c r="T86" s="133"/>
     </row>
     <row r="87" spans="1:20" s="73" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="128" t="s">
+      <c r="A87" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="129"/>
-      <c r="C87" s="129"/>
-      <c r="D87" s="129"/>
-      <c r="E87" s="129"/>
-      <c r="F87" s="130"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="128"/>
       <c r="G87" s="18" t="s">
         <v>37</v>
       </c>
@@ -14169,14 +14231,14 @@
       <c r="T87" s="81"/>
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1">
-      <c r="A88" s="128" t="s">
+      <c r="A88" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="130"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="128"/>
       <c r="G88" s="18" t="s">
         <v>38</v>
       </c>
@@ -14212,14 +14274,14 @@
       <c r="T88" s="81"/>
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1">
-      <c r="A89" s="128" t="s">
+      <c r="A89" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="129"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="130"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="128"/>
       <c r="G89" s="18" t="s">
         <v>37</v>
       </c>
@@ -14255,14 +14317,14 @@
       <c r="T89" s="81"/>
     </row>
     <row r="90" spans="1:20" ht="15" customHeight="1">
-      <c r="A90" s="128" t="s">
+      <c r="A90" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="129"/>
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="130"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="128"/>
       <c r="G90" s="18" t="s">
         <v>51</v>
       </c>
@@ -14291,21 +14353,21 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P90" s="131"/>
-      <c r="Q90" s="132"/>
-      <c r="R90" s="132"/>
-      <c r="S90" s="132"/>
-      <c r="T90" s="132"/>
+      <c r="P90" s="132"/>
+      <c r="Q90" s="133"/>
+      <c r="R90" s="133"/>
+      <c r="S90" s="133"/>
+      <c r="T90" s="133"/>
     </row>
     <row r="91" spans="1:20" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="128" t="s">
+      <c r="A91" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="129"/>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="129"/>
-      <c r="F91" s="130"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="128"/>
       <c r="G91" s="18" t="s">
         <v>51</v>
       </c>
@@ -14334,11 +14396,11 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P91" s="131"/>
-      <c r="Q91" s="132"/>
-      <c r="R91" s="132"/>
-      <c r="S91" s="132"/>
-      <c r="T91" s="132"/>
+      <c r="P91" s="132"/>
+      <c r="Q91" s="133"/>
+      <c r="R91" s="133"/>
+      <c r="S91" s="133"/>
+      <c r="T91" s="133"/>
     </row>
     <row r="92" spans="1:20" ht="15" customHeight="1">
       <c r="A92" s="74"/>
@@ -14365,21 +14427,21 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P92" s="131"/>
-      <c r="Q92" s="132"/>
-      <c r="R92" s="132"/>
-      <c r="S92" s="132"/>
-      <c r="T92" s="132"/>
+      <c r="P92" s="132"/>
+      <c r="Q92" s="133"/>
+      <c r="R92" s="133"/>
+      <c r="S92" s="133"/>
+      <c r="T92" s="133"/>
     </row>
     <row r="93" spans="1:20" ht="15" customHeight="1">
-      <c r="A93" s="125" t="s">
+      <c r="A93" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="129"/>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
-      <c r="F93" s="130"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="127"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="128"/>
       <c r="G93" s="18" t="s">
         <v>35</v>
       </c>
@@ -14408,21 +14470,21 @@
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P93" s="131"/>
-      <c r="Q93" s="132"/>
-      <c r="R93" s="132"/>
-      <c r="S93" s="132"/>
-      <c r="T93" s="132"/>
+      <c r="P93" s="132"/>
+      <c r="Q93" s="133"/>
+      <c r="R93" s="133"/>
+      <c r="S93" s="133"/>
+      <c r="T93" s="133"/>
     </row>
     <row r="94" spans="1:20" ht="15" customHeight="1">
-      <c r="A94" s="128" t="s">
+      <c r="A94" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="129"/>
-      <c r="C94" s="129"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="129"/>
-      <c r="F94" s="130"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="128"/>
       <c r="G94" s="18" t="s">
         <v>37</v>
       </c>
@@ -14451,21 +14513,21 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P94" s="131"/>
-      <c r="Q94" s="132"/>
-      <c r="R94" s="132"/>
-      <c r="S94" s="132"/>
-      <c r="T94" s="132"/>
+      <c r="P94" s="132"/>
+      <c r="Q94" s="133"/>
+      <c r="R94" s="133"/>
+      <c r="S94" s="133"/>
+      <c r="T94" s="133"/>
     </row>
     <row r="95" spans="1:20" ht="15" customHeight="1">
-      <c r="A95" s="128" t="s">
+      <c r="A95" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="129"/>
-      <c r="D95" s="129"/>
-      <c r="E95" s="129"/>
-      <c r="F95" s="130"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="127"/>
+      <c r="E95" s="127"/>
+      <c r="F95" s="128"/>
       <c r="G95" s="18" t="s">
         <v>37</v>
       </c>
@@ -14494,21 +14556,21 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P95" s="131"/>
-      <c r="Q95" s="132"/>
-      <c r="R95" s="132"/>
-      <c r="S95" s="132"/>
-      <c r="T95" s="132"/>
+      <c r="P95" s="132"/>
+      <c r="Q95" s="133"/>
+      <c r="R95" s="133"/>
+      <c r="S95" s="133"/>
+      <c r="T95" s="133"/>
     </row>
     <row r="96" spans="1:20" ht="15" customHeight="1">
-      <c r="A96" s="128" t="s">
+      <c r="A96" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="129"/>
-      <c r="C96" s="129"/>
-      <c r="D96" s="129"/>
-      <c r="E96" s="129"/>
-      <c r="F96" s="130"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="127"/>
+      <c r="D96" s="127"/>
+      <c r="E96" s="127"/>
+      <c r="F96" s="128"/>
       <c r="G96" s="18" t="s">
         <v>38</v>
       </c>
@@ -14537,21 +14599,21 @@
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P96" s="131"/>
-      <c r="Q96" s="132"/>
-      <c r="R96" s="132"/>
-      <c r="S96" s="132"/>
-      <c r="T96" s="132"/>
+      <c r="P96" s="132"/>
+      <c r="Q96" s="133"/>
+      <c r="R96" s="133"/>
+      <c r="S96" s="133"/>
+      <c r="T96" s="133"/>
     </row>
     <row r="97" spans="1:20" ht="15" customHeight="1">
-      <c r="A97" s="128" t="s">
+      <c r="A97" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="129"/>
-      <c r="C97" s="129"/>
-      <c r="D97" s="129"/>
-      <c r="E97" s="129"/>
-      <c r="F97" s="130"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="127"/>
+      <c r="F97" s="128"/>
       <c r="G97" s="18" t="s">
         <v>37</v>
       </c>
@@ -14580,21 +14642,21 @@
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P97" s="131"/>
-      <c r="Q97" s="132"/>
-      <c r="R97" s="132"/>
-      <c r="S97" s="132"/>
-      <c r="T97" s="132"/>
+      <c r="P97" s="132"/>
+      <c r="Q97" s="133"/>
+      <c r="R97" s="133"/>
+      <c r="S97" s="133"/>
+      <c r="T97" s="133"/>
     </row>
     <row r="98" spans="1:20" ht="15" customHeight="1">
-      <c r="A98" s="128" t="s">
+      <c r="A98" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="129"/>
-      <c r="C98" s="129"/>
-      <c r="D98" s="129"/>
-      <c r="E98" s="129"/>
-      <c r="F98" s="130"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="127"/>
+      <c r="D98" s="127"/>
+      <c r="E98" s="127"/>
+      <c r="F98" s="128"/>
       <c r="G98" s="18" t="s">
         <v>38</v>
       </c>
@@ -14623,21 +14685,21 @@
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P98" s="131"/>
-      <c r="Q98" s="132"/>
-      <c r="R98" s="132"/>
-      <c r="S98" s="132"/>
-      <c r="T98" s="132"/>
+      <c r="P98" s="132"/>
+      <c r="Q98" s="133"/>
+      <c r="R98" s="133"/>
+      <c r="S98" s="133"/>
+      <c r="T98" s="133"/>
     </row>
     <row r="99" spans="1:20" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="128" t="s">
+      <c r="A99" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="B99" s="129"/>
-      <c r="C99" s="129"/>
-      <c r="D99" s="129"/>
-      <c r="E99" s="129"/>
-      <c r="F99" s="130"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="128"/>
       <c r="G99" s="18" t="s">
         <v>51</v>
       </c>
@@ -14666,11 +14728,11 @@
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P99" s="131"/>
-      <c r="Q99" s="132"/>
-      <c r="R99" s="132"/>
-      <c r="S99" s="132"/>
-      <c r="T99" s="132"/>
+      <c r="P99" s="132"/>
+      <c r="Q99" s="133"/>
+      <c r="R99" s="133"/>
+      <c r="S99" s="133"/>
+      <c r="T99" s="133"/>
     </row>
     <row r="100" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="88"/>
@@ -14695,14 +14757,14 @@
       <c r="T100" s="87"/>
     </row>
     <row r="101" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="125" t="s">
+      <c r="A101" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="126"/>
-      <c r="C101" s="126"/>
-      <c r="D101" s="126"/>
-      <c r="E101" s="126"/>
-      <c r="F101" s="127"/>
+      <c r="B101" s="130"/>
+      <c r="C101" s="130"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="131"/>
       <c r="G101" s="18" t="s">
         <v>35</v>
       </c>
@@ -14985,14 +15047,14 @@
       <c r="T107" s="100"/>
     </row>
     <row r="108" spans="1:20" ht="15" customHeight="1">
-      <c r="A108" s="125" t="s">
+      <c r="A108" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="B108" s="126"/>
-      <c r="C108" s="126"/>
-      <c r="D108" s="126"/>
-      <c r="E108" s="126"/>
-      <c r="F108" s="127"/>
+      <c r="B108" s="130"/>
+      <c r="C108" s="130"/>
+      <c r="D108" s="130"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="131"/>
       <c r="G108" s="18" t="s">
         <v>35</v>
       </c>
@@ -15154,11 +15216,11 @@
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P111" s="131"/>
-      <c r="Q111" s="132"/>
-      <c r="R111" s="132"/>
-      <c r="S111" s="132"/>
-      <c r="T111" s="132"/>
+      <c r="P111" s="132"/>
+      <c r="Q111" s="133"/>
+      <c r="R111" s="133"/>
+      <c r="S111" s="133"/>
+      <c r="T111" s="133"/>
     </row>
     <row r="112" spans="1:20" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="96" t="s">
@@ -15197,21 +15259,21 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P112" s="131"/>
-      <c r="Q112" s="132"/>
-      <c r="R112" s="132"/>
-      <c r="S112" s="132"/>
-      <c r="T112" s="132"/>
+      <c r="P112" s="132"/>
+      <c r="Q112" s="133"/>
+      <c r="R112" s="133"/>
+      <c r="S112" s="133"/>
+      <c r="T112" s="133"/>
     </row>
     <row r="113" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A113" s="128" t="s">
+      <c r="A113" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B113" s="129"/>
-      <c r="C113" s="129"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="129"/>
-      <c r="F113" s="130"/>
+      <c r="B113" s="127"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="128"/>
       <c r="G113" s="18" t="s">
         <v>38</v>
       </c>
@@ -15295,7 +15357,7 @@
       <c r="C115" s="94"/>
       <c r="D115" s="94"/>
       <c r="E115" s="94"/>
-      <c r="F115" s="167"/>
+      <c r="F115" s="101"/>
       <c r="G115" s="18"/>
       <c r="H115" s="25"/>
       <c r="I115" s="18"/>
@@ -15312,14 +15374,14 @@
       <c r="T115" s="100"/>
     </row>
     <row r="116" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A116" s="125" t="s">
+      <c r="A116" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="126"/>
-      <c r="C116" s="126"/>
-      <c r="D116" s="126"/>
-      <c r="E116" s="126"/>
-      <c r="F116" s="127"/>
+      <c r="B116" s="130"/>
+      <c r="C116" s="130"/>
+      <c r="D116" s="130"/>
+      <c r="E116" s="130"/>
+      <c r="F116" s="131"/>
       <c r="G116" s="18" t="s">
         <v>35</v>
       </c>
@@ -15355,14 +15417,14 @@
       <c r="T116" s="87"/>
     </row>
     <row r="117" spans="1:20" ht="15" customHeight="1">
-      <c r="A117" s="128" t="s">
+      <c r="A117" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B117" s="129"/>
-      <c r="C117" s="129"/>
-      <c r="D117" s="129"/>
-      <c r="E117" s="129"/>
-      <c r="F117" s="130"/>
+      <c r="B117" s="127"/>
+      <c r="C117" s="127"/>
+      <c r="D117" s="127"/>
+      <c r="E117" s="127"/>
+      <c r="F117" s="128"/>
       <c r="G117" s="18" t="s">
         <v>37</v>
       </c>
@@ -15393,21 +15455,21 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P117" s="131"/>
-      <c r="Q117" s="132"/>
-      <c r="R117" s="132"/>
-      <c r="S117" s="132"/>
-      <c r="T117" s="132"/>
+      <c r="P117" s="132"/>
+      <c r="Q117" s="133"/>
+      <c r="R117" s="133"/>
+      <c r="S117" s="133"/>
+      <c r="T117" s="133"/>
     </row>
     <row r="118" spans="1:20" ht="15" customHeight="1">
-      <c r="A118" s="128" t="s">
+      <c r="A118" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="129"/>
-      <c r="C118" s="129"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
-      <c r="F118" s="130"/>
+      <c r="B118" s="127"/>
+      <c r="C118" s="127"/>
+      <c r="D118" s="127"/>
+      <c r="E118" s="127"/>
+      <c r="F118" s="128"/>
       <c r="G118" s="18" t="s">
         <v>37</v>
       </c>
@@ -15440,14 +15502,14 @@
       </c>
     </row>
     <row r="119" spans="1:20" ht="15" customHeight="1">
-      <c r="A119" s="128" t="s">
+      <c r="A119" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="129"/>
-      <c r="C119" s="129"/>
-      <c r="D119" s="129"/>
-      <c r="E119" s="129"/>
-      <c r="F119" s="130"/>
+      <c r="B119" s="127"/>
+      <c r="C119" s="127"/>
+      <c r="D119" s="127"/>
+      <c r="E119" s="127"/>
+      <c r="F119" s="128"/>
       <c r="G119" s="18" t="s">
         <v>37</v>
       </c>
@@ -15478,14 +15540,14 @@
       </c>
     </row>
     <row r="120" spans="1:20" ht="15" customHeight="1">
-      <c r="A120" s="128" t="s">
+      <c r="A120" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="B120" s="129"/>
-      <c r="C120" s="129"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="129"/>
-      <c r="F120" s="130"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="127"/>
+      <c r="D120" s="127"/>
+      <c r="E120" s="127"/>
+      <c r="F120" s="128"/>
       <c r="G120" s="18" t="s">
         <v>38</v>
       </c>
@@ -15516,14 +15578,14 @@
       </c>
     </row>
     <row r="121" spans="1:20" ht="15" customHeight="1">
-      <c r="A121" s="128" t="s">
+      <c r="A121" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="B121" s="129"/>
-      <c r="C121" s="129"/>
-      <c r="D121" s="129"/>
-      <c r="E121" s="129"/>
-      <c r="F121" s="130"/>
+      <c r="B121" s="127"/>
+      <c r="C121" s="127"/>
+      <c r="D121" s="127"/>
+      <c r="E121" s="127"/>
+      <c r="F121" s="128"/>
       <c r="G121" s="18" t="s">
         <v>37</v>
       </c>
@@ -15554,14 +15616,14 @@
       </c>
     </row>
     <row r="122" spans="1:20" ht="15" customHeight="1">
-      <c r="A122" s="128" t="s">
+      <c r="A122" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
-      <c r="F122" s="130"/>
+      <c r="B122" s="127"/>
+      <c r="C122" s="127"/>
+      <c r="D122" s="127"/>
+      <c r="E122" s="127"/>
+      <c r="F122" s="128"/>
       <c r="G122" s="18" t="s">
         <v>51</v>
       </c>
@@ -15592,12 +15654,12 @@
       </c>
     </row>
     <row r="123" spans="1:20" ht="15" customHeight="1">
-      <c r="A123" s="128"/>
-      <c r="B123" s="129"/>
-      <c r="C123" s="129"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
-      <c r="F123" s="130"/>
+      <c r="A123" s="126"/>
+      <c r="B123" s="127"/>
+      <c r="C123" s="127"/>
+      <c r="D123" s="127"/>
+      <c r="E123" s="127"/>
+      <c r="F123" s="128"/>
       <c r="G123" s="18"/>
       <c r="H123" s="25"/>
       <c r="I123" s="18"/>
@@ -15624,14 +15686,14 @@
       </c>
     </row>
     <row r="124" spans="1:20" ht="15" customHeight="1">
-      <c r="A124" s="125" t="s">
+      <c r="A124" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="126"/>
-      <c r="C124" s="126"/>
-      <c r="D124" s="126"/>
-      <c r="E124" s="126"/>
-      <c r="F124" s="127"/>
+      <c r="B124" s="130"/>
+      <c r="C124" s="130"/>
+      <c r="D124" s="130"/>
+      <c r="E124" s="130"/>
+      <c r="F124" s="131"/>
       <c r="G124" s="18" t="s">
         <v>35</v>
       </c>
@@ -15662,14 +15724,14 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="15" customHeight="1">
-      <c r="A125" s="128" t="s">
+      <c r="A125" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="129"/>
-      <c r="C125" s="129"/>
-      <c r="D125" s="129"/>
-      <c r="E125" s="129"/>
-      <c r="F125" s="130"/>
+      <c r="B125" s="127"/>
+      <c r="C125" s="127"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="127"/>
+      <c r="F125" s="128"/>
       <c r="G125" s="18" t="s">
         <v>51</v>
       </c>
@@ -15700,14 +15762,14 @@
       </c>
     </row>
     <row r="126" spans="1:20" ht="15" customHeight="1">
-      <c r="A126" s="128" t="s">
+      <c r="A126" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="B126" s="129"/>
-      <c r="C126" s="129"/>
-      <c r="D126" s="129"/>
-      <c r="E126" s="129"/>
-      <c r="F126" s="130"/>
+      <c r="B126" s="127"/>
+      <c r="C126" s="127"/>
+      <c r="D126" s="127"/>
+      <c r="E126" s="127"/>
+      <c r="F126" s="128"/>
       <c r="G126" s="18" t="s">
         <v>51</v>
       </c>
@@ -15738,14 +15800,14 @@
       </c>
     </row>
     <row r="127" spans="1:20" ht="15" customHeight="1">
-      <c r="A127" s="128" t="s">
+      <c r="A127" s="126" t="s">
         <v>146</v>
       </c>
-      <c r="B127" s="129"/>
-      <c r="C127" s="129"/>
-      <c r="D127" s="129"/>
-      <c r="E127" s="129"/>
-      <c r="F127" s="130"/>
+      <c r="B127" s="127"/>
+      <c r="C127" s="127"/>
+      <c r="D127" s="127"/>
+      <c r="E127" s="127"/>
+      <c r="F127" s="128"/>
       <c r="G127" s="18" t="s">
         <v>51</v>
       </c>
@@ -15776,14 +15838,14 @@
       </c>
     </row>
     <row r="128" spans="1:20" ht="15" customHeight="1">
-      <c r="A128" s="128" t="s">
+      <c r="A128" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="B128" s="129"/>
-      <c r="C128" s="129"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="129"/>
-      <c r="F128" s="130"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="127"/>
+      <c r="E128" s="127"/>
+      <c r="F128" s="128"/>
       <c r="G128" s="18" t="s">
         <v>51</v>
       </c>
@@ -15869,14 +15931,14 @@
       <c r="O130" s="22"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1">
-      <c r="A131" s="128" t="s">
+      <c r="A131" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="129"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="129"/>
-      <c r="E131" s="129"/>
-      <c r="F131" s="130"/>
+      <c r="B131" s="127"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="127"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="128"/>
       <c r="G131" s="18" t="s">
         <v>56</v>
       </c>
@@ -15908,15 +15970,158 @@
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A131:F131"/>
@@ -15941,158 +16146,15 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A108:F108"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A74:F74"/>
   </mergeCells>
   <conditionalFormatting sqref="H8 H18 H74 H49 H66 H57 H41 H33">
     <cfRule type="cellIs" dxfId="344" priority="601" operator="equal">
@@ -17851,88 +17913,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="164"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="154"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="166"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="156"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="154"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="151" t="str">
+      <c r="A4" s="159" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="155" t="str">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="162" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="156"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="163"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="151" t="str">
+      <c r="A5" s="159" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="155" t="str">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="162" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="156"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="163"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -17943,58 +18005,58 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="158" t="str">
+      <c r="F6" s="165" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="158" t="str">
+      <c r="G6" s="113"/>
+      <c r="H6" s="165" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 253.000,00</v>
-      </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="157" t="str">
+        <v xml:space="preserve"> Custo= R$ 257.500,00</v>
+      </c>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="164" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 506</v>
-      </c>
-      <c r="L6" s="156"/>
+        <v>PF  = 515</v>
+      </c>
+      <c r="L6" s="163"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="161" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="152" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152" t="s">
+      <c r="H7" s="160"/>
+      <c r="I7" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="153"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="161"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="160"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="154"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="158"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -18017,7 +18079,7 @@
       </c>
       <c r="C10" s="33">
         <f>COUNTIF(CF,"EEL")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="34" t="s">
@@ -18028,7 +18090,7 @@
       </c>
       <c r="G10" s="35">
         <f>C10*3</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="36"/>
@@ -18041,7 +18103,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="33">
         <f>COUNTIF(CF,"EEA")</f>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="34" t="s">
@@ -18052,7 +18114,7 @@
       </c>
       <c r="G11" s="35">
         <f>C11*4</f>
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="36"/>
@@ -18065,7 +18127,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="33">
         <f>COUNTIF(CF,"EEH")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="34" t="s">
@@ -18076,7 +18138,7 @@
       </c>
       <c r="G12" s="35">
         <f>C12*6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="36"/>
@@ -18114,12 +18176,12 @@
       </c>
       <c r="G14" s="35">
         <f>SUM(G10:G12)</f>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="40">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.37944664031620551</v>
+        <v>0.37475728155339805</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -18262,7 +18324,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="43">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.21739130434782608</v>
+        <v>0.21359223300970873</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -18303,7 +18365,7 @@
       </c>
       <c r="C24" s="33">
         <f>COUNTIF(CF,"CEL")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="34" t="s">
@@ -18314,7 +18376,7 @@
       </c>
       <c r="G24" s="35">
         <f>C24*3</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -18327,7 +18389,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="33">
         <f>COUNTIF(CF,"CEA")</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="34" t="s">
@@ -18338,7 +18400,7 @@
       </c>
       <c r="G25" s="35">
         <f>C25*4</f>
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -18351,7 +18413,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="33">
         <f>COUNTIF(CF,"CEH")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="34" t="s">
@@ -18362,7 +18424,7 @@
       </c>
       <c r="G26" s="35">
         <f>C26*6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -18400,12 +18462,12 @@
       </c>
       <c r="G28" s="35">
         <f>SUM(G24:G26)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="44">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.16600790513833993</v>
+        <v>0.16116504854368932</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -18446,7 +18508,7 @@
       </c>
       <c r="C31" s="33">
         <f>COUNTIF(CF,"ALIL")</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
@@ -18457,7 +18519,7 @@
       </c>
       <c r="G31" s="35">
         <f>C31*7</f>
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -18470,7 +18532,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="33">
         <f>COUNTIF(CF,"ALIA")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
@@ -18481,7 +18543,7 @@
       </c>
       <c r="G32" s="35">
         <f>C32*10</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -18543,12 +18605,12 @@
       </c>
       <c r="G35" s="35">
         <f>SUM(G31:G33)</f>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="45">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.2075098814229249</v>
+        <v>0.22135922330097088</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -18691,7 +18753,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="46">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v>2.9644268774703556E-2</v>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -18736,7 +18798,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="35">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -18890,14 +18952,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="102"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="113"/>
       <c r="E55" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"I",Funções!$N$8:$N$131)</f>
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="F55" s="48">
         <f>Contagem!U11</f>
@@ -18905,7 +18967,7 @@
       </c>
       <c r="G55" s="48">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
@@ -18917,11 +18979,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="150" t="s">
+      <c r="B56" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="102"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="113"/>
       <c r="E56" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"A",Funções!$N$8:$N$131)</f>
         <v>0</v>
@@ -18939,17 +19001,17 @@
       <c r="J56" s="49"/>
       <c r="K56" s="51">
         <f>Contagem!W5</f>
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="104"/>
-      <c r="D57" s="102"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="113"/>
       <c r="E57" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"E",Funções!$N$8:$N$131)</f>
         <v>0</v>
@@ -18970,11 +19032,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="102"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="113"/>
       <c r="E58" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"T",Funções!$N$8:$N$131)</f>
         <v>0</v>
@@ -19009,6 +19071,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="B58:D58"/>
@@ -19025,8 +19089,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:F8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
+++ b/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
@@ -1553,8 +1553,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1564,14 +1580,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1579,25 +1599,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1608,28 +1617,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,6 +1653,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1674,9 +1677,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8118,36 +8118,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="104"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="112"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -8156,34 +8156,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="107"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="115"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -8193,34 +8193,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="110"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="118"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -8230,47 +8230,47 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="117" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="114" t="s">
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="113"/>
+      <c r="S4" s="103"/>
       <c r="T4" s="2">
         <v>500</v>
       </c>
-      <c r="U4" s="114" t="s">
+      <c r="U4" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="113"/>
-      <c r="W4" s="116">
+      <c r="V4" s="103"/>
+      <c r="W4" s="124">
         <f>W5*T4</f>
         <v>257500</v>
       </c>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="113"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="103"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -8280,41 +8280,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="114" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="113"/>
-      <c r="W5" s="118">
+      <c r="V5" s="103"/>
+      <c r="W5" s="106">
         <f>SUM(Y11:Y14)</f>
         <v>515</v>
       </c>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="113"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="103"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -8324,36 +8324,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="112"/>
-      <c r="AB6" s="113"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="103"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -8363,40 +8363,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="111" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="124" t="s">
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="112"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="113"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="103"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -8406,38 +8406,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="124" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="112"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="113"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="103"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -8483,46 +8483,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="123" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="103"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="121" t="s">
+      <c r="O10" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="114" t="s">
+      <c r="P10" s="111"/>
+      <c r="Q10" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114" t="s">
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="114" t="s">
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="113"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="103"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -8532,46 +8532,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="123" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="124" t="s">
+      <c r="O11" s="113"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="113"/>
-      <c r="S11" s="118">
+      <c r="R11" s="103"/>
+      <c r="S11" s="106">
         <f>Sumário!E55</f>
         <v>515</v>
       </c>
-      <c r="T11" s="113"/>
-      <c r="U11" s="122">
+      <c r="T11" s="103"/>
+      <c r="U11" s="107">
         <v>1</v>
       </c>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="118">
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="106">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
         <v>515</v>
       </c>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="113"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="103"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -8581,46 +8581,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="123" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="103"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="124" t="s">
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="112"/>
-      <c r="S12" s="118">
+      <c r="R12" s="105"/>
+      <c r="S12" s="106">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="113"/>
-      <c r="U12" s="122">
+      <c r="T12" s="103"/>
+      <c r="U12" s="107">
         <v>1</v>
       </c>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="118">
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="113"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="103"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -8630,46 +8630,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="123" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="124" t="s">
+      <c r="O13" s="113"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="112"/>
-      <c r="S13" s="118">
+      <c r="R13" s="105"/>
+      <c r="S13" s="106">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="113"/>
-      <c r="U13" s="122">
+      <c r="T13" s="103"/>
+      <c r="U13" s="107">
         <v>1</v>
       </c>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="118">
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="113"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="103"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -8679,8 +8679,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="108"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -8693,26 +8693,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="118">
+      <c r="O14" s="116"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="106">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="113"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="118">
+      <c r="T14" s="103"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="112"/>
-      <c r="AB14" s="113"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="103"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -8772,17 +8772,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -8801,34 +8801,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="104"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="112"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -8838,34 +8838,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="107"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="115"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -8875,34 +8875,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="107"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="115"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -8912,34 +8912,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="107"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="115"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -8949,34 +8949,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="107"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="115"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -8986,34 +8986,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="107"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="115"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -9023,34 +9023,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="107"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="115"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -9060,34 +9060,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="107"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="115"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -9097,34 +9097,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="107"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="114"/>
+      <c r="Z25" s="114"/>
+      <c r="AA25" s="114"/>
+      <c r="AB25" s="115"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -9134,34 +9134,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="107"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="115"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -9171,34 +9171,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="107"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="114"/>
+      <c r="Y27" s="114"/>
+      <c r="Z27" s="114"/>
+      <c r="AA27" s="114"/>
+      <c r="AB27" s="115"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -9208,34 +9208,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="107"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="114"/>
+      <c r="AA28" s="114"/>
+      <c r="AB28" s="115"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -9245,34 +9245,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="107"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="115"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -9282,34 +9282,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="107"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="115"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -9319,34 +9319,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="107"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="115"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -9356,34 +9356,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="107"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="115"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -9393,34 +9393,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="107"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="115"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -9430,34 +9430,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="107"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="115"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -9467,34 +9467,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="107"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="114"/>
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="115"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -9504,34 +9504,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="107"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="114"/>
+      <c r="AB36" s="115"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -9541,34 +9541,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="106"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="107"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="114"/>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="114"/>
+      <c r="AA37" s="114"/>
+      <c r="AB37" s="115"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -9578,34 +9578,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="108"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="109"/>
-      <c r="W38" s="109"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="109"/>
-      <c r="AB38" s="110"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="118"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -9662,17 +9662,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="120" t="s">
+      <c r="K40" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
+      <c r="S40" s="117"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -9691,34 +9691,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="119"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="103"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="103"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="104"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="111"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
+      <c r="Z41" s="111"/>
+      <c r="AA41" s="111"/>
+      <c r="AB41" s="112"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -9728,34 +9728,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="105"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="106"/>
-      <c r="AB42" s="107"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="115"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -9765,34 +9765,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="106"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-      <c r="AB43" s="107"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="115"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -9802,34 +9802,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="105"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="106"/>
-      <c r="T44" s="106"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="106"/>
-      <c r="W44" s="106"/>
-      <c r="X44" s="106"/>
-      <c r="Y44" s="106"/>
-      <c r="Z44" s="106"/>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="107"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="114"/>
+      <c r="Y44" s="114"/>
+      <c r="Z44" s="114"/>
+      <c r="AA44" s="114"/>
+      <c r="AB44" s="115"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -9839,34 +9839,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="105"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="106"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
-      <c r="W45" s="106"/>
-      <c r="X45" s="106"/>
-      <c r="Y45" s="106"/>
-      <c r="Z45" s="106"/>
-      <c r="AA45" s="106"/>
-      <c r="AB45" s="107"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="114"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="114"/>
+      <c r="Z45" s="114"/>
+      <c r="AA45" s="114"/>
+      <c r="AB45" s="115"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -9876,34 +9876,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="105"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="106"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="106"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="106"/>
-      <c r="T46" s="106"/>
-      <c r="U46" s="106"/>
-      <c r="V46" s="106"/>
-      <c r="W46" s="106"/>
-      <c r="X46" s="106"/>
-      <c r="Y46" s="106"/>
-      <c r="Z46" s="106"/>
-      <c r="AA46" s="106"/>
-      <c r="AB46" s="107"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="114"/>
+      <c r="Y46" s="114"/>
+      <c r="Z46" s="114"/>
+      <c r="AA46" s="114"/>
+      <c r="AB46" s="115"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -9913,34 +9913,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="105"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="106"/>
-      <c r="W47" s="106"/>
-      <c r="X47" s="106"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
-      <c r="AA47" s="106"/>
-      <c r="AB47" s="107"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="114"/>
+      <c r="S47" s="114"/>
+      <c r="T47" s="114"/>
+      <c r="U47" s="114"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="114"/>
+      <c r="X47" s="114"/>
+      <c r="Y47" s="114"/>
+      <c r="Z47" s="114"/>
+      <c r="AA47" s="114"/>
+      <c r="AB47" s="115"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -9950,34 +9950,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="105"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="106"/>
-      <c r="W48" s="106"/>
-      <c r="X48" s="106"/>
-      <c r="Y48" s="106"/>
-      <c r="Z48" s="106"/>
-      <c r="AA48" s="106"/>
-      <c r="AB48" s="107"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="114"/>
+      <c r="Y48" s="114"/>
+      <c r="Z48" s="114"/>
+      <c r="AA48" s="114"/>
+      <c r="AB48" s="115"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -9987,34 +9987,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="105"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="106"/>
-      <c r="T49" s="106"/>
-      <c r="U49" s="106"/>
-      <c r="V49" s="106"/>
-      <c r="W49" s="106"/>
-      <c r="X49" s="106"/>
-      <c r="Y49" s="106"/>
-      <c r="Z49" s="106"/>
-      <c r="AA49" s="106"/>
-      <c r="AB49" s="107"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
+      <c r="Z49" s="114"/>
+      <c r="AA49" s="114"/>
+      <c r="AB49" s="115"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -10024,34 +10024,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="105"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="106"/>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="106"/>
-      <c r="R50" s="106"/>
-      <c r="S50" s="106"/>
-      <c r="T50" s="106"/>
-      <c r="U50" s="106"/>
-      <c r="V50" s="106"/>
-      <c r="W50" s="106"/>
-      <c r="X50" s="106"/>
-      <c r="Y50" s="106"/>
-      <c r="Z50" s="106"/>
-      <c r="AA50" s="106"/>
-      <c r="AB50" s="107"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="114"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
+      <c r="Y50" s="114"/>
+      <c r="Z50" s="114"/>
+      <c r="AA50" s="114"/>
+      <c r="AB50" s="115"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -10061,34 +10061,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="105"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="106"/>
-      <c r="O51" s="106"/>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="106"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="106"/>
-      <c r="U51" s="106"/>
-      <c r="V51" s="106"/>
-      <c r="W51" s="106"/>
-      <c r="X51" s="106"/>
-      <c r="Y51" s="106"/>
-      <c r="Z51" s="106"/>
-      <c r="AA51" s="106"/>
-      <c r="AB51" s="107"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="114"/>
+      <c r="S51" s="114"/>
+      <c r="T51" s="114"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="114"/>
+      <c r="Y51" s="114"/>
+      <c r="Z51" s="114"/>
+      <c r="AA51" s="114"/>
+      <c r="AB51" s="115"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -10098,34 +10098,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="105"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="106"/>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="106"/>
-      <c r="R52" s="106"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="106"/>
-      <c r="U52" s="106"/>
-      <c r="V52" s="106"/>
-      <c r="W52" s="106"/>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="106"/>
-      <c r="Z52" s="106"/>
-      <c r="AA52" s="106"/>
-      <c r="AB52" s="107"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="115"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -10135,34 +10135,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="105"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="106"/>
-      <c r="U53" s="106"/>
-      <c r="V53" s="106"/>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
-      <c r="AB53" s="107"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="114"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="114"/>
+      <c r="T53" s="114"/>
+      <c r="U53" s="114"/>
+      <c r="V53" s="114"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="114"/>
+      <c r="Y53" s="114"/>
+      <c r="Z53" s="114"/>
+      <c r="AA53" s="114"/>
+      <c r="AB53" s="115"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -10172,34 +10172,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="105"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="106"/>
-      <c r="R54" s="106"/>
-      <c r="S54" s="106"/>
-      <c r="T54" s="106"/>
-      <c r="U54" s="106"/>
-      <c r="V54" s="106"/>
-      <c r="W54" s="106"/>
-      <c r="X54" s="106"/>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="106"/>
-      <c r="AA54" s="106"/>
-      <c r="AB54" s="107"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
+      <c r="O54" s="114"/>
+      <c r="P54" s="114"/>
+      <c r="Q54" s="114"/>
+      <c r="R54" s="114"/>
+      <c r="S54" s="114"/>
+      <c r="T54" s="114"/>
+      <c r="U54" s="114"/>
+      <c r="V54" s="114"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="114"/>
+      <c r="Y54" s="114"/>
+      <c r="Z54" s="114"/>
+      <c r="AA54" s="114"/>
+      <c r="AB54" s="115"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -10209,34 +10209,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="105"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="106"/>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106"/>
-      <c r="S55" s="106"/>
-      <c r="T55" s="106"/>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106"/>
-      <c r="W55" s="106"/>
-      <c r="X55" s="106"/>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106"/>
-      <c r="AA55" s="106"/>
-      <c r="AB55" s="107"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="114"/>
+      <c r="P55" s="114"/>
+      <c r="Q55" s="114"/>
+      <c r="R55" s="114"/>
+      <c r="S55" s="114"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="114"/>
+      <c r="V55" s="114"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="114"/>
+      <c r="Y55" s="114"/>
+      <c r="Z55" s="114"/>
+      <c r="AA55" s="114"/>
+      <c r="AB55" s="115"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -10246,34 +10246,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="105"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="106"/>
-      <c r="O56" s="106"/>
-      <c r="P56" s="106"/>
-      <c r="Q56" s="106"/>
-      <c r="R56" s="106"/>
-      <c r="S56" s="106"/>
-      <c r="T56" s="106"/>
-      <c r="U56" s="106"/>
-      <c r="V56" s="106"/>
-      <c r="W56" s="106"/>
-      <c r="X56" s="106"/>
-      <c r="Y56" s="106"/>
-      <c r="Z56" s="106"/>
-      <c r="AA56" s="106"/>
-      <c r="AB56" s="107"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="114"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="114"/>
+      <c r="O56" s="114"/>
+      <c r="P56" s="114"/>
+      <c r="Q56" s="114"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="114"/>
+      <c r="T56" s="114"/>
+      <c r="U56" s="114"/>
+      <c r="V56" s="114"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="114"/>
+      <c r="Y56" s="114"/>
+      <c r="Z56" s="114"/>
+      <c r="AA56" s="114"/>
+      <c r="AB56" s="115"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -10283,34 +10283,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="105"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
-      <c r="Y57" s="106"/>
-      <c r="Z57" s="106"/>
-      <c r="AA57" s="106"/>
-      <c r="AB57" s="107"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="114"/>
+      <c r="L57" s="114"/>
+      <c r="M57" s="114"/>
+      <c r="N57" s="114"/>
+      <c r="O57" s="114"/>
+      <c r="P57" s="114"/>
+      <c r="Q57" s="114"/>
+      <c r="R57" s="114"/>
+      <c r="S57" s="114"/>
+      <c r="T57" s="114"/>
+      <c r="U57" s="114"/>
+      <c r="V57" s="114"/>
+      <c r="W57" s="114"/>
+      <c r="X57" s="114"/>
+      <c r="Y57" s="114"/>
+      <c r="Z57" s="114"/>
+      <c r="AA57" s="114"/>
+      <c r="AB57" s="115"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -10320,34 +10320,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="105"/>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="106"/>
-      <c r="T58" s="106"/>
-      <c r="U58" s="106"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
-      <c r="X58" s="106"/>
-      <c r="Y58" s="106"/>
-      <c r="Z58" s="106"/>
-      <c r="AA58" s="106"/>
-      <c r="AB58" s="107"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="114"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="114"/>
+      <c r="O58" s="114"/>
+      <c r="P58" s="114"/>
+      <c r="Q58" s="114"/>
+      <c r="R58" s="114"/>
+      <c r="S58" s="114"/>
+      <c r="T58" s="114"/>
+      <c r="U58" s="114"/>
+      <c r="V58" s="114"/>
+      <c r="W58" s="114"/>
+      <c r="X58" s="114"/>
+      <c r="Y58" s="114"/>
+      <c r="Z58" s="114"/>
+      <c r="AA58" s="114"/>
+      <c r="AB58" s="115"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -10357,34 +10357,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
-      <c r="V59" s="106"/>
-      <c r="W59" s="106"/>
-      <c r="X59" s="106"/>
-      <c r="Y59" s="106"/>
-      <c r="Z59" s="106"/>
-      <c r="AA59" s="106"/>
-      <c r="AB59" s="107"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="114"/>
+      <c r="P59" s="114"/>
+      <c r="Q59" s="114"/>
+      <c r="R59" s="114"/>
+      <c r="S59" s="114"/>
+      <c r="T59" s="114"/>
+      <c r="U59" s="114"/>
+      <c r="V59" s="114"/>
+      <c r="W59" s="114"/>
+      <c r="X59" s="114"/>
+      <c r="Y59" s="114"/>
+      <c r="Z59" s="114"/>
+      <c r="AA59" s="114"/>
+      <c r="AB59" s="115"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -10394,34 +10394,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="108"/>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="109"/>
-      <c r="L60" s="109"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="109"/>
-      <c r="O60" s="109"/>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="109"/>
-      <c r="S60" s="109"/>
-      <c r="T60" s="109"/>
-      <c r="U60" s="109"/>
-      <c r="V60" s="109"/>
-      <c r="W60" s="109"/>
-      <c r="X60" s="109"/>
-      <c r="Y60" s="109"/>
-      <c r="Z60" s="109"/>
-      <c r="AA60" s="109"/>
-      <c r="AB60" s="110"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="117"/>
+      <c r="O60" s="117"/>
+      <c r="P60" s="117"/>
+      <c r="Q60" s="117"/>
+      <c r="R60" s="117"/>
+      <c r="S60" s="117"/>
+      <c r="T60" s="117"/>
+      <c r="U60" s="117"/>
+      <c r="V60" s="117"/>
+      <c r="W60" s="117"/>
+      <c r="X60" s="117"/>
+      <c r="Y60" s="117"/>
+      <c r="Z60" s="117"/>
+      <c r="AA60" s="117"/>
+      <c r="AB60" s="118"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -10469,13 +10469,32 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="F7:T7"/>
     <mergeCell ref="X7:AB7"/>
     <mergeCell ref="X8:AB8"/>
     <mergeCell ref="F6:AB6"/>
@@ -10492,32 +10511,13 @@
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="U12:X12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -10533,8 +10533,8 @@
   <dimension ref="A1:T131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="7" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -10557,23 +10557,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -10581,21 +10581,21 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -10603,21 +10603,21 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -10625,89 +10625,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="137" t="str">
+      <c r="A4" s="134" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="141" t="str">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="138" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="113"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="103"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="145" t="str">
+      <c r="A5" s="142" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="141" t="str">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="138" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="113"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="103"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="145" t="str">
+      <c r="A6" s="142" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Souza Car</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="141" t="str">
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="138" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="113"/>
-      <c r="H6" s="146" t="str">
+      <c r="G6" s="103"/>
+      <c r="H6" s="143" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 257.500,00</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="142" t="str">
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="139" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 515</v>
       </c>
-      <c r="O6" s="143"/>
+      <c r="O6" s="140"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -10715,14 +10715,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -10750,23 +10750,23 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="149" t="s">
+      <c r="P7" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="16" t="s">
         <v>35</v>
       </c>
@@ -10804,14 +10804,14 @@
       <c r="T8" s="133"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="128"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
       <c r="G9" s="16" t="s">
         <v>37</v>
       </c>
@@ -10851,14 +10851,14 @@
       <c r="T9" s="133"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="128"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="16" t="s">
         <v>37</v>
       </c>
@@ -10898,14 +10898,14 @@
       <c r="T10" s="133"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="128"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -10943,14 +10943,14 @@
       <c r="T11" s="133"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="16" t="s">
         <v>38</v>
       </c>
@@ -10988,14 +10988,14 @@
       <c r="T12" s="133"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="18" t="s">
         <v>38</v>
       </c>
@@ -11033,14 +11033,14 @@
       <c r="T13" s="133"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="128"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="18" t="s">
         <v>56</v>
       </c>
@@ -11080,14 +11080,14 @@
       <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20" s="77" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="128"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
       <c r="G15" s="18" t="s">
         <v>51</v>
       </c>
@@ -11125,14 +11125,14 @@
       <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" s="77" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
       <c r="G16" s="18" t="s">
         <v>51</v>
       </c>
@@ -11170,14 +11170,14 @@
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="128"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
       <c r="G17" s="18" t="s">
         <v>51</v>
       </c>
@@ -11237,14 +11237,14 @@
       <c r="T18" s="84"/>
     </row>
     <row r="19" spans="1:20" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
@@ -11556,14 +11556,14 @@
       <c r="T25" s="133"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="128"/>
       <c r="G26" s="18" t="s">
         <v>35</v>
       </c>
@@ -11791,14 +11791,14 @@
       <c r="T30" s="133"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
       <c r="G31" s="18" t="s">
         <v>38</v>
       </c>
@@ -11885,12 +11885,12 @@
       <c r="T32" s="133"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="150"/>
       <c r="G33" s="18"/>
       <c r="H33" s="25"/>
       <c r="I33" s="18"/>
@@ -11922,14 +11922,14 @@
       <c r="T33" s="133"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="129" t="s">
+      <c r="A34" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="131"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="128"/>
       <c r="G34" s="18" t="s">
         <v>35</v>
       </c>
@@ -11969,14 +11969,14 @@
       <c r="T34" s="133"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="128"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="131"/>
       <c r="G35" s="18" t="s">
         <v>37</v>
       </c>
@@ -12016,14 +12016,14 @@
       <c r="T35" s="133"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="128"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
       <c r="G36" s="18" t="s">
         <v>37</v>
       </c>
@@ -12063,14 +12063,14 @@
       <c r="T36" s="133"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="126" t="s">
+      <c r="A37" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="128"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="131"/>
       <c r="G37" s="18" t="s">
         <v>37</v>
       </c>
@@ -12110,14 +12110,14 @@
       <c r="T37" s="133"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="128"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="131"/>
       <c r="G38" s="18" t="s">
         <v>38</v>
       </c>
@@ -12157,14 +12157,14 @@
       <c r="T38" s="133"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="128"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="131"/>
       <c r="G39" s="18" t="s">
         <v>37</v>
       </c>
@@ -12204,14 +12204,14 @@
       <c r="T39" s="133"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="128"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="131"/>
       <c r="G40" s="18" t="s">
         <v>51</v>
       </c>
@@ -12251,12 +12251,12 @@
       <c r="T40" s="133"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="126"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="128"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="18"/>
       <c r="H41" s="25"/>
       <c r="I41" s="18"/>
@@ -12288,14 +12288,14 @@
       <c r="T41" s="133"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="128"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="131"/>
       <c r="G42" s="18" t="s">
         <v>35</v>
       </c>
@@ -12331,14 +12331,14 @@
       <c r="T42" s="133"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="126" t="s">
+      <c r="A43" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="128"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="131"/>
       <c r="G43" s="18" t="s">
         <v>37</v>
       </c>
@@ -12374,14 +12374,14 @@
       <c r="T43" s="133"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="126" t="s">
+      <c r="A44" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="128"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="18" t="s">
         <v>37</v>
       </c>
@@ -12417,14 +12417,14 @@
       <c r="T44" s="133"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="126" t="s">
+      <c r="A45" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="128"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="131"/>
       <c r="G45" s="18" t="s">
         <v>37</v>
       </c>
@@ -12460,14 +12460,14 @@
       <c r="T45" s="133"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="126" t="s">
+      <c r="A46" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="18" t="s">
         <v>38</v>
       </c>
@@ -12503,14 +12503,14 @@
       <c r="T46" s="133"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="126" t="s">
+      <c r="A47" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="127"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
       <c r="G47" s="18" t="s">
         <v>51</v>
       </c>
@@ -12546,14 +12546,14 @@
       <c r="T47" s="133"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="128"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131"/>
       <c r="G48" s="18" t="s">
         <v>37</v>
       </c>
@@ -12589,12 +12589,12 @@
       <c r="T48" s="133"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="126"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="128"/>
+      <c r="A49" s="129"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="131"/>
       <c r="G49" s="18"/>
       <c r="H49" s="25"/>
       <c r="I49" s="18"/>
@@ -12626,14 +12626,14 @@
       <c r="T49" s="133"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="129" t="s">
+      <c r="A50" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="128"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="131"/>
       <c r="G50" s="18" t="s">
         <v>35</v>
       </c>
@@ -12669,14 +12669,14 @@
       <c r="T50" s="133"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="128"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="18" t="s">
         <v>37</v>
       </c>
@@ -12712,14 +12712,14 @@
       <c r="T51" s="133"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="128"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="131"/>
       <c r="G52" s="18" t="s">
         <v>37</v>
       </c>
@@ -12755,14 +12755,14 @@
       <c r="T52" s="133"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="126" t="s">
+      <c r="A53" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="128"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="131"/>
       <c r="G53" s="18" t="s">
         <v>37</v>
       </c>
@@ -12798,14 +12798,14 @@
       <c r="T53" s="133"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="127"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="128"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="18" t="s">
         <v>38</v>
       </c>
@@ -12841,14 +12841,14 @@
       <c r="T54" s="133"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="126" t="s">
+      <c r="A55" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="127"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="128"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="131"/>
       <c r="G55" s="18" t="s">
         <v>51</v>
       </c>
@@ -12884,14 +12884,14 @@
       <c r="T55" s="133"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="128"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="131"/>
       <c r="G56" s="18" t="s">
         <v>37</v>
       </c>
@@ -12927,12 +12927,12 @@
       <c r="T56" s="133"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="126"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="128"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="131"/>
       <c r="G57" s="18"/>
       <c r="H57" s="25"/>
       <c r="I57" s="18"/>
@@ -12964,14 +12964,14 @@
       <c r="T57" s="133"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="131"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="128"/>
       <c r="G58" s="18" t="s">
         <v>35</v>
       </c>
@@ -13007,14 +13007,14 @@
       <c r="T58" s="133"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="126" t="s">
+      <c r="A59" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="128"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="131"/>
       <c r="G59" s="18" t="s">
         <v>37</v>
       </c>
@@ -13050,14 +13050,14 @@
       <c r="T59" s="133"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="126" t="s">
+      <c r="A60" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="127"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="128"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="131"/>
       <c r="G60" s="18" t="s">
         <v>37</v>
       </c>
@@ -13093,14 +13093,14 @@
       <c r="T60" s="133"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="126" t="s">
+      <c r="A61" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="127"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="128"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="131"/>
       <c r="G61" s="18" t="s">
         <v>37</v>
       </c>
@@ -13136,14 +13136,14 @@
       <c r="T61" s="133"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="126" t="s">
+      <c r="A62" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="128"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="131"/>
       <c r="G62" s="18" t="s">
         <v>38</v>
       </c>
@@ -13179,14 +13179,14 @@
       <c r="T62" s="133"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="126" t="s">
+      <c r="A63" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="127"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="128"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="131"/>
       <c r="G63" s="18" t="s">
         <v>56</v>
       </c>
@@ -13222,14 +13222,14 @@
       <c r="T63" s="133"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="126" t="s">
+      <c r="A64" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="127"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="128"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="131"/>
       <c r="G64" s="18" t="s">
         <v>37</v>
       </c>
@@ -13265,14 +13265,14 @@
       <c r="T64" s="133"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="127"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="128"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="131"/>
       <c r="G65" s="18" t="s">
         <v>51</v>
       </c>
@@ -13308,12 +13308,12 @@
       <c r="T65" s="133"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="128"/>
+      <c r="A66" s="129"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="131"/>
       <c r="G66" s="18"/>
       <c r="H66" s="25"/>
       <c r="I66" s="18"/>
@@ -13345,14 +13345,14 @@
       <c r="T66" s="133"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="129" t="s">
+      <c r="A67" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="130"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="131"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="128"/>
       <c r="G67" s="18" t="s">
         <v>35</v>
       </c>
@@ -13388,14 +13388,14 @@
       <c r="T67" s="133"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="128"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="131"/>
       <c r="G68" s="18" t="s">
         <v>37</v>
       </c>
@@ -13431,14 +13431,14 @@
       <c r="T68" s="133"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="126" t="s">
+      <c r="A69" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="127"/>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="128"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="131"/>
       <c r="G69" s="18" t="s">
         <v>37</v>
       </c>
@@ -13474,14 +13474,14 @@
       <c r="T69" s="133"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="126" t="s">
+      <c r="A70" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="127"/>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="128"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="131"/>
       <c r="G70" s="18" t="s">
         <v>37</v>
       </c>
@@ -13517,14 +13517,14 @@
       <c r="T70" s="133"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="126" t="s">
+      <c r="A71" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="127"/>
-      <c r="C71" s="127"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="128"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="131"/>
       <c r="G71" s="18" t="s">
         <v>38</v>
       </c>
@@ -13560,14 +13560,14 @@
       <c r="T71" s="133"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="126" t="s">
+      <c r="A72" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="127"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="127"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="128"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="131"/>
       <c r="G72" s="18" t="s">
         <v>38</v>
       </c>
@@ -13603,14 +13603,14 @@
       <c r="T72" s="133"/>
     </row>
     <row r="73" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="126" t="s">
+      <c r="A73" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="128"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="131"/>
       <c r="G73" s="18" t="s">
         <v>51</v>
       </c>
@@ -13646,12 +13646,12 @@
       <c r="T73" s="72"/>
     </row>
     <row r="74" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="126"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="128"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="131"/>
       <c r="G74" s="18"/>
       <c r="H74" s="25"/>
       <c r="I74" s="18"/>
@@ -13683,14 +13683,14 @@
       <c r="T74" s="72"/>
     </row>
     <row r="75" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="129" t="s">
+      <c r="A75" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="128"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="131"/>
       <c r="G75" s="18" t="s">
         <v>35</v>
       </c>
@@ -13726,14 +13726,14 @@
       <c r="T75" s="72"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="126" t="s">
+      <c r="A76" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="128"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="131"/>
       <c r="G76" s="18" t="s">
         <v>37</v>
       </c>
@@ -13769,14 +13769,14 @@
       <c r="T76" s="133"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="126" t="s">
+      <c r="A77" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="127"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="128"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="130"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="131"/>
       <c r="G77" s="18" t="s">
         <v>37</v>
       </c>
@@ -13812,14 +13812,14 @@
       <c r="T77" s="133"/>
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="128"/>
+      <c r="B78" s="130"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="131"/>
       <c r="G78" s="18" t="s">
         <v>37</v>
       </c>
@@ -13850,14 +13850,14 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1">
-      <c r="A79" s="126" t="s">
+      <c r="A79" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="127"/>
-      <c r="C79" s="127"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="128"/>
+      <c r="B79" s="130"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="131"/>
       <c r="G79" s="18" t="s">
         <v>38</v>
       </c>
@@ -13893,14 +13893,14 @@
       <c r="T79" s="133"/>
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1">
-      <c r="A80" s="126" t="s">
+      <c r="A80" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="127"/>
-      <c r="C80" s="127"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="128"/>
+      <c r="B80" s="130"/>
+      <c r="C80" s="130"/>
+      <c r="D80" s="130"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="131"/>
       <c r="G80" s="18" t="s">
         <v>38</v>
       </c>
@@ -13936,14 +13936,14 @@
       <c r="T80" s="133"/>
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1">
-      <c r="A81" s="126" t="s">
+      <c r="A81" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="B81" s="127"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="128"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="131"/>
       <c r="G81" s="18" t="s">
         <v>51</v>
       </c>
@@ -13979,12 +13979,12 @@
       <c r="T81" s="133"/>
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1">
-      <c r="A82" s="126"/>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="128"/>
+      <c r="A82" s="129"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="131"/>
       <c r="G82" s="18"/>
       <c r="H82" s="25"/>
       <c r="I82" s="18"/>
@@ -14016,14 +14016,14 @@
       <c r="T82" s="133"/>
     </row>
     <row r="83" spans="1:20" ht="15" customHeight="1">
-      <c r="A83" s="129" t="s">
+      <c r="A83" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="128"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="131"/>
       <c r="G83" s="18" t="s">
         <v>35</v>
       </c>
@@ -14059,14 +14059,14 @@
       <c r="T83" s="133"/>
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
-      <c r="A84" s="126" t="s">
+      <c r="A84" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="128"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="131"/>
       <c r="G84" s="18" t="s">
         <v>37</v>
       </c>
@@ -14102,14 +14102,14 @@
       <c r="T84" s="133"/>
     </row>
     <row r="85" spans="1:20" ht="15" customHeight="1">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="128"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="131"/>
       <c r="G85" s="18" t="s">
         <v>37</v>
       </c>
@@ -14145,14 +14145,14 @@
       <c r="T85" s="133"/>
     </row>
     <row r="86" spans="1:20" ht="15" customHeight="1">
-      <c r="A86" s="126" t="s">
+      <c r="A86" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="128"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="131"/>
       <c r="G86" s="18" t="s">
         <v>38</v>
       </c>
@@ -14188,14 +14188,14 @@
       <c r="T86" s="133"/>
     </row>
     <row r="87" spans="1:20" s="73" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="126" t="s">
+      <c r="A87" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="127"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="128"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="131"/>
       <c r="G87" s="18" t="s">
         <v>37</v>
       </c>
@@ -14231,14 +14231,14 @@
       <c r="T87" s="81"/>
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="127"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="128"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="131"/>
       <c r="G88" s="18" t="s">
         <v>38</v>
       </c>
@@ -14274,14 +14274,14 @@
       <c r="T88" s="81"/>
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1">
-      <c r="A89" s="126" t="s">
+      <c r="A89" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="128"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="131"/>
       <c r="G89" s="18" t="s">
         <v>37</v>
       </c>
@@ -14317,14 +14317,14 @@
       <c r="T89" s="81"/>
     </row>
     <row r="90" spans="1:20" ht="15" customHeight="1">
-      <c r="A90" s="126" t="s">
+      <c r="A90" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="128"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="131"/>
       <c r="G90" s="18" t="s">
         <v>51</v>
       </c>
@@ -14360,14 +14360,14 @@
       <c r="T90" s="133"/>
     </row>
     <row r="91" spans="1:20" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="126" t="s">
+      <c r="A91" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="127"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="128"/>
+      <c r="B91" s="130"/>
+      <c r="C91" s="130"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="131"/>
       <c r="G91" s="18" t="s">
         <v>51</v>
       </c>
@@ -14434,14 +14434,14 @@
       <c r="T92" s="133"/>
     </row>
     <row r="93" spans="1:20" ht="15" customHeight="1">
-      <c r="A93" s="129" t="s">
+      <c r="A93" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="127"/>
-      <c r="C93" s="127"/>
-      <c r="D93" s="127"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="128"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="131"/>
       <c r="G93" s="18" t="s">
         <v>35</v>
       </c>
@@ -14477,14 +14477,14 @@
       <c r="T93" s="133"/>
     </row>
     <row r="94" spans="1:20" ht="15" customHeight="1">
-      <c r="A94" s="126" t="s">
+      <c r="A94" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="127"/>
-      <c r="C94" s="127"/>
-      <c r="D94" s="127"/>
-      <c r="E94" s="127"/>
-      <c r="F94" s="128"/>
+      <c r="B94" s="130"/>
+      <c r="C94" s="130"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="130"/>
+      <c r="F94" s="131"/>
       <c r="G94" s="18" t="s">
         <v>37</v>
       </c>
@@ -14520,14 +14520,14 @@
       <c r="T94" s="133"/>
     </row>
     <row r="95" spans="1:20" ht="15" customHeight="1">
-      <c r="A95" s="126" t="s">
+      <c r="A95" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="127"/>
-      <c r="C95" s="127"/>
-      <c r="D95" s="127"/>
-      <c r="E95" s="127"/>
-      <c r="F95" s="128"/>
+      <c r="B95" s="130"/>
+      <c r="C95" s="130"/>
+      <c r="D95" s="130"/>
+      <c r="E95" s="130"/>
+      <c r="F95" s="131"/>
       <c r="G95" s="18" t="s">
         <v>37</v>
       </c>
@@ -14563,14 +14563,14 @@
       <c r="T95" s="133"/>
     </row>
     <row r="96" spans="1:20" ht="15" customHeight="1">
-      <c r="A96" s="126" t="s">
+      <c r="A96" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="127"/>
-      <c r="C96" s="127"/>
-      <c r="D96" s="127"/>
-      <c r="E96" s="127"/>
-      <c r="F96" s="128"/>
+      <c r="B96" s="130"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="131"/>
       <c r="G96" s="18" t="s">
         <v>38</v>
       </c>
@@ -14606,14 +14606,14 @@
       <c r="T96" s="133"/>
     </row>
     <row r="97" spans="1:20" ht="15" customHeight="1">
-      <c r="A97" s="126" t="s">
+      <c r="A97" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="127"/>
-      <c r="C97" s="127"/>
-      <c r="D97" s="127"/>
-      <c r="E97" s="127"/>
-      <c r="F97" s="128"/>
+      <c r="B97" s="130"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="131"/>
       <c r="G97" s="18" t="s">
         <v>37</v>
       </c>
@@ -14649,14 +14649,14 @@
       <c r="T97" s="133"/>
     </row>
     <row r="98" spans="1:20" ht="15" customHeight="1">
-      <c r="A98" s="126" t="s">
+      <c r="A98" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="127"/>
-      <c r="C98" s="127"/>
-      <c r="D98" s="127"/>
-      <c r="E98" s="127"/>
-      <c r="F98" s="128"/>
+      <c r="B98" s="130"/>
+      <c r="C98" s="130"/>
+      <c r="D98" s="130"/>
+      <c r="E98" s="130"/>
+      <c r="F98" s="131"/>
       <c r="G98" s="18" t="s">
         <v>38</v>
       </c>
@@ -14692,14 +14692,14 @@
       <c r="T98" s="133"/>
     </row>
     <row r="99" spans="1:20" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="126" t="s">
+      <c r="A99" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B99" s="127"/>
-      <c r="C99" s="127"/>
-      <c r="D99" s="127"/>
-      <c r="E99" s="127"/>
-      <c r="F99" s="128"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="130"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="130"/>
+      <c r="F99" s="131"/>
       <c r="G99" s="18" t="s">
         <v>51</v>
       </c>
@@ -14757,14 +14757,14 @@
       <c r="T100" s="87"/>
     </row>
     <row r="101" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="129" t="s">
+      <c r="A101" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="130"/>
-      <c r="C101" s="130"/>
-      <c r="D101" s="130"/>
-      <c r="E101" s="130"/>
-      <c r="F101" s="131"/>
+      <c r="B101" s="127"/>
+      <c r="C101" s="127"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="128"/>
       <c r="G101" s="18" t="s">
         <v>35</v>
       </c>
@@ -15047,14 +15047,14 @@
       <c r="T107" s="100"/>
     </row>
     <row r="108" spans="1:20" ht="15" customHeight="1">
-      <c r="A108" s="129" t="s">
+      <c r="A108" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="B108" s="130"/>
-      <c r="C108" s="130"/>
-      <c r="D108" s="130"/>
-      <c r="E108" s="130"/>
-      <c r="F108" s="131"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
+      <c r="F108" s="128"/>
       <c r="G108" s="18" t="s">
         <v>35</v>
       </c>
@@ -15266,14 +15266,14 @@
       <c r="T112" s="133"/>
     </row>
     <row r="113" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A113" s="126" t="s">
+      <c r="A113" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B113" s="127"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="128"/>
+      <c r="B113" s="130"/>
+      <c r="C113" s="130"/>
+      <c r="D113" s="130"/>
+      <c r="E113" s="130"/>
+      <c r="F113" s="131"/>
       <c r="G113" s="18" t="s">
         <v>38</v>
       </c>
@@ -15374,14 +15374,14 @@
       <c r="T115" s="100"/>
     </row>
     <row r="116" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A116" s="129" t="s">
+      <c r="A116" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="130"/>
-      <c r="C116" s="130"/>
-      <c r="D116" s="130"/>
-      <c r="E116" s="130"/>
-      <c r="F116" s="131"/>
+      <c r="B116" s="127"/>
+      <c r="C116" s="127"/>
+      <c r="D116" s="127"/>
+      <c r="E116" s="127"/>
+      <c r="F116" s="128"/>
       <c r="G116" s="18" t="s">
         <v>35</v>
       </c>
@@ -15417,14 +15417,14 @@
       <c r="T116" s="87"/>
     </row>
     <row r="117" spans="1:20" ht="15" customHeight="1">
-      <c r="A117" s="126" t="s">
+      <c r="A117" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B117" s="127"/>
-      <c r="C117" s="127"/>
-      <c r="D117" s="127"/>
-      <c r="E117" s="127"/>
-      <c r="F117" s="128"/>
+      <c r="B117" s="130"/>
+      <c r="C117" s="130"/>
+      <c r="D117" s="130"/>
+      <c r="E117" s="130"/>
+      <c r="F117" s="131"/>
       <c r="G117" s="18" t="s">
         <v>37</v>
       </c>
@@ -15462,14 +15462,14 @@
       <c r="T117" s="133"/>
     </row>
     <row r="118" spans="1:20" ht="15" customHeight="1">
-      <c r="A118" s="126" t="s">
+      <c r="A118" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="127"/>
-      <c r="C118" s="127"/>
-      <c r="D118" s="127"/>
-      <c r="E118" s="127"/>
-      <c r="F118" s="128"/>
+      <c r="B118" s="130"/>
+      <c r="C118" s="130"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="131"/>
       <c r="G118" s="18" t="s">
         <v>37</v>
       </c>
@@ -15502,14 +15502,14 @@
       </c>
     </row>
     <row r="119" spans="1:20" ht="15" customHeight="1">
-      <c r="A119" s="126" t="s">
+      <c r="A119" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="127"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="127"/>
-      <c r="E119" s="127"/>
-      <c r="F119" s="128"/>
+      <c r="B119" s="130"/>
+      <c r="C119" s="130"/>
+      <c r="D119" s="130"/>
+      <c r="E119" s="130"/>
+      <c r="F119" s="131"/>
       <c r="G119" s="18" t="s">
         <v>37</v>
       </c>
@@ -15540,14 +15540,14 @@
       </c>
     </row>
     <row r="120" spans="1:20" ht="15" customHeight="1">
-      <c r="A120" s="126" t="s">
+      <c r="A120" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="B120" s="127"/>
-      <c r="C120" s="127"/>
-      <c r="D120" s="127"/>
-      <c r="E120" s="127"/>
-      <c r="F120" s="128"/>
+      <c r="B120" s="130"/>
+      <c r="C120" s="130"/>
+      <c r="D120" s="130"/>
+      <c r="E120" s="130"/>
+      <c r="F120" s="131"/>
       <c r="G120" s="18" t="s">
         <v>38</v>
       </c>
@@ -15578,14 +15578,14 @@
       </c>
     </row>
     <row r="121" spans="1:20" ht="15" customHeight="1">
-      <c r="A121" s="126" t="s">
+      <c r="A121" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="B121" s="127"/>
-      <c r="C121" s="127"/>
-      <c r="D121" s="127"/>
-      <c r="E121" s="127"/>
-      <c r="F121" s="128"/>
+      <c r="B121" s="130"/>
+      <c r="C121" s="130"/>
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="131"/>
       <c r="G121" s="18" t="s">
         <v>37</v>
       </c>
@@ -15616,14 +15616,14 @@
       </c>
     </row>
     <row r="122" spans="1:20" ht="15" customHeight="1">
-      <c r="A122" s="126" t="s">
+      <c r="A122" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="B122" s="127"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
-      <c r="F122" s="128"/>
+      <c r="B122" s="130"/>
+      <c r="C122" s="130"/>
+      <c r="D122" s="130"/>
+      <c r="E122" s="130"/>
+      <c r="F122" s="131"/>
       <c r="G122" s="18" t="s">
         <v>51</v>
       </c>
@@ -15654,12 +15654,12 @@
       </c>
     </row>
     <row r="123" spans="1:20" ht="15" customHeight="1">
-      <c r="A123" s="126"/>
-      <c r="B123" s="127"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
-      <c r="F123" s="128"/>
+      <c r="A123" s="129"/>
+      <c r="B123" s="130"/>
+      <c r="C123" s="130"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="130"/>
+      <c r="F123" s="131"/>
       <c r="G123" s="18"/>
       <c r="H123" s="25"/>
       <c r="I123" s="18"/>
@@ -15686,14 +15686,14 @@
       </c>
     </row>
     <row r="124" spans="1:20" ht="15" customHeight="1">
-      <c r="A124" s="129" t="s">
+      <c r="A124" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="130"/>
-      <c r="C124" s="130"/>
-      <c r="D124" s="130"/>
-      <c r="E124" s="130"/>
-      <c r="F124" s="131"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="128"/>
       <c r="G124" s="18" t="s">
         <v>35</v>
       </c>
@@ -15724,14 +15724,14 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="15" customHeight="1">
-      <c r="A125" s="126" t="s">
+      <c r="A125" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="127"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
-      <c r="F125" s="128"/>
+      <c r="B125" s="130"/>
+      <c r="C125" s="130"/>
+      <c r="D125" s="130"/>
+      <c r="E125" s="130"/>
+      <c r="F125" s="131"/>
       <c r="G125" s="18" t="s">
         <v>51</v>
       </c>
@@ -15762,14 +15762,14 @@
       </c>
     </row>
     <row r="126" spans="1:20" ht="15" customHeight="1">
-      <c r="A126" s="126" t="s">
+      <c r="A126" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="B126" s="127"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="128"/>
+      <c r="B126" s="130"/>
+      <c r="C126" s="130"/>
+      <c r="D126" s="130"/>
+      <c r="E126" s="130"/>
+      <c r="F126" s="131"/>
       <c r="G126" s="18" t="s">
         <v>51</v>
       </c>
@@ -15800,14 +15800,14 @@
       </c>
     </row>
     <row r="127" spans="1:20" ht="15" customHeight="1">
-      <c r="A127" s="126" t="s">
+      <c r="A127" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="B127" s="127"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
-      <c r="F127" s="128"/>
+      <c r="B127" s="130"/>
+      <c r="C127" s="130"/>
+      <c r="D127" s="130"/>
+      <c r="E127" s="130"/>
+      <c r="F127" s="131"/>
       <c r="G127" s="18" t="s">
         <v>51</v>
       </c>
@@ -15838,14 +15838,14 @@
       </c>
     </row>
     <row r="128" spans="1:20" ht="15" customHeight="1">
-      <c r="A128" s="126" t="s">
+      <c r="A128" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B128" s="127"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
-      <c r="F128" s="128"/>
+      <c r="B128" s="130"/>
+      <c r="C128" s="130"/>
+      <c r="D128" s="130"/>
+      <c r="E128" s="130"/>
+      <c r="F128" s="131"/>
       <c r="G128" s="18" t="s">
         <v>51</v>
       </c>
@@ -15931,22 +15931,26 @@
       <c r="O130" s="22"/>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1">
-      <c r="A131" s="126" t="s">
+      <c r="A131" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="127"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
-      <c r="F131" s="128"/>
+      <c r="B131" s="130"/>
+      <c r="C131" s="130"/>
+      <c r="D131" s="130"/>
+      <c r="E131" s="130"/>
+      <c r="F131" s="131"/>
       <c r="G131" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H131" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
+      <c r="I131" s="18">
+        <v>1</v>
+      </c>
+      <c r="J131" s="18">
+        <v>1</v>
+      </c>
       <c r="K131" s="18" t="str">
         <f t="shared" ref="K131" si="86">CONCATENATE(G131,L131)</f>
         <v>AIEL</v>
@@ -15970,38 +15974,135 @@
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A50:F50"/>
@@ -16026,135 +16127,38 @@
     <mergeCell ref="P45:T45"/>
     <mergeCell ref="P46:T46"/>
     <mergeCell ref="P47:T47"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A122:F122"/>
   </mergeCells>
   <conditionalFormatting sqref="H8 H18 H74 H49 H66 H57 H41 H33">
     <cfRule type="cellIs" dxfId="344" priority="601" operator="equal">
@@ -17913,87 +17917,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="155"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="156"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="158"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="159" t="str">
+      <c r="A4" s="151" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="103"/>
       <c r="F4" s="162" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
       <c r="L4" s="163"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="159" t="str">
+      <c r="A5" s="151" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="162" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="163"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
@@ -18009,13 +18013,13 @@
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="113"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="165" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 257.500,00</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="103"/>
       <c r="K6" s="164" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 515</v>
@@ -18026,13 +18030,13 @@
       <c r="A7" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="160" t="s">
         <v>42</v>
       </c>
@@ -18045,18 +18049,18 @@
       <c r="L7" s="161"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="157"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="158"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="159"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -18952,11 +18956,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="112"/>
-      <c r="D55" s="113"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="103"/>
       <c r="E55" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"I",Funções!$N$8:$N$131)</f>
         <v>515</v>
@@ -18979,11 +18983,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="112"/>
-      <c r="D56" s="113"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="103"/>
       <c r="E56" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"A",Funções!$N$8:$N$131)</f>
         <v>0</v>
@@ -19007,11 +19011,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="112"/>
-      <c r="D57" s="113"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="103"/>
       <c r="E57" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"E",Funções!$N$8:$N$131)</f>
         <v>0</v>
@@ -19032,11 +19036,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="151" t="s">
+      <c r="B58" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="112"/>
-      <c r="D58" s="113"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="103"/>
       <c r="E58" s="48">
         <f>SUMIF(Funções!$H$8:$H$131,"T",Funções!$N$8:$N$131)</f>
         <v>0</v>
@@ -19071,6 +19075,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -19087,8 +19093,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
+++ b/2 - Requisitos/2.5 - Planilha_de_Contagem/005 - SouzaCar - APF.xlsx
@@ -58,6 +58,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>Paulo César</author>
   </authors>
   <commentList>
     <comment ref="A7" authorId="0" shapeId="0">
@@ -137,6 +138,41 @@
 -nome
 -senha
 -perfil</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Paulo César:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IdVenda
+Conta
+OS
+Prestador de Serviço
+Veiculo
+Cliente
+itens
+data
+total
+total de desconto
+total a pagar
+MSG</t>
         </r>
       </text>
     </comment>
@@ -239,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="165">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -729,6 +765,12 @@
   <si>
     <t>Cancelar orçamento</t>
   </si>
+  <si>
+    <t>Lista de lançamentos</t>
+  </si>
+  <si>
+    <t>Lista de venda</t>
+  </si>
 </sst>
 </file>
 
@@ -739,7 +781,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -845,6 +887,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1595,8 +1650,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1606,14 +1677,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1621,33 +1696,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1659,19 +1711,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1750,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1716,9 +1777,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,9 +1793,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8211,36 +8266,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="118"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="126"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -8249,34 +8304,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="121"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="129"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -8286,34 +8341,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="132"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -8323,47 +8378,47 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="131" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="128" t="s">
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="127"/>
+      <c r="S4" s="117"/>
       <c r="T4" s="2">
         <v>500</v>
       </c>
-      <c r="U4" s="128" t="s">
+      <c r="U4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="127"/>
-      <c r="W4" s="130">
+      <c r="V4" s="117"/>
+      <c r="W4" s="138">
         <f>W5*T4</f>
-        <v>260000</v>
-      </c>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="127"/>
+        <v>259000</v>
+      </c>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="117"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -8373,41 +8428,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="128" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="127"/>
-      <c r="W5" s="132">
+      <c r="V5" s="117"/>
+      <c r="W5" s="120">
         <f>SUM(Y11:Y14)</f>
-        <v>520</v>
-      </c>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="127"/>
+        <v>518</v>
+      </c>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="117"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -8417,36 +8472,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="127"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="117"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -8456,40 +8511,40 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="138" t="s">
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="126"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="127"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="117"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -8499,38 +8554,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="138" t="s">
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="126"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="127"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="117"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -8576,46 +8631,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="137" t="s">
+      <c r="B10" s="126"/>
+      <c r="C10" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="135" t="s">
+      <c r="O10" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="128" t="s">
+      <c r="P10" s="125"/>
+      <c r="Q10" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128" t="s">
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="128" t="s">
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="127"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="117"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -8625,46 +8680,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="137" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="117"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="138" t="s">
+      <c r="O11" s="127"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="127"/>
-      <c r="S11" s="132">
+      <c r="R11" s="117"/>
+      <c r="S11" s="120">
         <f>Sumário!E55</f>
-        <v>520</v>
-      </c>
-      <c r="T11" s="127"/>
-      <c r="U11" s="136">
+        <v>518</v>
+      </c>
+      <c r="T11" s="117"/>
+      <c r="U11" s="121">
         <v>1</v>
       </c>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="132">
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="120">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>520</v>
-      </c>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="127"/>
+        <v>518</v>
+      </c>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="117"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -8674,46 +8729,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="137" t="s">
+      <c r="A12" s="127"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="138" t="s">
+      <c r="O12" s="127"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="126"/>
-      <c r="S12" s="132">
+      <c r="R12" s="119"/>
+      <c r="S12" s="120">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="127"/>
-      <c r="U12" s="136">
+      <c r="T12" s="117"/>
+      <c r="U12" s="121">
         <v>1</v>
       </c>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="132">
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="127"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="117"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -8723,46 +8778,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="137" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="117"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="138" t="s">
+      <c r="O13" s="127"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="126"/>
-      <c r="S13" s="132">
+      <c r="R13" s="119"/>
+      <c r="S13" s="120">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="127"/>
-      <c r="U13" s="136">
+      <c r="T13" s="117"/>
+      <c r="U13" s="121">
         <v>1</v>
       </c>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="132">
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="127"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="117"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -8772,8 +8827,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -8786,26 +8841,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="132">
+      <c r="O14" s="130"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="120">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="127"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="132">
+      <c r="T14" s="117"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="120">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="127"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="117"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -8865,17 +8920,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="134" t="s">
+      <c r="K16" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -8894,34 +8949,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="133"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="118"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="126"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -8931,34 +8986,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="121"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="129"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -8968,34 +9023,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="121"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="129"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -9005,34 +9060,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="121"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="129"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -9042,34 +9097,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="121"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="129"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -9079,34 +9134,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="121"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="129"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -9116,34 +9171,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="121"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="129"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -9153,34 +9208,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="119"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="121"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="129"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -9190,34 +9245,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="121"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="129"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -9227,34 +9282,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="119"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="121"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="129"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -9264,34 +9319,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="121"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="129"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -9301,34 +9356,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="119"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="121"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="129"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -9338,34 +9393,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="119"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="121"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="129"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -9375,34 +9430,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="119"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="121"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="129"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -9412,34 +9467,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="119"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="121"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="129"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -9449,34 +9504,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="119"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="121"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="129"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -9486,34 +9541,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="121"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="129"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -9523,34 +9578,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="119"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="121"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="129"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -9560,34 +9615,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="120"/>
-      <c r="Z35" s="120"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="121"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="129"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -9597,34 +9652,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120"/>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="120"/>
-      <c r="AB36" s="121"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="128"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
+      <c r="Y36" s="128"/>
+      <c r="Z36" s="128"/>
+      <c r="AA36" s="128"/>
+      <c r="AB36" s="129"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -9634,34 +9689,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="120"/>
-      <c r="T37" s="120"/>
-      <c r="U37" s="120"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="120"/>
-      <c r="Y37" s="120"/>
-      <c r="Z37" s="120"/>
-      <c r="AA37" s="120"/>
-      <c r="AB37" s="121"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="128"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="128"/>
+      <c r="Y37" s="128"/>
+      <c r="Z37" s="128"/>
+      <c r="AA37" s="128"/>
+      <c r="AB37" s="129"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -9671,34 +9726,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="122"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="123"/>
-      <c r="U38" s="123"/>
-      <c r="V38" s="123"/>
-      <c r="W38" s="123"/>
-      <c r="X38" s="123"/>
-      <c r="Y38" s="123"/>
-      <c r="Z38" s="123"/>
-      <c r="AA38" s="123"/>
-      <c r="AB38" s="124"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="131"/>
+      <c r="Q38" s="131"/>
+      <c r="R38" s="131"/>
+      <c r="S38" s="131"/>
+      <c r="T38" s="131"/>
+      <c r="U38" s="131"/>
+      <c r="V38" s="131"/>
+      <c r="W38" s="131"/>
+      <c r="X38" s="131"/>
+      <c r="Y38" s="131"/>
+      <c r="Z38" s="131"/>
+      <c r="AA38" s="131"/>
+      <c r="AB38" s="132"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -9755,17 +9810,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="134" t="s">
+      <c r="K40" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="123"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -9784,34 +9839,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="133"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117"/>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="117"/>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="118"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="125"/>
+      <c r="Y41" s="125"/>
+      <c r="Z41" s="125"/>
+      <c r="AA41" s="125"/>
+      <c r="AB41" s="126"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -9821,34 +9876,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="119"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="120"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="120"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="120"/>
-      <c r="Z42" s="120"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="121"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="128"/>
+      <c r="W42" s="128"/>
+      <c r="X42" s="128"/>
+      <c r="Y42" s="128"/>
+      <c r="Z42" s="128"/>
+      <c r="AA42" s="128"/>
+      <c r="AB42" s="129"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -9858,34 +9913,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="119"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="121"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="128"/>
+      <c r="W43" s="128"/>
+      <c r="X43" s="128"/>
+      <c r="Y43" s="128"/>
+      <c r="Z43" s="128"/>
+      <c r="AA43" s="128"/>
+      <c r="AB43" s="129"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -9895,34 +9950,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="120"/>
-      <c r="T44" s="120"/>
-      <c r="U44" s="120"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="120"/>
-      <c r="X44" s="120"/>
-      <c r="Y44" s="120"/>
-      <c r="Z44" s="120"/>
-      <c r="AA44" s="120"/>
-      <c r="AB44" s="121"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+      <c r="S44" s="128"/>
+      <c r="T44" s="128"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="128"/>
+      <c r="W44" s="128"/>
+      <c r="X44" s="128"/>
+      <c r="Y44" s="128"/>
+      <c r="Z44" s="128"/>
+      <c r="AA44" s="128"/>
+      <c r="AB44" s="129"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -9932,34 +9987,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="119"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="120"/>
-      <c r="U45" s="120"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="120"/>
-      <c r="X45" s="120"/>
-      <c r="Y45" s="120"/>
-      <c r="Z45" s="120"/>
-      <c r="AA45" s="120"/>
-      <c r="AB45" s="121"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="128"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+      <c r="S45" s="128"/>
+      <c r="T45" s="128"/>
+      <c r="U45" s="128"/>
+      <c r="V45" s="128"/>
+      <c r="W45" s="128"/>
+      <c r="X45" s="128"/>
+      <c r="Y45" s="128"/>
+      <c r="Z45" s="128"/>
+      <c r="AA45" s="128"/>
+      <c r="AB45" s="129"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -9969,34 +10024,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="119"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="120"/>
-      <c r="U46" s="120"/>
-      <c r="V46" s="120"/>
-      <c r="W46" s="120"/>
-      <c r="X46" s="120"/>
-      <c r="Y46" s="120"/>
-      <c r="Z46" s="120"/>
-      <c r="AA46" s="120"/>
-      <c r="AB46" s="121"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="128"/>
+      <c r="V46" s="128"/>
+      <c r="W46" s="128"/>
+      <c r="X46" s="128"/>
+      <c r="Y46" s="128"/>
+      <c r="Z46" s="128"/>
+      <c r="AA46" s="128"/>
+      <c r="AB46" s="129"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -10006,34 +10061,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="119"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="120"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="120"/>
-      <c r="X47" s="120"/>
-      <c r="Y47" s="120"/>
-      <c r="Z47" s="120"/>
-      <c r="AA47" s="120"/>
-      <c r="AB47" s="121"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="128"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="128"/>
+      <c r="S47" s="128"/>
+      <c r="T47" s="128"/>
+      <c r="U47" s="128"/>
+      <c r="V47" s="128"/>
+      <c r="W47" s="128"/>
+      <c r="X47" s="128"/>
+      <c r="Y47" s="128"/>
+      <c r="Z47" s="128"/>
+      <c r="AA47" s="128"/>
+      <c r="AB47" s="129"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -10043,34 +10098,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="119"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="120"/>
-      <c r="T48" s="120"/>
-      <c r="U48" s="120"/>
-      <c r="V48" s="120"/>
-      <c r="W48" s="120"/>
-      <c r="X48" s="120"/>
-      <c r="Y48" s="120"/>
-      <c r="Z48" s="120"/>
-      <c r="AA48" s="120"/>
-      <c r="AB48" s="121"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="128"/>
+      <c r="U48" s="128"/>
+      <c r="V48" s="128"/>
+      <c r="W48" s="128"/>
+      <c r="X48" s="128"/>
+      <c r="Y48" s="128"/>
+      <c r="Z48" s="128"/>
+      <c r="AA48" s="128"/>
+      <c r="AB48" s="129"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -10080,34 +10135,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="120"/>
-      <c r="T49" s="120"/>
-      <c r="U49" s="120"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="120"/>
-      <c r="X49" s="120"/>
-      <c r="Y49" s="120"/>
-      <c r="Z49" s="120"/>
-      <c r="AA49" s="120"/>
-      <c r="AB49" s="121"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="128"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="128"/>
+      <c r="S49" s="128"/>
+      <c r="T49" s="128"/>
+      <c r="U49" s="128"/>
+      <c r="V49" s="128"/>
+      <c r="W49" s="128"/>
+      <c r="X49" s="128"/>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="128"/>
+      <c r="AA49" s="128"/>
+      <c r="AB49" s="129"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -10117,34 +10172,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="119"/>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="120"/>
-      <c r="T50" s="120"/>
-      <c r="U50" s="120"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="120"/>
-      <c r="X50" s="120"/>
-      <c r="Y50" s="120"/>
-      <c r="Z50" s="120"/>
-      <c r="AA50" s="120"/>
-      <c r="AB50" s="121"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="128"/>
+      <c r="O50" s="128"/>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="128"/>
+      <c r="R50" s="128"/>
+      <c r="S50" s="128"/>
+      <c r="T50" s="128"/>
+      <c r="U50" s="128"/>
+      <c r="V50" s="128"/>
+      <c r="W50" s="128"/>
+      <c r="X50" s="128"/>
+      <c r="Y50" s="128"/>
+      <c r="Z50" s="128"/>
+      <c r="AA50" s="128"/>
+      <c r="AB50" s="129"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -10154,34 +10209,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="119"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="120"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="120"/>
-      <c r="T51" s="120"/>
-      <c r="U51" s="120"/>
-      <c r="V51" s="120"/>
-      <c r="W51" s="120"/>
-      <c r="X51" s="120"/>
-      <c r="Y51" s="120"/>
-      <c r="Z51" s="120"/>
-      <c r="AA51" s="120"/>
-      <c r="AB51" s="121"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="128"/>
+      <c r="T51" s="128"/>
+      <c r="U51" s="128"/>
+      <c r="V51" s="128"/>
+      <c r="W51" s="128"/>
+      <c r="X51" s="128"/>
+      <c r="Y51" s="128"/>
+      <c r="Z51" s="128"/>
+      <c r="AA51" s="128"/>
+      <c r="AB51" s="129"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -10191,34 +10246,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="119"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="120"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="120"/>
-      <c r="T52" s="120"/>
-      <c r="U52" s="120"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="120"/>
-      <c r="X52" s="120"/>
-      <c r="Y52" s="120"/>
-      <c r="Z52" s="120"/>
-      <c r="AA52" s="120"/>
-      <c r="AB52" s="121"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="128"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="128"/>
+      <c r="Y52" s="128"/>
+      <c r="Z52" s="128"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="129"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -10228,34 +10283,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="120"/>
-      <c r="S53" s="120"/>
-      <c r="T53" s="120"/>
-      <c r="U53" s="120"/>
-      <c r="V53" s="120"/>
-      <c r="W53" s="120"/>
-      <c r="X53" s="120"/>
-      <c r="Y53" s="120"/>
-      <c r="Z53" s="120"/>
-      <c r="AA53" s="120"/>
-      <c r="AB53" s="121"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="128"/>
+      <c r="Z53" s="128"/>
+      <c r="AA53" s="128"/>
+      <c r="AB53" s="129"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -10265,34 +10320,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="119"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="120"/>
-      <c r="S54" s="120"/>
-      <c r="T54" s="120"/>
-      <c r="U54" s="120"/>
-      <c r="V54" s="120"/>
-      <c r="W54" s="120"/>
-      <c r="X54" s="120"/>
-      <c r="Y54" s="120"/>
-      <c r="Z54" s="120"/>
-      <c r="AA54" s="120"/>
-      <c r="AB54" s="121"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="128"/>
+      <c r="U54" s="128"/>
+      <c r="V54" s="128"/>
+      <c r="W54" s="128"/>
+      <c r="X54" s="128"/>
+      <c r="Y54" s="128"/>
+      <c r="Z54" s="128"/>
+      <c r="AA54" s="128"/>
+      <c r="AB54" s="129"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -10302,34 +10357,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="120"/>
-      <c r="T55" s="120"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120"/>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120"/>
-      <c r="AB55" s="121"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="128"/>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="128"/>
+      <c r="Z55" s="128"/>
+      <c r="AA55" s="128"/>
+      <c r="AB55" s="129"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -10339,34 +10394,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="119"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="120"/>
-      <c r="S56" s="120"/>
-      <c r="T56" s="120"/>
-      <c r="U56" s="120"/>
-      <c r="V56" s="120"/>
-      <c r="W56" s="120"/>
-      <c r="X56" s="120"/>
-      <c r="Y56" s="120"/>
-      <c r="Z56" s="120"/>
-      <c r="AA56" s="120"/>
-      <c r="AB56" s="121"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="128"/>
+      <c r="T56" s="128"/>
+      <c r="U56" s="128"/>
+      <c r="V56" s="128"/>
+      <c r="W56" s="128"/>
+      <c r="X56" s="128"/>
+      <c r="Y56" s="128"/>
+      <c r="Z56" s="128"/>
+      <c r="AA56" s="128"/>
+      <c r="AB56" s="129"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -10376,34 +10431,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="119"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="120"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="120"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="121"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="128"/>
+      <c r="T57" s="128"/>
+      <c r="U57" s="128"/>
+      <c r="V57" s="128"/>
+      <c r="W57" s="128"/>
+      <c r="X57" s="128"/>
+      <c r="Y57" s="128"/>
+      <c r="Z57" s="128"/>
+      <c r="AA57" s="128"/>
+      <c r="AB57" s="129"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -10413,34 +10468,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="119"/>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="120"/>
-      <c r="T58" s="120"/>
-      <c r="U58" s="120"/>
-      <c r="V58" s="120"/>
-      <c r="W58" s="120"/>
-      <c r="X58" s="120"/>
-      <c r="Y58" s="120"/>
-      <c r="Z58" s="120"/>
-      <c r="AA58" s="120"/>
-      <c r="AB58" s="121"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="128"/>
+      <c r="V58" s="128"/>
+      <c r="W58" s="128"/>
+      <c r="X58" s="128"/>
+      <c r="Y58" s="128"/>
+      <c r="Z58" s="128"/>
+      <c r="AA58" s="128"/>
+      <c r="AB58" s="129"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -10450,34 +10505,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="119"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="120"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="120"/>
-      <c r="R59" s="120"/>
-      <c r="S59" s="120"/>
-      <c r="T59" s="120"/>
-      <c r="U59" s="120"/>
-      <c r="V59" s="120"/>
-      <c r="W59" s="120"/>
-      <c r="X59" s="120"/>
-      <c r="Y59" s="120"/>
-      <c r="Z59" s="120"/>
-      <c r="AA59" s="120"/>
-      <c r="AB59" s="121"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="128"/>
+      <c r="O59" s="128"/>
+      <c r="P59" s="128"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="128"/>
+      <c r="S59" s="128"/>
+      <c r="T59" s="128"/>
+      <c r="U59" s="128"/>
+      <c r="V59" s="128"/>
+      <c r="W59" s="128"/>
+      <c r="X59" s="128"/>
+      <c r="Y59" s="128"/>
+      <c r="Z59" s="128"/>
+      <c r="AA59" s="128"/>
+      <c r="AB59" s="129"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -10487,34 +10542,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="122"/>
-      <c r="B60" s="123"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="123"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="123"/>
-      <c r="L60" s="123"/>
-      <c r="M60" s="123"/>
-      <c r="N60" s="123"/>
-      <c r="O60" s="123"/>
-      <c r="P60" s="123"/>
-      <c r="Q60" s="123"/>
-      <c r="R60" s="123"/>
-      <c r="S60" s="123"/>
-      <c r="T60" s="123"/>
-      <c r="U60" s="123"/>
-      <c r="V60" s="123"/>
-      <c r="W60" s="123"/>
-      <c r="X60" s="123"/>
-      <c r="Y60" s="123"/>
-      <c r="Z60" s="123"/>
-      <c r="AA60" s="123"/>
-      <c r="AB60" s="124"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="131"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="131"/>
+      <c r="P60" s="131"/>
+      <c r="Q60" s="131"/>
+      <c r="R60" s="131"/>
+      <c r="S60" s="131"/>
+      <c r="T60" s="131"/>
+      <c r="U60" s="131"/>
+      <c r="V60" s="131"/>
+      <c r="W60" s="131"/>
+      <c r="X60" s="131"/>
+      <c r="Y60" s="131"/>
+      <c r="Z60" s="131"/>
+      <c r="AA60" s="131"/>
+      <c r="AB60" s="132"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -10562,13 +10617,32 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="F7:T7"/>
     <mergeCell ref="X7:AB7"/>
     <mergeCell ref="X8:AB8"/>
     <mergeCell ref="F6:AB6"/>
@@ -10585,32 +10659,13 @@
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="U12:X12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -10626,8 +10681,8 @@
   <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -10650,23 +10705,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -10674,21 +10729,21 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -10696,21 +10751,21 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="154"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -10718,89 +10773,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="151" t="str">
+      <c r="A4" s="148" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="155" t="str">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="152" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="127"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="159" t="str">
+      <c r="A5" s="156" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="155" t="str">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="152" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="127"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="117"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="159" t="str">
+      <c r="A6" s="156" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : Souza Car</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="155" t="str">
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="152" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="160" t="str">
+      <c r="G6" s="117"/>
+      <c r="H6" s="157" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 260.000,00</v>
-      </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="156" t="str">
+        <v xml:space="preserve"> Custo= R$ 259.000,00</v>
+      </c>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="153" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 520</v>
-      </c>
-      <c r="O6" s="157"/>
+        <v>PF  = 518</v>
+      </c>
+      <c r="O6" s="154"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -10808,14 +10863,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="127"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -10843,23 +10898,23 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="163" t="s">
+      <c r="P7" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
       <c r="G8" s="16" t="s">
         <v>35</v>
       </c>
@@ -10888,21 +10943,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="16" t="s">
         <v>37</v>
       </c>
@@ -10931,21 +10986,21 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="16" t="s">
         <v>37</v>
       </c>
@@ -10974,21 +11029,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="147"/>
       <c r="G11" s="16" t="s">
         <v>37</v>
       </c>
@@ -11017,21 +11072,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
       <c r="G12" s="18" t="s">
         <v>38</v>
       </c>
@@ -11060,21 +11115,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="18" t="s">
         <v>56</v>
       </c>
@@ -11110,14 +11165,14 @@
       <c r="T13" s="24"/>
     </row>
     <row r="14" spans="1:20" s="77" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
       <c r="G14" s="18" t="s">
         <v>38</v>
       </c>
@@ -11153,14 +11208,14 @@
       <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20" s="77" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="147"/>
       <c r="G15" s="18" t="s">
         <v>51</v>
       </c>
@@ -11233,30 +11288,30 @@
         <v>36</v>
       </c>
       <c r="I17" s="18">
+        <v>6</v>
+      </c>
+      <c r="J17" s="18">
         <v>1</v>
-      </c>
-      <c r="J17" s="18">
-        <v>6</v>
       </c>
       <c r="K17" s="18" t="str">
         <f t="shared" ref="K17" si="12">CONCATENATE(G17,L17)</f>
-        <v>ALIA</v>
+        <v>ALIL</v>
       </c>
       <c r="L17" s="19" t="str">
         <f t="shared" ref="L17" si="13">IF(OR(ISBLANK(I17),ISBLANK(J17)),IF(OR(G17="ALI",G17="AIE"),"L",IF(ISBLANK(G17),"","A")),IF(G17="EE",IF(J17&gt;=3,IF(I17&gt;=5,"H","A"),IF(J17&gt;=2,IF(I17&gt;=16,"H",IF(I17&lt;=4,"L","A")),IF(I17&lt;=15,"L","A"))),IF(OR(G17="SE",G17="CE"),IF(J17&gt;=4,IF(I17&gt;=6,"H","A"),IF(J17&gt;=2,IF(I17&gt;=20,"H",IF(I17&lt;=5,"L","A")),IF(I17&lt;=19,"L","A"))),IF(OR(G17="ALI",G17="AIE"),IF(J17&gt;=6,IF(I17&gt;=20,"H","A"),IF(J17&gt;=2,IF(I17&gt;=51,"H",IF(I17&lt;=19,"L","A")),IF(I17&lt;=50,"L","A")))))))</f>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M17" s="20" t="str">
         <f t="shared" ref="M17" si="14">IF(L17="L","Baixa",IF(L17="A","Média",IF(L17="","","Alta")))</f>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N17" s="21">
         <f t="shared" ref="N17" si="15">IF(ISBLANK(G17),"",IF(G17="ALI",IF(L17="L",7,IF(L17="A",10,15)),IF(G17="AIE",IF(L17="L",5,IF(L17="A",7,10)),IF(G17="SE",IF(L17="L",4,IF(L17="A",5,7)),IF(OR(G17="EE",G17="CE"),IF(L17="L",3,IF(L17="A",4,6)))))))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O17" s="22">
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P17" s="103"/>
       <c r="Q17" s="104"/>
@@ -11280,30 +11335,30 @@
         <v>36</v>
       </c>
       <c r="I18" s="18">
+        <v>6</v>
+      </c>
+      <c r="J18" s="18">
         <v>1</v>
-      </c>
-      <c r="J18" s="18">
-        <v>6</v>
       </c>
       <c r="K18" s="18" t="str">
         <f t="shared" ref="K18:K21" si="16">CONCATENATE(G18,L18)</f>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L18" s="19" t="str">
         <f t="shared" ref="L18:L21" si="17">IF(OR(ISBLANK(I18),ISBLANK(J18)),IF(OR(G18="ALI",G18="AIE"),"L",IF(ISBLANK(G18),"","A")),IF(G18="EE",IF(J18&gt;=3,IF(I18&gt;=5,"H","A"),IF(J18&gt;=2,IF(I18&gt;=16,"H",IF(I18&lt;=4,"L","A")),IF(I18&lt;=15,"L","A"))),IF(OR(G18="SE",G18="CE"),IF(J18&gt;=4,IF(I18&gt;=6,"H","A"),IF(J18&gt;=2,IF(I18&gt;=20,"H",IF(I18&lt;=5,"L","A")),IF(I18&lt;=19,"L","A"))),IF(OR(G18="ALI",G18="AIE"),IF(J18&gt;=6,IF(I18&gt;=20,"H","A"),IF(J18&gt;=2,IF(I18&gt;=51,"H",IF(I18&lt;=19,"L","A")),IF(I18&lt;=50,"L","A")))))))</f>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M18" s="20" t="str">
         <f t="shared" ref="M18:M21" si="18">IF(L18="L","Baixa",IF(L18="A","Média",IF(L18="","","Alta")))</f>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N18" s="21">
         <f t="shared" ref="N18:N21" si="19">IF(ISBLANK(G18),"",IF(G18="ALI",IF(L18="L",7,IF(L18="A",10,15)),IF(G18="AIE",IF(L18="L",5,IF(L18="A",7,10)),IF(G18="SE",IF(L18="L",4,IF(L18="A",5,7)),IF(OR(G18="EE",G18="CE"),IF(L18="L",3,IF(L18="A",4,6)))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O18" s="22">
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18" s="103"/>
       <c r="Q18" s="104"/>
@@ -11327,30 +11382,30 @@
         <v>36</v>
       </c>
       <c r="I19" s="18">
+        <v>6</v>
+      </c>
+      <c r="J19" s="18">
         <v>1</v>
-      </c>
-      <c r="J19" s="18">
-        <v>6</v>
       </c>
       <c r="K19" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L19" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M19" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N19" s="21">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" s="22">
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P19" s="103"/>
       <c r="Q19" s="104"/>
@@ -11374,30 +11429,30 @@
         <v>36</v>
       </c>
       <c r="I20" s="18">
+        <v>2</v>
+      </c>
+      <c r="J20" s="18">
         <v>1</v>
-      </c>
-      <c r="J20" s="18">
-        <v>6</v>
       </c>
       <c r="K20" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L20" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M20" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N20" s="21">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" s="22">
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" s="103"/>
       <c r="Q20" s="104"/>
@@ -11421,30 +11476,30 @@
         <v>36</v>
       </c>
       <c r="I21" s="18">
+        <v>6</v>
+      </c>
+      <c r="J21" s="18">
         <v>1</v>
-      </c>
-      <c r="J21" s="18">
-        <v>6</v>
       </c>
       <c r="K21" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>CEA</v>
+        <v>CEL</v>
       </c>
       <c r="L21" s="19" t="str">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M21" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N21" s="21">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21" s="22">
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21" s="103"/>
       <c r="Q21" s="104"/>
@@ -11475,14 +11530,14 @@
       <c r="T22" s="84"/>
     </row>
     <row r="23" spans="1:20" s="82" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="145"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="144"/>
       <c r="G23" s="18" t="s">
         <v>35</v>
       </c>
@@ -11490,10 +11545,10 @@
         <v>36</v>
       </c>
       <c r="I23" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" s="18" t="str">
         <f t="shared" ref="K23:K28" si="20">CONCATENATE(G23,L23)</f>
@@ -11537,30 +11592,30 @@
         <v>36</v>
       </c>
       <c r="I24" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J24" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" s="18" t="str">
         <f t="shared" si="20"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L24" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M24" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N24" s="21">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O24" s="22">
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P24" s="83"/>
       <c r="Q24" s="84"/>
@@ -11584,30 +11639,30 @@
         <v>36</v>
       </c>
       <c r="I25" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J25" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="18" t="str">
         <f t="shared" si="20"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L25" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M25" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N25" s="21">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O25" s="22">
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25" s="83"/>
       <c r="Q25" s="84"/>
@@ -11634,7 +11689,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" s="18" t="str">
         <f t="shared" si="20"/>
@@ -11681,27 +11736,27 @@
         <v>2</v>
       </c>
       <c r="J27" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" s="18" t="str">
         <f t="shared" si="20"/>
-        <v>EEL</v>
+        <v>EEA</v>
       </c>
       <c r="L27" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M27" s="20" t="str">
         <f t="shared" si="22"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O27" s="22">
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" s="83"/>
       <c r="Q27" s="84"/>
@@ -11711,7 +11766,7 @@
     </row>
     <row r="28" spans="1:20" s="82" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="91" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B28" s="92"/>
       <c r="C28" s="92"/>
@@ -11728,7 +11783,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="18" t="str">
         <f t="shared" si="20"/>
@@ -11775,27 +11830,27 @@
         <v>1</v>
       </c>
       <c r="J29" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K29" s="18" t="str">
         <f t="shared" ref="K29" si="24">CONCATENATE(G29,L29)</f>
-        <v>EEL</v>
+        <v>EEA</v>
       </c>
       <c r="L29" s="19" t="str">
         <f t="shared" ref="L29" si="25">IF(OR(ISBLANK(I29),ISBLANK(J29)),IF(OR(G29="ALI",G29="AIE"),"L",IF(ISBLANK(G29),"","A")),IF(G29="EE",IF(J29&gt;=3,IF(I29&gt;=5,"H","A"),IF(J29&gt;=2,IF(I29&gt;=16,"H",IF(I29&lt;=4,"L","A")),IF(I29&lt;=15,"L","A"))),IF(OR(G29="SE",G29="CE"),IF(J29&gt;=4,IF(I29&gt;=6,"H","A"),IF(J29&gt;=2,IF(I29&gt;=20,"H",IF(I29&lt;=5,"L","A")),IF(I29&lt;=19,"L","A"))),IF(OR(G29="ALI",G29="AIE"),IF(J29&gt;=6,IF(I29&gt;=20,"H","A"),IF(J29&gt;=2,IF(I29&gt;=51,"H",IF(I29&lt;=19,"L","A")),IF(I29&lt;=50,"L","A")))))))</f>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M29" s="20" t="str">
         <f t="shared" ref="M29" si="26">IF(L29="L","Baixa",IF(L29="A","Média",IF(L29="","","Alta")))</f>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N29" s="21">
         <f t="shared" ref="N29" si="27">IF(ISBLANK(G29),"",IF(G29="ALI",IF(L29="L",7,IF(L29="A",10,15)),IF(G29="AIE",IF(L29="L",5,IF(L29="A",7,10)),IF(G29="SE",IF(L29="L",4,IF(L29="A",5,7)),IF(OR(G29="EE",G29="CE"),IF(L29="L",3,IF(L29="A",4,6)))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29" s="22">
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29" s="106"/>
       <c r="Q29" s="107"/>
@@ -11834,21 +11889,21 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="141"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="145"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="144"/>
       <c r="G31" s="18" t="s">
         <v>35</v>
       </c>
@@ -11856,36 +11911,36 @@
         <v>36</v>
       </c>
       <c r="I31" s="18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J31" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIA</v>
+        <v>ALIL</v>
       </c>
       <c r="L31" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M31" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N31" s="21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O31" s="22">
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
-        <v>10</v>
-      </c>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
+        <v>7</v>
+      </c>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="60" t="s">
@@ -11903,10 +11958,10 @@
         <v>36</v>
       </c>
       <c r="I32" s="18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J32" s="18">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -11928,11 +11983,11 @@
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -11950,10 +12005,10 @@
         <v>36</v>
       </c>
       <c r="I33" s="18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J33" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -11975,11 +12030,11 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
       <c r="A34" s="60" t="s">
@@ -12022,11 +12077,11 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="147"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="141"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="A35" s="60" t="s">
@@ -12069,21 +12124,21 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="141"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="141"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="140" t="s">
+      <c r="A36" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="147"/>
       <c r="G36" s="18" t="s">
         <v>38</v>
       </c>
@@ -12091,10 +12146,10 @@
         <v>36</v>
       </c>
       <c r="I36" s="18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J36" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -12116,15 +12171,15 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
+      <c r="P36" s="140"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="141"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
       <c r="A37" s="63" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -12163,19 +12218,19 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="147"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="147"/>
-      <c r="T37" s="147"/>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="141"/>
+      <c r="S37" s="141"/>
+      <c r="T37" s="141"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="150"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="164"/>
       <c r="G38" s="18"/>
       <c r="H38" s="25"/>
       <c r="I38" s="18"/>
@@ -12200,21 +12255,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-      <c r="T38" s="147"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="141"/>
+      <c r="R38" s="141"/>
+      <c r="S38" s="141"/>
+      <c r="T38" s="141"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="145"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="144"/>
       <c r="G39" s="18" t="s">
         <v>35</v>
       </c>
@@ -12222,46 +12277,46 @@
         <v>36</v>
       </c>
       <c r="I39" s="18">
+        <v>8</v>
+      </c>
+      <c r="J39" s="18">
         <v>3</v>
-      </c>
-      <c r="J39" s="18">
-        <v>8</v>
       </c>
       <c r="K39" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIA</v>
+        <v>ALIL</v>
       </c>
       <c r="L39" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M39" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N39" s="21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O39" s="22">
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
-        <v>10</v>
-      </c>
-      <c r="P39" s="146"/>
-      <c r="Q39" s="147"/>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
-      <c r="T39" s="147"/>
+        <v>7</v>
+      </c>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="141"/>
+      <c r="R39" s="141"/>
+      <c r="S39" s="141"/>
+      <c r="T39" s="141"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="147"/>
       <c r="G40" s="18" t="s">
         <v>37</v>
       </c>
@@ -12269,46 +12324,46 @@
         <v>36</v>
       </c>
       <c r="I40" s="18">
+        <v>8</v>
+      </c>
+      <c r="J40" s="18">
         <v>3</v>
-      </c>
-      <c r="J40" s="18">
-        <v>8</v>
       </c>
       <c r="K40" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L40" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M40" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N40" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O40" s="22">
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P40" s="146"/>
-      <c r="Q40" s="147"/>
-      <c r="R40" s="147"/>
-      <c r="S40" s="147"/>
-      <c r="T40" s="147"/>
+        <v>6</v>
+      </c>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="141"/>
+      <c r="R40" s="141"/>
+      <c r="S40" s="141"/>
+      <c r="T40" s="141"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="147"/>
       <c r="G41" s="18" t="s">
         <v>37</v>
       </c>
@@ -12316,46 +12371,46 @@
         <v>36</v>
       </c>
       <c r="I41" s="18">
+        <v>8</v>
+      </c>
+      <c r="J41" s="18">
         <v>3</v>
-      </c>
-      <c r="J41" s="18">
-        <v>8</v>
       </c>
       <c r="K41" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L41" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M41" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N41" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O41" s="22">
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P41" s="146"/>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
+        <v>6</v>
+      </c>
+      <c r="P41" s="140"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="141"/>
+      <c r="S41" s="141"/>
+      <c r="T41" s="141"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="147"/>
       <c r="G42" s="18" t="s">
         <v>37</v>
       </c>
@@ -12363,10 +12418,10 @@
         <v>36</v>
       </c>
       <c r="I42" s="18">
+        <v>2</v>
+      </c>
+      <c r="J42" s="18">
         <v>1</v>
-      </c>
-      <c r="J42" s="18">
-        <v>2</v>
       </c>
       <c r="K42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -12388,21 +12443,21 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P42" s="146"/>
-      <c r="Q42" s="147"/>
-      <c r="R42" s="147"/>
-      <c r="S42" s="147"/>
-      <c r="T42" s="147"/>
+      <c r="P42" s="140"/>
+      <c r="Q42" s="141"/>
+      <c r="R42" s="141"/>
+      <c r="S42" s="141"/>
+      <c r="T42" s="141"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="140" t="s">
+      <c r="A43" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="147"/>
       <c r="G43" s="18" t="s">
         <v>38</v>
       </c>
@@ -12410,10 +12465,10 @@
         <v>36</v>
       </c>
       <c r="I43" s="18">
+        <v>2</v>
+      </c>
+      <c r="J43" s="18">
         <v>1</v>
-      </c>
-      <c r="J43" s="18">
-        <v>2</v>
       </c>
       <c r="K43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -12435,21 +12490,21 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
+      <c r="P43" s="140"/>
+      <c r="Q43" s="141"/>
+      <c r="R43" s="141"/>
+      <c r="S43" s="141"/>
+      <c r="T43" s="141"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="140" t="s">
+      <c r="A44" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="147"/>
       <c r="G44" s="18" t="s">
         <v>37</v>
       </c>
@@ -12457,46 +12512,46 @@
         <v>36</v>
       </c>
       <c r="I44" s="18">
+        <v>8</v>
+      </c>
+      <c r="J44" s="18">
         <v>3</v>
-      </c>
-      <c r="J44" s="18">
-        <v>8</v>
       </c>
       <c r="K44" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L44" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M44" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N44" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O44" s="22">
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P44" s="146"/>
-      <c r="Q44" s="147"/>
-      <c r="R44" s="147"/>
-      <c r="S44" s="147"/>
-      <c r="T44" s="147"/>
+        <v>6</v>
+      </c>
+      <c r="P44" s="140"/>
+      <c r="Q44" s="141"/>
+      <c r="R44" s="141"/>
+      <c r="S44" s="141"/>
+      <c r="T44" s="141"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="140" t="s">
+      <c r="A45" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="147"/>
       <c r="G45" s="18" t="s">
         <v>51</v>
       </c>
@@ -12504,44 +12559,44 @@
         <v>36</v>
       </c>
       <c r="I45" s="18">
+        <v>8</v>
+      </c>
+      <c r="J45" s="18">
         <v>1</v>
-      </c>
-      <c r="J45" s="18">
-        <v>8</v>
       </c>
       <c r="K45" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>SEA</v>
+        <v>SEL</v>
       </c>
       <c r="L45" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M45" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N45" s="21">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O45" s="22">
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="147"/>
-      <c r="R45" s="147"/>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
+        <v>4</v>
+      </c>
+      <c r="P45" s="140"/>
+      <c r="Q45" s="141"/>
+      <c r="R45" s="141"/>
+      <c r="S45" s="141"/>
+      <c r="T45" s="141"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="140"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="142"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="147"/>
       <c r="G46" s="18"/>
       <c r="H46" s="25"/>
       <c r="I46" s="18"/>
@@ -12566,21 +12621,21 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P46" s="146"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="147"/>
-      <c r="S46" s="147"/>
-      <c r="T46" s="147"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="141"/>
+      <c r="R46" s="141"/>
+      <c r="S46" s="141"/>
+      <c r="T46" s="141"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="142"/>
+      <c r="B47" s="146"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="147"/>
       <c r="G47" s="18" t="s">
         <v>35</v>
       </c>
@@ -12609,21 +12664,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P47" s="146"/>
-      <c r="Q47" s="147"/>
-      <c r="R47" s="147"/>
-      <c r="S47" s="147"/>
-      <c r="T47" s="147"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="141"/>
+      <c r="R47" s="141"/>
+      <c r="S47" s="141"/>
+      <c r="T47" s="141"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="142"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="147"/>
       <c r="G48" s="18" t="s">
         <v>37</v>
       </c>
@@ -12652,21 +12707,21 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P48" s="146"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="147"/>
-      <c r="S48" s="147"/>
-      <c r="T48" s="147"/>
+      <c r="P48" s="140"/>
+      <c r="Q48" s="141"/>
+      <c r="R48" s="141"/>
+      <c r="S48" s="141"/>
+      <c r="T48" s="141"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="141"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="142"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="147"/>
       <c r="G49" s="18" t="s">
         <v>37</v>
       </c>
@@ -12695,21 +12750,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P49" s="146"/>
-      <c r="Q49" s="147"/>
-      <c r="R49" s="147"/>
-      <c r="S49" s="147"/>
-      <c r="T49" s="147"/>
+      <c r="P49" s="140"/>
+      <c r="Q49" s="141"/>
+      <c r="R49" s="141"/>
+      <c r="S49" s="141"/>
+      <c r="T49" s="141"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="142"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="146"/>
+      <c r="F50" s="147"/>
       <c r="G50" s="18" t="s">
         <v>37</v>
       </c>
@@ -12738,21 +12793,21 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P50" s="146"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="141"/>
+      <c r="R50" s="141"/>
+      <c r="S50" s="141"/>
+      <c r="T50" s="141"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="140" t="s">
+      <c r="A51" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="141"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="142"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="147"/>
       <c r="G51" s="18" t="s">
         <v>38</v>
       </c>
@@ -12781,21 +12836,21 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P51" s="146"/>
-      <c r="Q51" s="147"/>
-      <c r="R51" s="147"/>
-      <c r="S51" s="147"/>
-      <c r="T51" s="147"/>
+      <c r="P51" s="140"/>
+      <c r="Q51" s="141"/>
+      <c r="R51" s="141"/>
+      <c r="S51" s="141"/>
+      <c r="T51" s="141"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="140" t="s">
+      <c r="A52" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="142"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="147"/>
       <c r="G52" s="18" t="s">
         <v>51</v>
       </c>
@@ -12824,21 +12879,21 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P52" s="146"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
+      <c r="P52" s="140"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="141"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="140" t="s">
+      <c r="A53" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="142"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="147"/>
       <c r="G53" s="18" t="s">
         <v>37</v>
       </c>
@@ -12867,19 +12922,19 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P53" s="146"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147"/>
-      <c r="T53" s="147"/>
+      <c r="P53" s="140"/>
+      <c r="Q53" s="141"/>
+      <c r="R53" s="141"/>
+      <c r="S53" s="141"/>
+      <c r="T53" s="141"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="140"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="142"/>
+      <c r="A54" s="145"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="146"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="147"/>
       <c r="G54" s="18"/>
       <c r="H54" s="25"/>
       <c r="I54" s="18"/>
@@ -12904,21 +12959,21 @@
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P54" s="146"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
+      <c r="P54" s="140"/>
+      <c r="Q54" s="141"/>
+      <c r="R54" s="141"/>
+      <c r="S54" s="141"/>
+      <c r="T54" s="141"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="143" t="s">
+      <c r="A55" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="141"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="147"/>
       <c r="G55" s="18" t="s">
         <v>35</v>
       </c>
@@ -12947,21 +13002,21 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P55" s="146"/>
-      <c r="Q55" s="147"/>
-      <c r="R55" s="147"/>
-      <c r="S55" s="147"/>
-      <c r="T55" s="147"/>
+      <c r="P55" s="140"/>
+      <c r="Q55" s="141"/>
+      <c r="R55" s="141"/>
+      <c r="S55" s="141"/>
+      <c r="T55" s="141"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="141"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="142"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="147"/>
       <c r="G56" s="18" t="s">
         <v>37</v>
       </c>
@@ -12990,21 +13045,21 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P56" s="146"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="147"/>
-      <c r="T56" s="147"/>
+      <c r="P56" s="140"/>
+      <c r="Q56" s="141"/>
+      <c r="R56" s="141"/>
+      <c r="S56" s="141"/>
+      <c r="T56" s="141"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="142"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="146"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="147"/>
       <c r="G57" s="18" t="s">
         <v>37</v>
       </c>
@@ -13033,21 +13088,21 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P57" s="146"/>
-      <c r="Q57" s="147"/>
-      <c r="R57" s="147"/>
-      <c r="S57" s="147"/>
-      <c r="T57" s="147"/>
+      <c r="P57" s="140"/>
+      <c r="Q57" s="141"/>
+      <c r="R57" s="141"/>
+      <c r="S57" s="141"/>
+      <c r="T57" s="141"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="140" t="s">
+      <c r="A58" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="142"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="147"/>
       <c r="G58" s="18" t="s">
         <v>37</v>
       </c>
@@ -13076,21 +13131,21 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P58" s="146"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="147"/>
-      <c r="S58" s="147"/>
-      <c r="T58" s="147"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="141"/>
+      <c r="R58" s="141"/>
+      <c r="S58" s="141"/>
+      <c r="T58" s="141"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="140" t="s">
+      <c r="A59" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="142"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="147"/>
       <c r="G59" s="18" t="s">
         <v>38</v>
       </c>
@@ -13119,21 +13174,21 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P59" s="146"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="147"/>
-      <c r="S59" s="147"/>
-      <c r="T59" s="147"/>
+      <c r="P59" s="140"/>
+      <c r="Q59" s="141"/>
+      <c r="R59" s="141"/>
+      <c r="S59" s="141"/>
+      <c r="T59" s="141"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="140" t="s">
+      <c r="A60" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="141"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="142"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="147"/>
       <c r="G60" s="18" t="s">
         <v>51</v>
       </c>
@@ -13162,21 +13217,21 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P60" s="146"/>
-      <c r="Q60" s="147"/>
-      <c r="R60" s="147"/>
-      <c r="S60" s="147"/>
-      <c r="T60" s="147"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="141"/>
+      <c r="R60" s="141"/>
+      <c r="S60" s="141"/>
+      <c r="T60" s="141"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="140" t="s">
+      <c r="A61" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="142"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="147"/>
       <c r="G61" s="18" t="s">
         <v>37</v>
       </c>
@@ -13205,19 +13260,19 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P61" s="146"/>
-      <c r="Q61" s="147"/>
-      <c r="R61" s="147"/>
-      <c r="S61" s="147"/>
-      <c r="T61" s="147"/>
+      <c r="P61" s="140"/>
+      <c r="Q61" s="141"/>
+      <c r="R61" s="141"/>
+      <c r="S61" s="141"/>
+      <c r="T61" s="141"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="140"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="142"/>
+      <c r="A62" s="145"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="147"/>
       <c r="G62" s="18"/>
       <c r="H62" s="25"/>
       <c r="I62" s="18"/>
@@ -13242,21 +13297,21 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P62" s="146"/>
-      <c r="Q62" s="147"/>
-      <c r="R62" s="147"/>
-      <c r="S62" s="147"/>
-      <c r="T62" s="147"/>
+      <c r="P62" s="140"/>
+      <c r="Q62" s="141"/>
+      <c r="R62" s="141"/>
+      <c r="S62" s="141"/>
+      <c r="T62" s="141"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="143" t="s">
+      <c r="A63" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="144"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="145"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="144"/>
       <c r="G63" s="18" t="s">
         <v>35</v>
       </c>
@@ -13285,21 +13340,21 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P63" s="146"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="147"/>
-      <c r="S63" s="147"/>
-      <c r="T63" s="147"/>
+      <c r="P63" s="140"/>
+      <c r="Q63" s="141"/>
+      <c r="R63" s="141"/>
+      <c r="S63" s="141"/>
+      <c r="T63" s="141"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="140" t="s">
+      <c r="A64" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="141"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="142"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="147"/>
       <c r="G64" s="18" t="s">
         <v>37</v>
       </c>
@@ -13328,21 +13383,21 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P64" s="146"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="147"/>
-      <c r="S64" s="147"/>
-      <c r="T64" s="147"/>
+      <c r="P64" s="140"/>
+      <c r="Q64" s="141"/>
+      <c r="R64" s="141"/>
+      <c r="S64" s="141"/>
+      <c r="T64" s="141"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="140" t="s">
+      <c r="A65" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="141"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="142"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="147"/>
       <c r="G65" s="18" t="s">
         <v>37</v>
       </c>
@@ -13371,21 +13426,21 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P65" s="146"/>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="147"/>
-      <c r="S65" s="147"/>
-      <c r="T65" s="147"/>
+      <c r="P65" s="140"/>
+      <c r="Q65" s="141"/>
+      <c r="R65" s="141"/>
+      <c r="S65" s="141"/>
+      <c r="T65" s="141"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="140" t="s">
+      <c r="A66" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="141"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="142"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="147"/>
       <c r="G66" s="18" t="s">
         <v>37</v>
       </c>
@@ -13414,21 +13469,21 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P66" s="146"/>
-      <c r="Q66" s="147"/>
-      <c r="R66" s="147"/>
-      <c r="S66" s="147"/>
-      <c r="T66" s="147"/>
+      <c r="P66" s="140"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="141"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="141"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="140" t="s">
+      <c r="A67" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="141"/>
-      <c r="C67" s="141"/>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="142"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="147"/>
       <c r="G67" s="18" t="s">
         <v>38</v>
       </c>
@@ -13457,21 +13512,21 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P67" s="146"/>
-      <c r="Q67" s="147"/>
-      <c r="R67" s="147"/>
-      <c r="S67" s="147"/>
-      <c r="T67" s="147"/>
+      <c r="P67" s="140"/>
+      <c r="Q67" s="141"/>
+      <c r="R67" s="141"/>
+      <c r="S67" s="141"/>
+      <c r="T67" s="141"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="140" t="s">
+      <c r="A68" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="141"/>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="142"/>
+      <c r="B68" s="146"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="147"/>
       <c r="G68" s="18" t="s">
         <v>56</v>
       </c>
@@ -13500,21 +13555,21 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P68" s="146"/>
-      <c r="Q68" s="147"/>
-      <c r="R68" s="147"/>
-      <c r="S68" s="147"/>
-      <c r="T68" s="147"/>
+      <c r="P68" s="140"/>
+      <c r="Q68" s="141"/>
+      <c r="R68" s="141"/>
+      <c r="S68" s="141"/>
+      <c r="T68" s="141"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="140" t="s">
+      <c r="A69" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="142"/>
+      <c r="B69" s="146"/>
+      <c r="C69" s="146"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="146"/>
+      <c r="F69" s="147"/>
       <c r="G69" s="18" t="s">
         <v>37</v>
       </c>
@@ -13543,21 +13598,21 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P69" s="146"/>
-      <c r="Q69" s="147"/>
-      <c r="R69" s="147"/>
-      <c r="S69" s="147"/>
-      <c r="T69" s="147"/>
+      <c r="P69" s="140"/>
+      <c r="Q69" s="141"/>
+      <c r="R69" s="141"/>
+      <c r="S69" s="141"/>
+      <c r="T69" s="141"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="140" t="s">
+      <c r="A70" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="141"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="142"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="146"/>
+      <c r="D70" s="146"/>
+      <c r="E70" s="146"/>
+      <c r="F70" s="147"/>
       <c r="G70" s="18" t="s">
         <v>51</v>
       </c>
@@ -13586,19 +13641,19 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P70" s="146"/>
-      <c r="Q70" s="147"/>
-      <c r="R70" s="147"/>
-      <c r="S70" s="147"/>
-      <c r="T70" s="147"/>
+      <c r="P70" s="140"/>
+      <c r="Q70" s="141"/>
+      <c r="R70" s="141"/>
+      <c r="S70" s="141"/>
+      <c r="T70" s="141"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="140"/>
-      <c r="B71" s="141"/>
-      <c r="C71" s="141"/>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="142"/>
+      <c r="A71" s="145"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="146"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="147"/>
       <c r="G71" s="18"/>
       <c r="H71" s="25"/>
       <c r="I71" s="18"/>
@@ -13623,21 +13678,21 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P71" s="146"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="147"/>
-      <c r="S71" s="147"/>
-      <c r="T71" s="147"/>
+      <c r="P71" s="140"/>
+      <c r="Q71" s="141"/>
+      <c r="R71" s="141"/>
+      <c r="S71" s="141"/>
+      <c r="T71" s="141"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="143" t="s">
+      <c r="A72" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="144"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="144"/>
-      <c r="E72" s="144"/>
-      <c r="F72" s="145"/>
+      <c r="B72" s="143"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="144"/>
       <c r="G72" s="18" t="s">
         <v>35</v>
       </c>
@@ -13666,21 +13721,21 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P72" s="146"/>
-      <c r="Q72" s="147"/>
-      <c r="R72" s="147"/>
-      <c r="S72" s="147"/>
-      <c r="T72" s="147"/>
+      <c r="P72" s="140"/>
+      <c r="Q72" s="141"/>
+      <c r="R72" s="141"/>
+      <c r="S72" s="141"/>
+      <c r="T72" s="141"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
-      <c r="A73" s="140" t="s">
+      <c r="A73" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="141"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="142"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="146"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="146"/>
+      <c r="F73" s="147"/>
       <c r="G73" s="18" t="s">
         <v>37</v>
       </c>
@@ -13709,21 +13764,21 @@
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P73" s="146"/>
-      <c r="Q73" s="147"/>
-      <c r="R73" s="147"/>
-      <c r="S73" s="147"/>
-      <c r="T73" s="147"/>
+      <c r="P73" s="140"/>
+      <c r="Q73" s="141"/>
+      <c r="R73" s="141"/>
+      <c r="S73" s="141"/>
+      <c r="T73" s="141"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
-      <c r="A74" s="140" t="s">
+      <c r="A74" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="141"/>
-      <c r="C74" s="141"/>
-      <c r="D74" s="141"/>
-      <c r="E74" s="141"/>
-      <c r="F74" s="142"/>
+      <c r="B74" s="146"/>
+      <c r="C74" s="146"/>
+      <c r="D74" s="146"/>
+      <c r="E74" s="146"/>
+      <c r="F74" s="147"/>
       <c r="G74" s="18" t="s">
         <v>37</v>
       </c>
@@ -13752,21 +13807,21 @@
         <f>IF(H74="I",N74*Contagem!$U$11,IF(H74="E",N74*Contagem!$U$13,IF(H74="A",N74*Contagem!$U$12,IF(H74="T",N74*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P74" s="146"/>
-      <c r="Q74" s="147"/>
-      <c r="R74" s="147"/>
-      <c r="S74" s="147"/>
-      <c r="T74" s="147"/>
+      <c r="P74" s="140"/>
+      <c r="Q74" s="141"/>
+      <c r="R74" s="141"/>
+      <c r="S74" s="141"/>
+      <c r="T74" s="141"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="140" t="s">
+      <c r="A75" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="141"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="141"/>
-      <c r="E75" s="141"/>
-      <c r="F75" s="142"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="147"/>
       <c r="G75" s="18" t="s">
         <v>37</v>
       </c>
@@ -13795,21 +13850,21 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P75" s="146"/>
-      <c r="Q75" s="147"/>
-      <c r="R75" s="147"/>
-      <c r="S75" s="147"/>
-      <c r="T75" s="147"/>
+      <c r="P75" s="140"/>
+      <c r="Q75" s="141"/>
+      <c r="R75" s="141"/>
+      <c r="S75" s="141"/>
+      <c r="T75" s="141"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="140" t="s">
+      <c r="A76" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="141"/>
-      <c r="C76" s="141"/>
-      <c r="D76" s="141"/>
-      <c r="E76" s="141"/>
-      <c r="F76" s="142"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="146"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="147"/>
       <c r="G76" s="18" t="s">
         <v>38</v>
       </c>
@@ -13838,21 +13893,21 @@
         <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P76" s="146"/>
-      <c r="Q76" s="147"/>
-      <c r="R76" s="147"/>
-      <c r="S76" s="147"/>
-      <c r="T76" s="147"/>
+      <c r="P76" s="140"/>
+      <c r="Q76" s="141"/>
+      <c r="R76" s="141"/>
+      <c r="S76" s="141"/>
+      <c r="T76" s="141"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="140" t="s">
+      <c r="A77" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="141"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="142"/>
+      <c r="B77" s="146"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="147"/>
       <c r="G77" s="18" t="s">
         <v>38</v>
       </c>
@@ -13881,21 +13936,21 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P77" s="146"/>
-      <c r="Q77" s="147"/>
-      <c r="R77" s="147"/>
-      <c r="S77" s="147"/>
-      <c r="T77" s="147"/>
+      <c r="P77" s="140"/>
+      <c r="Q77" s="141"/>
+      <c r="R77" s="141"/>
+      <c r="S77" s="141"/>
+      <c r="T77" s="141"/>
     </row>
     <row r="78" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="140" t="s">
+      <c r="A78" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="141"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="142"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="146"/>
+      <c r="F78" s="147"/>
       <c r="G78" s="18" t="s">
         <v>51</v>
       </c>
@@ -13931,12 +13986,12 @@
       <c r="T78" s="72"/>
     </row>
     <row r="79" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="140"/>
-      <c r="B79" s="141"/>
-      <c r="C79" s="141"/>
-      <c r="D79" s="141"/>
-      <c r="E79" s="141"/>
-      <c r="F79" s="142"/>
+      <c r="A79" s="145"/>
+      <c r="B79" s="146"/>
+      <c r="C79" s="146"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="146"/>
+      <c r="F79" s="147"/>
       <c r="G79" s="18"/>
       <c r="H79" s="25"/>
       <c r="I79" s="18"/>
@@ -13968,14 +14023,14 @@
       <c r="T79" s="72"/>
     </row>
     <row r="80" spans="1:20" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="143" t="s">
+      <c r="A80" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="141"/>
-      <c r="C80" s="141"/>
-      <c r="D80" s="141"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="142"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="146"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="147"/>
       <c r="G80" s="18" t="s">
         <v>35</v>
       </c>
@@ -14011,14 +14066,14 @@
       <c r="T80" s="72"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="140" t="s">
+      <c r="A81" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="141"/>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="142"/>
+      <c r="B81" s="146"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="146"/>
+      <c r="F81" s="147"/>
       <c r="G81" s="18" t="s">
         <v>37</v>
       </c>
@@ -14047,21 +14102,21 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P81" s="146"/>
-      <c r="Q81" s="147"/>
-      <c r="R81" s="147"/>
-      <c r="S81" s="147"/>
-      <c r="T81" s="147"/>
+      <c r="P81" s="140"/>
+      <c r="Q81" s="141"/>
+      <c r="R81" s="141"/>
+      <c r="S81" s="141"/>
+      <c r="T81" s="141"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="140" t="s">
+      <c r="A82" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="141"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="141"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="142"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="146"/>
+      <c r="D82" s="146"/>
+      <c r="E82" s="146"/>
+      <c r="F82" s="147"/>
       <c r="G82" s="18" t="s">
         <v>37</v>
       </c>
@@ -14090,21 +14145,21 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P82" s="146"/>
-      <c r="Q82" s="147"/>
-      <c r="R82" s="147"/>
-      <c r="S82" s="147"/>
-      <c r="T82" s="147"/>
+      <c r="P82" s="140"/>
+      <c r="Q82" s="141"/>
+      <c r="R82" s="141"/>
+      <c r="S82" s="141"/>
+      <c r="T82" s="141"/>
     </row>
     <row r="83" spans="1:20" ht="15" customHeight="1">
-      <c r="A83" s="140" t="s">
+      <c r="A83" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="B83" s="141"/>
-      <c r="C83" s="141"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="141"/>
-      <c r="F83" s="142"/>
+      <c r="B83" s="146"/>
+      <c r="C83" s="146"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="146"/>
+      <c r="F83" s="147"/>
       <c r="G83" s="18" t="s">
         <v>37</v>
       </c>
@@ -14135,14 +14190,14 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
-      <c r="A84" s="140" t="s">
+      <c r="A84" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="141"/>
-      <c r="C84" s="141"/>
-      <c r="D84" s="141"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="142"/>
+      <c r="B84" s="146"/>
+      <c r="C84" s="146"/>
+      <c r="D84" s="146"/>
+      <c r="E84" s="146"/>
+      <c r="F84" s="147"/>
       <c r="G84" s="18" t="s">
         <v>38</v>
       </c>
@@ -14171,21 +14226,21 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P84" s="146"/>
-      <c r="Q84" s="147"/>
-      <c r="R84" s="147"/>
-      <c r="S84" s="147"/>
-      <c r="T84" s="147"/>
+      <c r="P84" s="140"/>
+      <c r="Q84" s="141"/>
+      <c r="R84" s="141"/>
+      <c r="S84" s="141"/>
+      <c r="T84" s="141"/>
     </row>
     <row r="85" spans="1:20" ht="15" customHeight="1">
-      <c r="A85" s="140" t="s">
+      <c r="A85" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="141"/>
-      <c r="C85" s="141"/>
-      <c r="D85" s="141"/>
-      <c r="E85" s="141"/>
-      <c r="F85" s="142"/>
+      <c r="B85" s="146"/>
+      <c r="C85" s="146"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="146"/>
+      <c r="F85" s="147"/>
       <c r="G85" s="18" t="s">
         <v>38</v>
       </c>
@@ -14214,21 +14269,21 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P85" s="146"/>
-      <c r="Q85" s="147"/>
-      <c r="R85" s="147"/>
-      <c r="S85" s="147"/>
-      <c r="T85" s="147"/>
+      <c r="P85" s="140"/>
+      <c r="Q85" s="141"/>
+      <c r="R85" s="141"/>
+      <c r="S85" s="141"/>
+      <c r="T85" s="141"/>
     </row>
     <row r="86" spans="1:20" ht="15" customHeight="1">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="142"/>
+      <c r="B86" s="146"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="147"/>
       <c r="G86" s="18" t="s">
         <v>51</v>
       </c>
@@ -14257,19 +14312,19 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P86" s="146"/>
-      <c r="Q86" s="147"/>
-      <c r="R86" s="147"/>
-      <c r="S86" s="147"/>
-      <c r="T86" s="147"/>
+      <c r="P86" s="140"/>
+      <c r="Q86" s="141"/>
+      <c r="R86" s="141"/>
+      <c r="S86" s="141"/>
+      <c r="T86" s="141"/>
     </row>
     <row r="87" spans="1:20" ht="15" customHeight="1">
-      <c r="A87" s="140"/>
-      <c r="B87" s="141"/>
-      <c r="C87" s="141"/>
-      <c r="D87" s="141"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="142"/>
+      <c r="A87" s="145"/>
+      <c r="B87" s="146"/>
+      <c r="C87" s="146"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="147"/>
       <c r="G87" s="18"/>
       <c r="H87" s="25"/>
       <c r="I87" s="18"/>
@@ -14294,21 +14349,21 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P87" s="146"/>
-      <c r="Q87" s="147"/>
-      <c r="R87" s="147"/>
-      <c r="S87" s="147"/>
-      <c r="T87" s="147"/>
+      <c r="P87" s="140"/>
+      <c r="Q87" s="141"/>
+      <c r="R87" s="141"/>
+      <c r="S87" s="141"/>
+      <c r="T87" s="141"/>
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1">
-      <c r="A88" s="143" t="s">
+      <c r="A88" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="142"/>
+      <c r="B88" s="146"/>
+      <c r="C88" s="146"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="146"/>
+      <c r="F88" s="147"/>
       <c r="G88" s="18" t="s">
         <v>35</v>
       </c>
@@ -14337,21 +14392,21 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P88" s="146"/>
-      <c r="Q88" s="147"/>
-      <c r="R88" s="147"/>
-      <c r="S88" s="147"/>
-      <c r="T88" s="147"/>
+      <c r="P88" s="140"/>
+      <c r="Q88" s="141"/>
+      <c r="R88" s="141"/>
+      <c r="S88" s="141"/>
+      <c r="T88" s="141"/>
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="142"/>
+      <c r="B89" s="146"/>
+      <c r="C89" s="146"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="147"/>
       <c r="G89" s="18" t="s">
         <v>37</v>
       </c>
@@ -14380,21 +14435,21 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P89" s="146"/>
-      <c r="Q89" s="147"/>
-      <c r="R89" s="147"/>
-      <c r="S89" s="147"/>
-      <c r="T89" s="147"/>
+      <c r="P89" s="140"/>
+      <c r="Q89" s="141"/>
+      <c r="R89" s="141"/>
+      <c r="S89" s="141"/>
+      <c r="T89" s="141"/>
     </row>
     <row r="90" spans="1:20" ht="15" customHeight="1">
-      <c r="A90" s="140" t="s">
+      <c r="A90" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="141"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="141"/>
-      <c r="E90" s="141"/>
-      <c r="F90" s="142"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="146"/>
+      <c r="D90" s="146"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="147"/>
       <c r="G90" s="18" t="s">
         <v>37</v>
       </c>
@@ -14423,21 +14478,21 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P90" s="146"/>
-      <c r="Q90" s="147"/>
-      <c r="R90" s="147"/>
-      <c r="S90" s="147"/>
-      <c r="T90" s="147"/>
+      <c r="P90" s="140"/>
+      <c r="Q90" s="141"/>
+      <c r="R90" s="141"/>
+      <c r="S90" s="141"/>
+      <c r="T90" s="141"/>
     </row>
     <row r="91" spans="1:20" ht="15" customHeight="1">
-      <c r="A91" s="140" t="s">
+      <c r="A91" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="141"/>
-      <c r="C91" s="141"/>
-      <c r="D91" s="141"/>
-      <c r="E91" s="141"/>
-      <c r="F91" s="142"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
+      <c r="F91" s="147"/>
       <c r="G91" s="18" t="s">
         <v>38</v>
       </c>
@@ -14466,21 +14521,21 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P91" s="146"/>
-      <c r="Q91" s="147"/>
-      <c r="R91" s="147"/>
-      <c r="S91" s="147"/>
-      <c r="T91" s="147"/>
+      <c r="P91" s="140"/>
+      <c r="Q91" s="141"/>
+      <c r="R91" s="141"/>
+      <c r="S91" s="141"/>
+      <c r="T91" s="141"/>
     </row>
     <row r="92" spans="1:20" s="73" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="140" t="s">
+      <c r="A92" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="141"/>
-      <c r="C92" s="141"/>
-      <c r="D92" s="141"/>
-      <c r="E92" s="141"/>
-      <c r="F92" s="142"/>
+      <c r="B92" s="146"/>
+      <c r="C92" s="146"/>
+      <c r="D92" s="146"/>
+      <c r="E92" s="146"/>
+      <c r="F92" s="147"/>
       <c r="G92" s="18" t="s">
         <v>37</v>
       </c>
@@ -14516,14 +14571,14 @@
       <c r="T92" s="81"/>
     </row>
     <row r="93" spans="1:20" ht="15" customHeight="1">
-      <c r="A93" s="140" t="s">
+      <c r="A93" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="141"/>
-      <c r="C93" s="141"/>
-      <c r="D93" s="141"/>
-      <c r="E93" s="141"/>
-      <c r="F93" s="142"/>
+      <c r="B93" s="146"/>
+      <c r="C93" s="146"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="146"/>
+      <c r="F93" s="147"/>
       <c r="G93" s="18" t="s">
         <v>38</v>
       </c>
@@ -14559,14 +14614,14 @@
       <c r="T93" s="81"/>
     </row>
     <row r="94" spans="1:20" ht="15" customHeight="1">
-      <c r="A94" s="140" t="s">
+      <c r="A94" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="141"/>
-      <c r="C94" s="141"/>
-      <c r="D94" s="141"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="142"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="146"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="146"/>
+      <c r="F94" s="147"/>
       <c r="G94" s="18" t="s">
         <v>37</v>
       </c>
@@ -14602,14 +14657,14 @@
       <c r="T94" s="81"/>
     </row>
     <row r="95" spans="1:20" ht="15" customHeight="1">
-      <c r="A95" s="140" t="s">
+      <c r="A95" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="141"/>
-      <c r="C95" s="141"/>
-      <c r="D95" s="141"/>
-      <c r="E95" s="141"/>
-      <c r="F95" s="142"/>
+      <c r="B95" s="146"/>
+      <c r="C95" s="146"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="146"/>
+      <c r="F95" s="147"/>
       <c r="G95" s="18" t="s">
         <v>51</v>
       </c>
@@ -14638,21 +14693,21 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P95" s="146"/>
-      <c r="Q95" s="147"/>
-      <c r="R95" s="147"/>
-      <c r="S95" s="147"/>
-      <c r="T95" s="147"/>
+      <c r="P95" s="140"/>
+      <c r="Q95" s="141"/>
+      <c r="R95" s="141"/>
+      <c r="S95" s="141"/>
+      <c r="T95" s="141"/>
     </row>
     <row r="96" spans="1:20" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="140" t="s">
+      <c r="A96" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="141"/>
-      <c r="C96" s="141"/>
-      <c r="D96" s="141"/>
-      <c r="E96" s="141"/>
-      <c r="F96" s="142"/>
+      <c r="B96" s="146"/>
+      <c r="C96" s="146"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="146"/>
+      <c r="F96" s="147"/>
       <c r="G96" s="18" t="s">
         <v>51</v>
       </c>
@@ -14681,11 +14736,11 @@
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P96" s="146"/>
-      <c r="Q96" s="147"/>
-      <c r="R96" s="147"/>
-      <c r="S96" s="147"/>
-      <c r="T96" s="147"/>
+      <c r="P96" s="140"/>
+      <c r="Q96" s="141"/>
+      <c r="R96" s="141"/>
+      <c r="S96" s="141"/>
+      <c r="T96" s="141"/>
     </row>
     <row r="97" spans="1:20" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="111"/>
@@ -14949,21 +15004,21 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v/>
       </c>
-      <c r="P103" s="146"/>
-      <c r="Q103" s="147"/>
-      <c r="R103" s="147"/>
-      <c r="S103" s="147"/>
-      <c r="T103" s="147"/>
+      <c r="P103" s="140"/>
+      <c r="Q103" s="141"/>
+      <c r="R103" s="141"/>
+      <c r="S103" s="141"/>
+      <c r="T103" s="141"/>
     </row>
     <row r="104" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="143" t="s">
+      <c r="A104" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="144"/>
-      <c r="C104" s="144"/>
-      <c r="D104" s="144"/>
-      <c r="E104" s="144"/>
-      <c r="F104" s="145"/>
+      <c r="B104" s="143"/>
+      <c r="C104" s="143"/>
+      <c r="D104" s="143"/>
+      <c r="E104" s="143"/>
+      <c r="F104" s="144"/>
       <c r="G104" s="18" t="s">
         <v>35</v>
       </c>
@@ -15236,14 +15291,14 @@
       <c r="T110" s="100"/>
     </row>
     <row r="111" spans="1:20" ht="15" customHeight="1">
-      <c r="A111" s="143" t="s">
+      <c r="A111" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="B111" s="144"/>
-      <c r="C111" s="144"/>
-      <c r="D111" s="144"/>
-      <c r="E111" s="144"/>
-      <c r="F111" s="145"/>
+      <c r="B111" s="143"/>
+      <c r="C111" s="143"/>
+      <c r="D111" s="143"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="144"/>
       <c r="G111" s="18" t="s">
         <v>35</v>
       </c>
@@ -15401,11 +15456,11 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P114" s="146"/>
-      <c r="Q114" s="147"/>
-      <c r="R114" s="147"/>
-      <c r="S114" s="147"/>
-      <c r="T114" s="147"/>
+      <c r="P114" s="140"/>
+      <c r="Q114" s="141"/>
+      <c r="R114" s="141"/>
+      <c r="S114" s="141"/>
+      <c r="T114" s="141"/>
     </row>
     <row r="115" spans="1:20" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="96" t="s">
@@ -15444,21 +15499,21 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P115" s="146"/>
-      <c r="Q115" s="147"/>
-      <c r="R115" s="147"/>
-      <c r="S115" s="147"/>
-      <c r="T115" s="147"/>
+      <c r="P115" s="140"/>
+      <c r="Q115" s="141"/>
+      <c r="R115" s="141"/>
+      <c r="S115" s="141"/>
+      <c r="T115" s="141"/>
     </row>
     <row r="116" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A116" s="140" t="s">
+      <c r="A116" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="B116" s="141"/>
-      <c r="C116" s="141"/>
-      <c r="D116" s="141"/>
-      <c r="E116" s="141"/>
-      <c r="F116" s="142"/>
+      <c r="B116" s="146"/>
+      <c r="C116" s="146"/>
+      <c r="D116" s="146"/>
+      <c r="E116" s="146"/>
+      <c r="F116" s="147"/>
       <c r="G116" s="18" t="s">
         <v>38</v>
       </c>
@@ -15559,14 +15614,14 @@
       <c r="T118" s="100"/>
     </row>
     <row r="119" spans="1:20" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A119" s="143" t="s">
+      <c r="A119" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="B119" s="144"/>
-      <c r="C119" s="144"/>
-      <c r="D119" s="144"/>
-      <c r="E119" s="144"/>
-      <c r="F119" s="145"/>
+      <c r="B119" s="143"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="144"/>
       <c r="G119" s="18" t="s">
         <v>35</v>
       </c>
@@ -15602,14 +15657,14 @@
       <c r="T119" s="87"/>
     </row>
     <row r="120" spans="1:20" ht="15" customHeight="1">
-      <c r="A120" s="140" t="s">
+      <c r="A120" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="B120" s="141"/>
-      <c r="C120" s="141"/>
-      <c r="D120" s="141"/>
-      <c r="E120" s="141"/>
-      <c r="F120" s="142"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="147"/>
       <c r="G120" s="18" t="s">
         <v>37</v>
       </c>
@@ -15638,21 +15693,21 @@
         <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P120" s="146"/>
-      <c r="Q120" s="147"/>
-      <c r="R120" s="147"/>
-      <c r="S120" s="147"/>
-      <c r="T120" s="147"/>
+      <c r="P120" s="140"/>
+      <c r="Q120" s="141"/>
+      <c r="R120" s="141"/>
+      <c r="S120" s="141"/>
+      <c r="T120" s="141"/>
     </row>
     <row r="121" spans="1:20" ht="15" customHeight="1">
-      <c r="A121" s="140" t="s">
+      <c r="A121" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B121" s="141"/>
-      <c r="C121" s="141"/>
-      <c r="D121" s="141"/>
-      <c r="E121" s="141"/>
-      <c r="F121" s="142"/>
+      <c r="B121" s="146"/>
+      <c r="C121" s="146"/>
+      <c r="D121" s="146"/>
+      <c r="E121" s="146"/>
+      <c r="F121" s="147"/>
       <c r="G121" s="18" t="s">
         <v>37</v>
       </c>
@@ -15683,14 +15738,14 @@
       </c>
     </row>
     <row r="122" spans="1:20" ht="15" customHeight="1">
-      <c r="A122" s="140" t="s">
+      <c r="A122" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B122" s="141"/>
-      <c r="C122" s="141"/>
-      <c r="D122" s="141"/>
-      <c r="E122" s="141"/>
-      <c r="F122" s="142"/>
+      <c r="B122" s="146"/>
+      <c r="C122" s="146"/>
+      <c r="D122" s="146"/>
+      <c r="E122" s="146"/>
+      <c r="F122" s="147"/>
       <c r="G122" s="18" t="s">
         <v>37</v>
       </c>
@@ -15721,14 +15776,14 @@
       </c>
     </row>
     <row r="123" spans="1:20" ht="15" customHeight="1">
-      <c r="A123" s="140" t="s">
+      <c r="A123" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="B123" s="141"/>
-      <c r="C123" s="141"/>
-      <c r="D123" s="141"/>
-      <c r="E123" s="141"/>
-      <c r="F123" s="142"/>
+      <c r="B123" s="146"/>
+      <c r="C123" s="146"/>
+      <c r="D123" s="146"/>
+      <c r="E123" s="146"/>
+      <c r="F123" s="147"/>
       <c r="G123" s="18" t="s">
         <v>38</v>
       </c>
@@ -15759,14 +15814,14 @@
       </c>
     </row>
     <row r="124" spans="1:20" ht="15" customHeight="1">
-      <c r="A124" s="140" t="s">
+      <c r="A124" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="B124" s="141"/>
-      <c r="C124" s="141"/>
-      <c r="D124" s="141"/>
-      <c r="E124" s="141"/>
-      <c r="F124" s="142"/>
+      <c r="B124" s="146"/>
+      <c r="C124" s="146"/>
+      <c r="D124" s="146"/>
+      <c r="E124" s="146"/>
+      <c r="F124" s="147"/>
       <c r="G124" s="18" t="s">
         <v>37</v>
       </c>
@@ -15797,14 +15852,14 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="15" customHeight="1">
-      <c r="A125" s="140" t="s">
+      <c r="A125" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="B125" s="141"/>
-      <c r="C125" s="141"/>
-      <c r="D125" s="141"/>
-      <c r="E125" s="141"/>
-      <c r="F125" s="142"/>
+      <c r="B125" s="146"/>
+      <c r="C125" s="146"/>
+      <c r="D125" s="146"/>
+      <c r="E125" s="146"/>
+      <c r="F125" s="147"/>
       <c r="G125" s="18" t="s">
         <v>51</v>
       </c>
@@ -15835,12 +15890,12 @@
       </c>
     </row>
     <row r="126" spans="1:20" ht="15" customHeight="1">
-      <c r="A126" s="140"/>
-      <c r="B126" s="141"/>
-      <c r="C126" s="141"/>
-      <c r="D126" s="141"/>
-      <c r="E126" s="141"/>
-      <c r="F126" s="142"/>
+      <c r="A126" s="145"/>
+      <c r="B126" s="146"/>
+      <c r="C126" s="146"/>
+      <c r="D126" s="146"/>
+      <c r="E126" s="146"/>
+      <c r="F126" s="147"/>
       <c r="G126" s="18"/>
       <c r="H126" s="25"/>
       <c r="I126" s="18"/>
@@ -15867,14 +15922,14 @@
       </c>
     </row>
     <row r="127" spans="1:20" ht="15" customHeight="1">
-      <c r="A127" s="143" t="s">
+      <c r="A127" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="145"/>
+      <c r="B127" s="143"/>
+      <c r="C127" s="143"/>
+      <c r="D127" s="143"/>
+      <c r="E127" s="143"/>
+      <c r="F127" s="144"/>
       <c r="G127" s="18" t="s">
         <v>35</v>
       </c>
@@ -15905,14 +15960,14 @@
       </c>
     </row>
     <row r="128" spans="1:20" ht="15" customHeight="1">
-      <c r="A128" s="140" t="s">
+      <c r="A128" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="141"/>
-      <c r="C128" s="141"/>
-      <c r="D128" s="141"/>
-      <c r="E128" s="141"/>
-      <c r="F128" s="142"/>
+      <c r="B128" s="146"/>
+      <c r="C128" s="146"/>
+      <c r="D128" s="146"/>
+      <c r="E128" s="146"/>
+      <c r="F128" s="147"/>
       <c r="G128" s="18" t="s">
         <v>51</v>
       </c>
@@ -15943,14 +15998,14 @@
       </c>
     </row>
     <row r="129" spans="1:15" ht="15" customHeight="1">
-      <c r="A129" s="140" t="s">
+      <c r="A129" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="141"/>
-      <c r="C129" s="141"/>
-      <c r="D129" s="141"/>
-      <c r="E129" s="141"/>
-      <c r="F129" s="142"/>
+      <c r="B129" s="146"/>
+      <c r="C129" s="146"/>
+      <c r="D129" s="146"/>
+      <c r="E129" s="146"/>
+      <c r="F129" s="147"/>
       <c r="G129" s="18" t="s">
         <v>51</v>
       </c>
@@ -15981,14 +16036,14 @@
       </c>
     </row>
     <row r="130" spans="1:15" ht="15" customHeight="1">
-      <c r="A130" s="140" t="s">
+      <c r="A130" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="B130" s="141"/>
-      <c r="C130" s="141"/>
-      <c r="D130" s="141"/>
-      <c r="E130" s="141"/>
-      <c r="F130" s="142"/>
+      <c r="B130" s="146"/>
+      <c r="C130" s="146"/>
+      <c r="D130" s="146"/>
+      <c r="E130" s="146"/>
+      <c r="F130" s="147"/>
       <c r="G130" s="18" t="s">
         <v>51</v>
       </c>
@@ -16019,14 +16074,14 @@
       </c>
     </row>
     <row r="131" spans="1:15" ht="15" customHeight="1">
-      <c r="A131" s="140" t="s">
+      <c r="A131" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="B131" s="141"/>
-      <c r="C131" s="141"/>
-      <c r="D131" s="141"/>
-      <c r="E131" s="141"/>
-      <c r="F131" s="142"/>
+      <c r="B131" s="146"/>
+      <c r="C131" s="146"/>
+      <c r="D131" s="146"/>
+      <c r="E131" s="146"/>
+      <c r="F131" s="147"/>
       <c r="G131" s="18" t="s">
         <v>51</v>
       </c>
@@ -16112,14 +16167,14 @@
       <c r="O133" s="22"/>
     </row>
     <row r="134" spans="1:15" ht="15" customHeight="1">
-      <c r="A134" s="140" t="s">
+      <c r="A134" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="141"/>
-      <c r="C134" s="141"/>
-      <c r="D134" s="141"/>
-      <c r="E134" s="141"/>
-      <c r="F134" s="142"/>
+      <c r="B134" s="146"/>
+      <c r="C134" s="146"/>
+      <c r="D134" s="146"/>
+      <c r="E134" s="146"/>
+      <c r="F134" s="147"/>
       <c r="G134" s="18" t="s">
         <v>56</v>
       </c>
@@ -16155,51 +16210,102 @@
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="G4:T4"/>
@@ -16224,104 +16330,53 @@
     <mergeCell ref="P7:T7"/>
     <mergeCell ref="P8:T8"/>
     <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A125:F125"/>
   </mergeCells>
   <conditionalFormatting sqref="H8 H22 H79 H54 H71 H62 H46 H38 H16">
     <cfRule type="cellIs" dxfId="347" priority="646" operator="equal">
@@ -18095,88 +18150,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="170"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="170"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="172"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="172"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="174"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="173" t="str">
+      <c r="A4" s="166" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="176" t="str">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="177" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="177"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="178"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="173" t="str">
+      <c r="A5" s="166" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v>Responsável : Paulo César</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="176" t="str">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="177" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="177"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="178"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="26" t="str">
@@ -18187,58 +18242,58 @@
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="179" t="str">
+      <c r="F6" s="180" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="179" t="str">
+      <c r="G6" s="117"/>
+      <c r="H6" s="180" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 260.000,00</v>
-      </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="178" t="str">
+        <v xml:space="preserve"> Custo= R$ 259.000,00</v>
+      </c>
+      <c r="I6" s="119"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="179" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 520</v>
-      </c>
-      <c r="L6" s="177"/>
+        <v>PF  = 518</v>
+      </c>
+      <c r="L6" s="178"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="181" t="s">
+      <c r="B7" s="125"/>
+      <c r="C7" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="174" t="s">
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174" t="s">
+      <c r="H7" s="175"/>
+      <c r="I7" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="175"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="171"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="172"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="174"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="29"/>
@@ -18261,7 +18316,7 @@
       </c>
       <c r="C10" s="33">
         <f>COUNTIF(CF,"EEL")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="34" t="s">
@@ -18272,7 +18327,7 @@
       </c>
       <c r="G10" s="35">
         <f>C10*3</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="36"/>
@@ -18285,7 +18340,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="33">
         <f>COUNTIF(CF,"EEA")</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="34" t="s">
@@ -18296,7 +18351,7 @@
       </c>
       <c r="G11" s="35">
         <f>C11*4</f>
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="36"/>
@@ -18309,7 +18364,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="33">
         <f>COUNTIF(CF,"EEH")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="34" t="s">
@@ -18320,7 +18375,7 @@
       </c>
       <c r="G12" s="35">
         <f>C12*6</f>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="36"/>
@@ -18358,12 +18413,12 @@
       </c>
       <c r="G14" s="35">
         <f>SUM(G10:G12)</f>
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="40">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.4</v>
+        <v>0.41891891891891891</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -18404,7 +18459,7 @@
       </c>
       <c r="C17" s="33">
         <f>COUNTIF(CF,"SEL")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="34" t="s">
@@ -18415,7 +18470,7 @@
       </c>
       <c r="G17" s="35">
         <f>C17*4</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -18428,7 +18483,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="33">
         <f>COUNTIF(CF,"SEA")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="34" t="s">
@@ -18439,7 +18494,7 @@
       </c>
       <c r="G18" s="35">
         <f>C18*5</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -18501,12 +18556,12 @@
       </c>
       <c r="G21" s="35">
         <f>SUM(G17:G19)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="43">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.17884615384615385</v>
+        <v>0.17760617760617761</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -18547,7 +18602,7 @@
       </c>
       <c r="C24" s="33">
         <f>COUNTIF(CF,"CEL")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="34" t="s">
@@ -18558,7 +18613,7 @@
       </c>
       <c r="G24" s="35">
         <f>C24*3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -18571,7 +18626,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="33">
         <f>COUNTIF(CF,"CEA")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="34" t="s">
@@ -18582,7 +18637,7 @@
       </c>
       <c r="G25" s="35">
         <f>C25*4</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -18644,12 +18699,12 @@
       </c>
       <c r="G28" s="35">
         <f>SUM(G24:G26)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="44">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.1596153846153846</v>
+        <v>0.15830115830115829</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -18690,7 +18745,7 @@
       </c>
       <c r="C31" s="33">
         <f>COUNTIF(CF,"ALIL")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
@@ -18701,7 +18756,7 @@
       </c>
       <c r="G31" s="35">
         <f>C31*7</f>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -18714,7 +18769,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="33">
         <f>COUNTIF(CF,"ALIA")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
@@ -18725,7 +18780,7 @@
       </c>
       <c r="G32" s="35">
         <f>C32*10</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -18787,12 +18842,12 @@
       </c>
       <c r="G35" s="35">
         <f>SUM(G31:G33)</f>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="45">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.2326923076923077</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -18935,7 +18990,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="46">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v>2.8846153846153848E-2</v>
+        <v>2.8957528957528959E-2</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -18980,7 +19035,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="35">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -19134,14 +19189,14 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="165" t="s">
+      <c r="B55" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="126"/>
-      <c r="D55" s="127"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="48">
         <f>SUMIF(Funções!$H$8:$H$134,"I",Funções!$N$8:$N$134)</f>
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F55" s="48">
         <f>Contagem!U11</f>
@@ -19149,7 +19204,7 @@
       </c>
       <c r="G55" s="48">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
@@ -19161,11 +19216,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="165" t="s">
+      <c r="B56" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="126"/>
-      <c r="D56" s="127"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="48">
         <f>SUMIF(Funções!$H$8:$H$134,"A",Funções!$N$8:$N$134)</f>
         <v>0</v>
@@ -19183,17 +19238,17 @@
       <c r="J56" s="49"/>
       <c r="K56" s="51">
         <f>Contagem!W5</f>
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="32"/>
-      <c r="B57" s="165" t="s">
+      <c r="B57" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="48">
         <f>SUMIF(Funções!$H$8:$H$134,"E",Funções!$N$8:$N$134)</f>
         <v>0</v>
@@ -19214,11 +19269,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="32"/>
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="126"/>
-      <c r="D58" s="127"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="48">
         <f>SUMIF(Funções!$H$8:$H$134,"T",Funções!$N$8:$N$134)</f>
         <v>0</v>
@@ -19253,11 +19308,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A1:L3"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="A4:E4"/>
@@ -19271,6 +19321,11 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A1:L3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
